--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="2006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="3009">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -6038,6 +6038,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102834.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102828.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102793.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102778.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102770.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102765.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102759.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102757.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102752.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102722.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102720.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102704.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102702.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102694.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102693.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102690.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102656.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102652.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102647.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102636.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102620.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102615.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102614.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102605.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102594.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102593.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102592.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102586.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102582.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102572.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102558.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102557.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102545.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102544.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102542.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102533.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102513.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102507.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102505.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102503.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102500.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102499.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102498.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102497.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102496.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102492.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102479.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102478.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102477.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102471.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102467.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102466.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102463.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102462.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102461.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102449.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102436.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102434.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102429.html</t>
   </si>
 </sst>
 </file>
@@ -6058,7 +9067,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -6067,13 +9076,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6399,5017 +9410,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1004</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1006</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1007</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1014</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1017</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1023</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1024</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1025</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1026</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1027</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1029</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1030</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>1031</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>1032</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>1033</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>1034</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>1035</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>1036</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>1037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>1038</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>1039</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>1040</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>1041</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>1042</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>1043</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>1044</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>1045</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>1046</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>1047</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>1048</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>1049</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>1050</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>1051</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>1052</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>1053</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>1054</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>1055</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>1056</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>1057</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>1058</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>1059</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>1060</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>1061</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>1062</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>1063</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>1064</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>1065</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>1066</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>1067</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>1068</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>1069</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>1070</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>1071</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>1072</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>1073</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>1074</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>1075</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>1076</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>1077</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>1078</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>1079</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>1080</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>1081</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>1082</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>1083</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>1084</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>1085</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>1086</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>1087</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>1088</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>1089</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>1090</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>1091</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>1092</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>1093</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>1094</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>1095</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>1096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>1097</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>1098</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>1099</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>1100</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>1101</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>1102</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>1103</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>1104</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>1105</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>1106</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>1107</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>1108</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>1109</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>1110</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>1111</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>1112</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>1113</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>1114</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>1115</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>1116</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>1117</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>1118</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>1119</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>1120</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>1121</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>1122</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>1123</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>1124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>1125</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>1126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>1127</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>1128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>1129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>1130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>1131</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>1132</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>1133</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>1134</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>1135</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>1136</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>1137</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>1138</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>1139</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>1140</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>1141</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>1142</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>1143</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>1144</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>1145</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>1146</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>1147</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>1148</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>1149</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>1150</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>1151</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>1152</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>1153</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>1154</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>1155</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>1156</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>1157</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>1158</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>1159</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>1160</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>1161</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>1162</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>1163</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>1164</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>1165</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>1166</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>1167</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>1168</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>1169</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>1170</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>1171</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>1172</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>1173</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>1174</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>1175</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>1176</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>1177</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>1178</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>1179</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>1180</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>1181</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>1182</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>1183</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>1184</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>1185</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>1186</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>1187</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>1188</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>1189</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>1190</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>1191</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>1192</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>1193</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>1194</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>1195</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>1196</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>1197</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>1198</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>1199</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>1200</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>1201</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>1202</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>1203</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>1204</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>1205</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>1206</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>1207</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>1208</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>1209</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>1210</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>1211</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>1212</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>1213</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>1214</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>1215</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>1216</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>1217</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>1218</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>1219</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>1220</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>1221</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>1222</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>1223</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>1224</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>1225</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>1226</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>1227</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>1228</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>1229</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>1230</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>1231</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>1232</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>1233</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>1234</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>1235</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>1236</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>1237</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>1238</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>1239</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>1240</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>1241</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>1242</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>1243</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>1244</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>1245</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>1246</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>1247</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>1248</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>1249</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>1250</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>1251</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>1252</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>1253</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>1254</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>1255</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>1256</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>1257</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>1258</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>1259</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>1260</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>1261</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>1262</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>1263</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>1264</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>1265</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>1266</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>1267</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>1268</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>1269</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>1270</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>1271</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>1272</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>1273</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>1274</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>1275</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>1276</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>1277</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>1278</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>1279</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>1280</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>1281</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>1282</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>1283</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>1284</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>1285</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>1286</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>1287</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>1288</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>1289</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>1290</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>1291</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>1292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>1293</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>1294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>1295</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>1296</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>1297</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>1298</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>1299</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>1300</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>1301</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>1302</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>1303</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>1304</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>1305</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>1306</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>1307</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>1308</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>1309</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>1310</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>1311</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>1312</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>1313</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>1314</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>1315</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>1316</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>1317</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>1318</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>1319</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>1320</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>1321</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>1322</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>1323</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>1324</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>1325</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>1326</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>1327</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>1328</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>1329</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>1330</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>1331</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>1332</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>1333</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>1334</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>1335</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>1336</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>1337</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>1338</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>1339</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>1340</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>1341</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>1342</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>1343</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>1344</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>1345</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>1346</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>1347</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>1348</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>1349</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>1350</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>1351</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>1352</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>1353</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>1354</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>1355</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>1356</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>1357</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>1358</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>1359</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>1360</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>1361</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>1362</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>1363</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>1364</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>1365</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>1366</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>1367</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>1368</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>1369</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>1370</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>1371</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>1372</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>1373</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>1374</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>1375</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>1376</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>1377</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>1378</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>1379</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>1380</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>1381</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>1382</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>1383</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>1384</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>1385</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>1386</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>1387</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>1388</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>1389</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>1390</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>1391</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>1392</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>1393</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>1394</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>1395</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>1396</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>1397</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>1398</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>1399</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>1400</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>1401</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>1402</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>1403</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>1404</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>1405</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>1406</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>1407</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>1408</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>1409</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>1410</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>1411</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>1412</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>1413</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>1414</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>1415</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>1416</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>1417</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>1418</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>1419</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>1420</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>1421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>1422</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>1423</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>1424</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>1425</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>1426</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>1427</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>1428</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>1429</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>1430</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>1431</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>1432</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>1433</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>1434</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>1435</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>1436</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>1437</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>1438</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>1439</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>1440</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>1441</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>1442</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>1443</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>1444</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>1445</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>1446</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>1447</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>1448</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>1449</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>1450</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>1451</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>1452</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>1453</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>1454</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>1455</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>1456</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>1457</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>1458</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>1459</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>1460</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>1461</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>1462</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>1463</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>1464</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>1465</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>1466</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>1467</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>1468</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>1469</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>1470</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>1471</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>1472</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>1473</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>1474</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>1475</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>1476</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>1477</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>1478</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>1479</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>1480</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>1481</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>1482</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>1483</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>1484</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>1485</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>1486</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>1487</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>1488</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>1489</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>1490</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>1491</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>1492</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>1493</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>1494</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>1495</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>1496</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>1497</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>1498</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>1499</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>1500</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>1501</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>1502</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>1503</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>1504</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>1505</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>1506</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>1507</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>1508</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>1509</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>1510</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>1511</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>1512</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>1513</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>1514</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>1515</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>1516</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>1517</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>1518</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>1519</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>1520</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>1521</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>1522</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>1523</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>1524</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>1525</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>1526</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>1527</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>1528</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>1529</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>1530</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>1531</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>1532</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>1533</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>1534</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>1535</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>1536</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>1537</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>1538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>1539</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>1540</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>1541</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>1542</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>1543</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>1544</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>1545</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>1546</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>1547</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>1548</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>1549</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>1550</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>1551</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>1552</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>1553</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>1554</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>1555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>1556</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>1557</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>1558</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>1559</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>1560</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>1561</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>1562</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>1563</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>1564</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>1565</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>1566</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>1567</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>1568</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>1569</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>1570</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>1571</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>1572</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>1573</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>1574</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>1575</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>1576</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>1577</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>1578</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>1579</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>1580</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>1581</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>1582</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>1583</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>1584</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>1585</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>1586</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>1587</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>1588</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>1589</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>1590</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>1591</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>1592</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>1593</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>1594</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>1595</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>1596</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>1597</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>1598</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>1599</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>1600</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>1601</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>1602</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>1603</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>1604</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>1605</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>1606</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>1607</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>1608</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>1609</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>1610</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>1611</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>1612</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>1613</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>1614</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>1615</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>1616</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>1617</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>1618</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>1619</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>1620</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>1621</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>1622</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>1623</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>1624</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>1625</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>1626</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>1627</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>1628</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>1629</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>1630</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>1631</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>1632</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>1633</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>1634</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>1635</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>1636</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>1637</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>1638</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>1639</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>1640</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>1641</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>1642</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>1643</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>1644</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>1645</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>1646</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>1647</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>1648</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>1649</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>1650</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>1651</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>1652</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>1653</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>1654</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>1655</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>1656</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>1657</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>1658</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>1659</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>1660</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>1661</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>1662</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>1663</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>1664</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>1665</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>1666</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>1667</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>1668</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>1669</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>1670</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>1671</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>1672</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>1673</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>1674</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>1675</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>1676</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>1677</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>1678</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>1679</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>1680</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>1681</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>1682</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>1683</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>1684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>1685</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>1686</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>1687</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>1688</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>1689</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>1690</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>1691</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>1692</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>1693</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>1694</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>1695</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>1696</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>1697</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>1698</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>1699</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>1700</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>1701</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>1702</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>1703</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>1704</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>1705</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>1706</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>1707</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>1708</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>1709</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>1710</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>1711</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>1712</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>1713</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>1714</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>1715</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>1716</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>1717</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>1718</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>1719</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>1720</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>1721</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>1722</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>1723</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>1724</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>1725</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>1726</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>1727</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>1728</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>1729</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>1730</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>1731</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>1732</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>1733</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>1734</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>1735</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>1736</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>1737</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>1738</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>1739</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>1740</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>1741</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>1742</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>1743</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>1744</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>1745</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>1746</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>1747</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>1748</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>1749</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>1750</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>1751</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>1752</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>1753</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>1754</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>1755</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>1756</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>1757</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>1758</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>1759</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>1760</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>1761</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>1762</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>1763</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>1764</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>1765</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>1766</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>1767</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>1768</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>1769</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>1770</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>1771</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>1772</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>1773</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>1774</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>1775</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>1776</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>1777</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>1778</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>1779</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>1780</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>1781</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>1782</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>1783</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>1784</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>1785</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>1786</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>1787</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
-        <v>1788</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>1789</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>1790</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>1791</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>1792</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>1793</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>1794</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>1795</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>1796</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>1797</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>1798</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>1799</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>1800</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>1801</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>1802</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>1803</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>1804</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>1805</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>1806</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>1807</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>1808</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>1809</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>1810</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>1811</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>1812</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>1813</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>1814</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>1815</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>1816</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>1817</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>1818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>1819</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>1820</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>1821</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>1822</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>1823</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
-        <v>1824</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>1825</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>1826</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>1827</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>1828</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>1829</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>1830</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>1831</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>1832</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>1833</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>1834</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>1835</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>1836</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>1837</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="0" t="s">
-        <v>1838</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="0" t="s">
-        <v>1839</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="0" t="s">
-        <v>1840</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="0" t="s">
-        <v>1841</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="0" t="s">
-        <v>1842</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="0" t="s">
-        <v>1843</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="0" t="s">
-        <v>1844</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="0" t="s">
-        <v>1845</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="0" t="s">
-        <v>1846</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="0" t="s">
-        <v>1847</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="0" t="s">
-        <v>1848</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="0" t="s">
-        <v>1849</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>1850</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>1851</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>1852</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="0" t="s">
-        <v>1853</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0" t="s">
-        <v>1854</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>1855</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="0" t="s">
-        <v>1856</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="0" t="s">
-        <v>1857</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>1858</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="0" t="s">
-        <v>1859</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="0" t="s">
-        <v>1860</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>1861</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>1862</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>1863</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>1864</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>1865</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>1866</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>1867</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>1868</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="0" t="s">
-        <v>1869</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="0" t="s">
-        <v>1870</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>1871</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="0" t="s">
-        <v>1872</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>1873</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="0" t="s">
-        <v>1874</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>1875</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>1876</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="0" t="s">
-        <v>1877</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="0" t="s">
-        <v>1878</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>1879</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="0" t="s">
-        <v>1880</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>1881</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>1882</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="0" t="s">
-        <v>1883</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>1884</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="0" t="s">
-        <v>1885</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>1886</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="0" t="s">
-        <v>1887</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>1888</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="0" t="s">
-        <v>1889</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>1890</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="0" t="s">
-        <v>1891</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="0" t="s">
-        <v>1892</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="0" t="s">
-        <v>1893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="0" t="s">
-        <v>1894</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="0" t="s">
-        <v>1895</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="0" t="s">
-        <v>1896</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="0" t="s">
-        <v>1897</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="0" t="s">
-        <v>1898</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="0" t="s">
-        <v>1899</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="0" t="s">
-        <v>1900</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="0" t="s">
-        <v>1901</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="0" t="s">
-        <v>1902</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="0" t="s">
-        <v>1903</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="0" t="s">
-        <v>1904</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="0" t="s">
-        <v>1905</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="0" t="s">
-        <v>1906</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="0" t="s">
-        <v>1907</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="0" t="s">
-        <v>1908</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="0" t="s">
-        <v>1909</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="0" t="s">
-        <v>1910</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="0" t="s">
-        <v>1911</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="0" t="s">
-        <v>1912</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="0" t="s">
-        <v>1913</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="0" t="s">
-        <v>1914</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="0" t="s">
-        <v>1915</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="0" t="s">
-        <v>1916</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="0" t="s">
-        <v>1917</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="0" t="s">
-        <v>1918</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="0" t="s">
-        <v>1919</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="0" t="s">
-        <v>1920</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="0" t="s">
-        <v>1921</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="0" t="s">
-        <v>1922</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="0" t="s">
-        <v>1923</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="0" t="s">
-        <v>1924</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="0" t="s">
-        <v>1925</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="0" t="s">
-        <v>1926</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="0" t="s">
-        <v>1927</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0" t="s">
-        <v>1928</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0" t="s">
-        <v>1929</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0" t="s">
-        <v>1930</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0" t="s">
-        <v>1931</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="0" t="s">
-        <v>1932</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0" t="s">
-        <v>1933</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="0" t="s">
-        <v>1934</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="0" t="s">
-        <v>1935</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="0" t="s">
-        <v>1936</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="0" t="s">
-        <v>1937</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="0" t="s">
-        <v>1938</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="0" t="s">
-        <v>1939</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="0" t="s">
-        <v>1940</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="0" t="s">
-        <v>1941</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0" t="s">
-        <v>1942</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0" t="s">
-        <v>1943</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="0" t="s">
-        <v>1944</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="0" t="s">
-        <v>1945</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0" t="s">
-        <v>1946</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="0" t="s">
-        <v>1947</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="0" t="s">
-        <v>1948</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0" t="s">
-        <v>1949</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0" t="s">
-        <v>1950</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0" t="s">
-        <v>1951</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="0" t="s">
-        <v>1952</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="0" t="s">
-        <v>1953</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="0" t="s">
-        <v>1954</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0" t="s">
-        <v>1955</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0" t="s">
-        <v>1956</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0" t="s">
-        <v>1957</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="0" t="s">
-        <v>1958</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="0" t="s">
-        <v>1959</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="0" t="s">
-        <v>1960</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="0" t="s">
-        <v>1961</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="0" t="s">
-        <v>1962</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="0" t="s">
-        <v>1963</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="0" t="s">
-        <v>1964</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="0" t="s">
-        <v>1965</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0" t="s">
-        <v>1966</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="0" t="s">
-        <v>1967</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="0" t="s">
-        <v>1968</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="0" t="s">
-        <v>1969</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="0" t="s">
-        <v>1970</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="s">
-        <v>1971</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="s">
-        <v>1972</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="s">
-        <v>1973</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="s">
-        <v>1974</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="0" t="s">
-        <v>1975</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="0" t="s">
-        <v>1976</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="0" t="s">
-        <v>1977</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="0" t="s">
-        <v>1978</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="0" t="s">
-        <v>1979</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="0" t="s">
-        <v>1980</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="0" t="s">
-        <v>1981</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="0" t="s">
-        <v>1982</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="0" t="s">
-        <v>1983</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="0" t="s">
-        <v>1984</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="0" t="s">
-        <v>1985</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="0" t="s">
-        <v>1986</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="s">
-        <v>1987</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="s">
-        <v>1988</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="s">
-        <v>1989</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="s">
-        <v>1990</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="s">
-        <v>1991</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="s">
-        <v>1992</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="s">
-        <v>1993</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="s">
-        <v>1994</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="s">
-        <v>1995</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="0" t="s">
-        <v>1996</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="s">
-        <v>1997</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="s">
-        <v>1998</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="s">
-        <v>1999</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="s">
-        <v>2000</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="0" t="s">
-        <v>2001</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="0" t="s">
-        <v>2002</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="0" t="s">
-        <v>2003</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="0" t="s">
-        <v>2004</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="0" t="s">
-        <v>2005</v>
+        <v>3008</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="3009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="4012">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -9047,6 +9047,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102429.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103846.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103845.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103844.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103843.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103839.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103838.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103837.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103836.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103835.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103833.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103826.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103825.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103818.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103814.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103813.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103812.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103811.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103810.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102834.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102828.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102793.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102778.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102770.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102765.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102759.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102757.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102752.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102722.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102720.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102704.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102702.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102694.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102693.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102690.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102656.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102652.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102647.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102636.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102620.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102615.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102614.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102605.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102594.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102593.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102592.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102586.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102582.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102572.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102558.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102557.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102545.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102544.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102542.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102533.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102513.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102507.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102505.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102503.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102500.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102499.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102498.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102497.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102496.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102492.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102480.html</t>
   </si>
 </sst>
 </file>
@@ -9067,7 +12076,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -9077,14 +12086,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9410,5017 +12421,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2006</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2007</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2008</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>2009</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>2010</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>2011</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>2012</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>2013</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>2014</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>2015</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>2016</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>2017</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>2018</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>2019</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>2020</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2021</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>2022</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>2023</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>2024</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>2025</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>2026</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>2027</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>2028</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>2029</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>2030</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>2031</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>2032</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>2033</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>2034</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>2035</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>2036</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>2037</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>2038</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>2039</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>2040</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>2041</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>2042</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>2043</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>2044</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>2045</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>2046</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>2047</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>2048</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>2049</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>2050</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>2051</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>2052</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>2053</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>2054</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>2055</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>2056</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>2057</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>2058</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>2059</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>2060</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>2061</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>2062</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>2063</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>2064</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>2065</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>2066</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>2067</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>2068</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>2069</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>2070</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>2071</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>2072</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>2073</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>2074</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>2075</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>2076</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>2077</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>2078</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>2079</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>2080</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>2081</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>2082</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>2083</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>2084</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>2085</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>2086</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>2087</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>2088</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>2089</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>2090</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>2091</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>2092</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>2093</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>2094</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>2095</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>2096</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>2097</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>2098</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>2099</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>2100</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>2101</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>2102</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>2103</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>2104</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>2105</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>2106</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>2107</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>2108</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>2109</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>2110</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>2111</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>2112</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>2113</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>2114</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>2115</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>2116</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>2117</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>2118</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>2119</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>2120</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>2121</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>2122</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>2123</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>2124</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>2125</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>2126</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>2127</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>2128</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>2129</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>2130</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>2131</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>2132</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>2133</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>2134</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>2135</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>2136</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>2137</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>2138</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>2139</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>2140</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>2141</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>2142</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>2143</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>2144</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>2145</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>2146</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>2147</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>2148</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>2149</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>2150</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>2151</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>2152</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>2153</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>2154</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>2155</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>2156</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>2157</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>2158</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>2159</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>2160</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>2161</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>2162</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>2163</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>2164</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>2165</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>2166</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>2167</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>2168</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>2169</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>2170</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>2171</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>2172</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>2173</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>2174</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>2175</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>2176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>2177</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>2178</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>2179</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>2180</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>2181</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>2182</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>2183</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>2184</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>2185</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>2186</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>2187</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>2188</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>2189</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>2190</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>2191</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>2192</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>2193</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>2194</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>2195</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>2196</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>2197</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>2198</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>2199</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>2200</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>2201</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>2202</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>2203</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>2204</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>2205</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>2206</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>2207</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>2208</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>2209</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>2210</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>2211</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>2212</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>2213</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>2214</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>2215</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>2216</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>2217</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>2218</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>2219</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>2220</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>2221</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>2222</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>2223</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>2224</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>2225</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>2226</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>2227</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>2228</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>2229</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>2230</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>2231</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>2232</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>2233</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>2234</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>2235</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>2236</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>2237</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>2238</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>2239</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>2240</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>2241</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>2242</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>2243</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>2244</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>2245</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>2246</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>2247</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>2248</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>2249</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>2250</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>2251</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>2252</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>2253</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>2254</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>2255</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>2256</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>2257</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>2258</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>2259</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>2260</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>2261</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>2262</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>2263</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>2264</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>2265</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>2266</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>2267</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>2268</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>2269</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>2270</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>2271</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>2272</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>2273</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>2274</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>2275</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>2276</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>2277</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>2278</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>2279</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>2280</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>2281</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>2282</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>2283</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>2284</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>2285</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>2286</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>2287</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>2288</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>2289</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>2290</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>2291</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>2292</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>2293</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>2294</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>2295</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>2296</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>2297</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>2298</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>2299</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>2300</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>2301</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>2302</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>2303</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>2304</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>2305</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>2306</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>2307</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>2308</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>2309</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>2310</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>2311</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>2312</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>2313</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>2314</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>2315</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>2316</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>2317</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>2318</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>2319</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>2320</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>2321</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>2322</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>2323</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>2324</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>2325</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>2326</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>2327</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>2328</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>2329</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>2330</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>2331</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>2332</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>2333</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>2334</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>2335</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>2336</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>2337</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>2338</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>2339</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>2340</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>2341</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>2342</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>2343</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>2344</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>2345</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>2346</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>2347</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>2348</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>2349</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>2350</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>2351</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>2352</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>2353</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>2354</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>2355</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>2356</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>2357</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>2358</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>2359</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>2360</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>2361</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>2362</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>2363</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>2364</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>2365</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>2366</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>2367</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>2368</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>2369</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>2370</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>2371</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>2372</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>2373</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>2374</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>2375</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>2376</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>2377</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>2378</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>2379</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>2380</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>2381</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>2382</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>2383</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>2384</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>2385</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>2386</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>2387</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>2388</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>2389</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>2390</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>2391</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>2392</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>2393</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>2394</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>2395</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>2396</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>2397</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>2398</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>2399</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>2400</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>2401</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>2402</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>2403</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>2404</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>2405</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>2406</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>2407</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>2408</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>2409</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>2410</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>2411</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>2412</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>2413</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>2414</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>2415</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>2416</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>2417</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>2418</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>2419</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>2420</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>2421</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>2422</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>2423</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>2424</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>2425</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>2426</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>2427</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>2428</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>2429</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>2430</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>2431</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>2432</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>2433</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>2434</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>2435</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>2436</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>2437</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>2438</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>2439</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>2440</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>2441</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>2442</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>2443</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>2444</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>2445</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>2446</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>2447</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>2448</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>2449</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>2450</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>2451</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>2452</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>2453</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>2454</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>2455</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>2456</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>2457</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>2458</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>2459</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>2460</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>2461</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>2462</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>2463</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>2464</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>2465</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>2466</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>2467</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>2468</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>2469</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>2470</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>2471</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>2472</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>2473</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>2474</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>2475</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>2476</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>2477</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>2478</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>2479</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>2480</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>2481</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>2482</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>2483</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>2484</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>2485</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>2486</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>2487</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>2488</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>2489</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>2490</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>2491</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>2492</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>2493</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>2494</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>2495</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>2496</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>2497</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>2498</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>2499</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>2500</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>2501</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>2502</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>2503</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>2504</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>2505</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>2506</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>2507</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>2508</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>2509</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>2510</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>2511</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>2512</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>2513</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>2514</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>2515</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>2516</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>2517</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>2518</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>2519</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>2520</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>2521</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>2522</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>2523</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>2524</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>2525</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>2526</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>2527</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>2528</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>2529</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>2530</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>2531</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>2532</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>2533</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>2534</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>2535</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>2536</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>2537</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>2538</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>2539</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>2540</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>2541</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>2542</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>2543</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>2544</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>2545</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>2546</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>2547</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>2548</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>2549</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>2550</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>2551</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>2552</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>2553</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>2554</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>2555</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>2556</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>2557</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>2558</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>2559</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>2560</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>2561</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>2562</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>2563</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>2564</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>2565</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>2566</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>2567</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>2568</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>2569</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>2570</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>2571</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>2572</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>2573</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>2574</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>2575</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>2576</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>2577</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>2578</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>2579</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>2580</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>2581</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>2582</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>2583</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>2584</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>2585</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>2586</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>2587</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>2588</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>2589</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>2590</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>2591</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>2592</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>2593</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>2594</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>2595</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>2596</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>2597</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>2598</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>2599</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>2600</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>2601</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>2602</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>2603</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>2604</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>2605</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>2606</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>2607</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>2608</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>2609</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>2610</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>2611</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>2612</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>2613</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>2614</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>2615</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>2616</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>2617</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>2618</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>2619</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>2620</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>2621</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>2622</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>2623</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>2624</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>2625</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>2626</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>2627</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>2628</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>2629</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>2630</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>2631</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>2632</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>2633</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>2634</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>2635</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>2636</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>2637</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>2638</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>2639</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>2640</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>2641</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>2642</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>2643</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>2644</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>2645</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>2646</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>2647</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>2648</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>2649</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>2650</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>2651</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>2652</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>2653</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>2654</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>2655</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>2656</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>2657</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>2658</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>2659</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>2660</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>2661</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>2662</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>2663</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>2664</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>2665</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>2666</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>2667</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>2668</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>2669</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>2670</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>2671</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>2672</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>2673</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>2674</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>2675</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>2676</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>2677</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>2678</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>2679</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>2680</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>2681</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>2682</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>2683</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>2684</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>2685</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>2686</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>2687</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>2688</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>2689</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>2690</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>2691</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>2692</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>2693</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>2694</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>2695</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>2696</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>2697</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>2698</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>2699</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>2700</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>2701</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>2702</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>2703</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>2704</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>2705</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>2706</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>2707</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>2708</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>2709</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>2710</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>2711</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>2712</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>2713</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>2714</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>2715</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>2716</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>2717</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>2718</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>2719</v>
+        <v>3722</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>2720</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>2721</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>2722</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>2723</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>2724</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>2725</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>2726</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>2727</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>2728</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>2729</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>2730</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>2731</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>2732</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>2733</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>2734</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>2735</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>2736</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>2737</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>2738</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>2739</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>2740</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>2741</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>2742</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>2743</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>2744</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>2745</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>2746</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>2747</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>2748</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>2749</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>2750</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>2751</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>2752</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>2753</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>2754</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>2755</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>2756</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>2757</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>2758</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>2759</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>2760</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>2761</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>2762</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>2763</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>2764</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>2765</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>2766</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>2767</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>2768</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>2769</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>2770</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>2771</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>2772</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>2773</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>2774</v>
+        <v>3777</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>2775</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>2776</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>2777</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>2778</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>2779</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>2780</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>2781</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>2782</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>2783</v>
+        <v>3786</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>2784</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>2785</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>2786</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>2787</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>2788</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>2789</v>
+        <v>3792</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>2790</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
-        <v>2791</v>
+        <v>3794</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>2792</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>2793</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>2794</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>2795</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>2796</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>2797</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>2798</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>2799</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>2800</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>2801</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>2802</v>
+        <v>3805</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>2803</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>2804</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>2805</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>2806</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>2807</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>2808</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>2809</v>
+        <v>3812</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>2810</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>2811</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>2812</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>2813</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>2814</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>2815</v>
+        <v>3818</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>2816</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>2817</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>2818</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>2819</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>2820</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>2821</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>2822</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>2823</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>2824</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>2825</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>2826</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
-        <v>2827</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>2828</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>2829</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>2830</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>2831</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>2832</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>2833</v>
+        <v>3836</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>2834</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>2835</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>2836</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>2837</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>2838</v>
+        <v>3841</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>2839</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>2840</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="0" t="s">
-        <v>2841</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="0" t="s">
-        <v>2842</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="0" t="s">
-        <v>2843</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="0" t="s">
-        <v>2844</v>
+        <v>3847</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="0" t="s">
-        <v>2845</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="0" t="s">
-        <v>2846</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="0" t="s">
-        <v>2847</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="0" t="s">
-        <v>2848</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="0" t="s">
-        <v>2849</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="0" t="s">
-        <v>2850</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="0" t="s">
-        <v>2851</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="0" t="s">
-        <v>2852</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>2853</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>2854</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>2855</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="0" t="s">
-        <v>2856</v>
+        <v>3859</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0" t="s">
-        <v>2857</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>2858</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="0" t="s">
-        <v>2859</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="0" t="s">
-        <v>2860</v>
+        <v>3863</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>2861</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="0" t="s">
-        <v>2862</v>
+        <v>3865</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="0" t="s">
-        <v>2863</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>2864</v>
+        <v>3867</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>2865</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>2866</v>
+        <v>3869</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>2867</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>2868</v>
+        <v>3871</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>2869</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>2870</v>
+        <v>3873</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>2871</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="0" t="s">
-        <v>2872</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="0" t="s">
-        <v>2873</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>2874</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="0" t="s">
-        <v>2875</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>2876</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="0" t="s">
-        <v>2877</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>2878</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>2879</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="0" t="s">
-        <v>2880</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="0" t="s">
-        <v>2881</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>2882</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="0" t="s">
-        <v>2883</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>2884</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>2885</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="0" t="s">
-        <v>2886</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>2887</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="0" t="s">
-        <v>2888</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>2889</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="0" t="s">
-        <v>2890</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>2891</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="0" t="s">
-        <v>2892</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>2893</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="0" t="s">
-        <v>2894</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="0" t="s">
-        <v>2895</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="0" t="s">
-        <v>2896</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="0" t="s">
-        <v>2897</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="0" t="s">
-        <v>2898</v>
+        <v>3901</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="0" t="s">
-        <v>2899</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="0" t="s">
-        <v>2900</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="0" t="s">
-        <v>2901</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="0" t="s">
-        <v>2902</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="0" t="s">
-        <v>2903</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="0" t="s">
-        <v>2904</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="0" t="s">
-        <v>2905</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="0" t="s">
-        <v>2906</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="0" t="s">
-        <v>2907</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="0" t="s">
-        <v>2908</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="0" t="s">
-        <v>2909</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="0" t="s">
-        <v>2910</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="0" t="s">
-        <v>2911</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="0" t="s">
-        <v>2912</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="0" t="s">
-        <v>2913</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="0" t="s">
-        <v>2914</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="0" t="s">
-        <v>2915</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="0" t="s">
-        <v>2916</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="0" t="s">
-        <v>2917</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="0" t="s">
-        <v>2918</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="0" t="s">
-        <v>2919</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="0" t="s">
-        <v>2920</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="0" t="s">
-        <v>2921</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="0" t="s">
-        <v>2922</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="0" t="s">
-        <v>2923</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="0" t="s">
-        <v>2924</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="0" t="s">
-        <v>2925</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="0" t="s">
-        <v>2926</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="0" t="s">
-        <v>2927</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="0" t="s">
-        <v>2928</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="0" t="s">
-        <v>2929</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="0" t="s">
-        <v>2930</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0" t="s">
-        <v>2931</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0" t="s">
-        <v>2932</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0" t="s">
-        <v>2933</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0" t="s">
-        <v>2934</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="0" t="s">
-        <v>2935</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0" t="s">
-        <v>2936</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="0" t="s">
-        <v>2937</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="0" t="s">
-        <v>2938</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="0" t="s">
-        <v>2939</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="0" t="s">
-        <v>2940</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="0" t="s">
-        <v>2941</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="0" t="s">
-        <v>2942</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="0" t="s">
-        <v>2943</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="0" t="s">
-        <v>2944</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0" t="s">
-        <v>2945</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0" t="s">
-        <v>2946</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="0" t="s">
-        <v>2947</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="0" t="s">
-        <v>2948</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0" t="s">
-        <v>2949</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="0" t="s">
-        <v>2950</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="0" t="s">
-        <v>2951</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0" t="s">
-        <v>2952</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0" t="s">
-        <v>2953</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0" t="s">
-        <v>2954</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="0" t="s">
-        <v>2955</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="0" t="s">
-        <v>2956</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="0" t="s">
-        <v>2957</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0" t="s">
-        <v>2958</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0" t="s">
-        <v>2959</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0" t="s">
-        <v>2960</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="0" t="s">
-        <v>2961</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="0" t="s">
-        <v>2962</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="0" t="s">
-        <v>2963</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="0" t="s">
-        <v>2964</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="0" t="s">
-        <v>2965</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="0" t="s">
-        <v>2966</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="0" t="s">
-        <v>2967</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="0" t="s">
-        <v>2968</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0" t="s">
-        <v>2969</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="0" t="s">
-        <v>2970</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="0" t="s">
-        <v>2971</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="0" t="s">
-        <v>2972</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="0" t="s">
-        <v>2973</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="s">
-        <v>2974</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="s">
-        <v>2975</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="s">
-        <v>2976</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="s">
-        <v>2977</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="0" t="s">
-        <v>2978</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="0" t="s">
-        <v>2979</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="0" t="s">
-        <v>2980</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="0" t="s">
-        <v>2981</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="0" t="s">
-        <v>2982</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="0" t="s">
-        <v>2983</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="0" t="s">
-        <v>2984</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="0" t="s">
-        <v>2985</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="0" t="s">
-        <v>2986</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="0" t="s">
-        <v>2987</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="0" t="s">
-        <v>2988</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="0" t="s">
-        <v>2989</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="s">
-        <v>2990</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="s">
-        <v>2991</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="s">
-        <v>2992</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="s">
-        <v>2993</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="s">
-        <v>2994</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="s">
-        <v>2995</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="s">
-        <v>2996</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="s">
-        <v>2997</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="s">
-        <v>2998</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="0" t="s">
-        <v>2999</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="s">
-        <v>3000</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="s">
-        <v>3001</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="s">
-        <v>3002</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="s">
-        <v>3003</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="0" t="s">
-        <v>3004</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="0" t="s">
-        <v>3005</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="0" t="s">
-        <v>3006</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="0" t="s">
-        <v>3007</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="0" t="s">
-        <v>3008</v>
+        <v>4011</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="4012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="5015">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -12056,6 +12056,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103892.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103890.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103889.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103888.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103887.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103884.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103882.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103881.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103880.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103879.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103878.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103877.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103876.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103875.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103874.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103873.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103871.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103870.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103869.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103868.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103867.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103866.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103865.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103863.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103862.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103859.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103855.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103851.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103846.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103845.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103844.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103843.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103839.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103838.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103837.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103836.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103835.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103833.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103826.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103825.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103818.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103814.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103813.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103812.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103811.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103810.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102834.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102828.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102793.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102778.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102770.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102765.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102759.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102757.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102752.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102722.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102720.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102704.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102702.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102694.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102693.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102690.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102656.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102652.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102647.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102636.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102620.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102615.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102614.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102605.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102594.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102593.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102592.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102586.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102582.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102572.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102558.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102557.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102545.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102544.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102542.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102533.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102522.html</t>
   </si>
 </sst>
 </file>
@@ -12076,7 +15085,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -12087,15 +15096,17 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12421,5017 +15432,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3009</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3010</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3011</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3012</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>3013</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>3014</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>3015</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>3016</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>3017</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>3018</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>3019</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>3020</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>3021</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>3022</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>3023</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>3024</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>3025</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>3026</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>3027</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>3028</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>3029</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>3030</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>3031</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>3032</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>3033</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>3034</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>3035</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>3036</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>3037</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>3038</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>3039</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>3040</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>3041</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>3042</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>3043</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>3044</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>3045</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>3046</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>3047</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>3048</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>3049</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>3050</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>3051</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>3052</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>3053</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>3054</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>3055</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>3056</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>3057</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>3058</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>3059</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>3060</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>3061</v>
+        <v>4064</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>3062</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>3063</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>3064</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>3065</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>3066</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>3067</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>3068</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>3069</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>3070</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>3071</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>3072</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>3073</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>3074</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>3075</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>3076</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>3077</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>3078</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>3079</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>3080</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>3081</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>3082</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>3083</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>3084</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>3085</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>3086</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>3087</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>3088</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>3089</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>3090</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>3091</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>3092</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>3093</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>3094</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>3095</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>3096</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>3097</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>3098</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>3099</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>3100</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>3101</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>3102</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>3103</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>3104</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>3105</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>3106</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>3107</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>3108</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>3109</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>3110</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>3111</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>3112</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>3113</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>3114</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>3115</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>3116</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>3117</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>3118</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>3119</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>3120</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>3121</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>3122</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>3123</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>3124</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>3125</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>3126</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>3127</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>3128</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>3129</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>3130</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>3131</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>3132</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>3133</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>3134</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>3135</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>3136</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>3137</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>3138</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>3139</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>3140</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>3141</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>3142</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>3143</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>3144</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>3145</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>3146</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>3147</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>3148</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>3149</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>3150</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>3151</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>3152</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>3153</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>3154</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>3155</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>3156</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>3157</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>3158</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>3159</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>3160</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>3161</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>3162</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>3163</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>3164</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>3165</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>3166</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>3167</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>3168</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>3169</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>3170</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>3171</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>3172</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>3173</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>3174</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>3175</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>3176</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>3177</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>3178</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>3179</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>3180</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>3181</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>3182</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>3183</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>3184</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>3185</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>3186</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>3187</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>3188</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>3189</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>3190</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>3191</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>3192</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>3193</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>3194</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>3195</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>3196</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>3197</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>3198</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>3199</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>3200</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>3201</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>3202</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>3203</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>3204</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>3205</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>3206</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>3207</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>3208</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>3209</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>3210</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>3211</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>3212</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>3213</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>3214</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>3215</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>3216</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>3217</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>3218</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>3219</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>3220</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>3221</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>3222</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>3223</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>3224</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>3225</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>3226</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>3227</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>3228</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>3229</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>3230</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>3231</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>3232</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>3233</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>3234</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>3235</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>3236</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>3237</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>3238</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>3239</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>3240</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>3241</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>3242</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>3243</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>3244</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>3245</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>3246</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>3247</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>3248</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>3249</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>3250</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>3251</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>3252</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>3253</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>3254</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>3255</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>3256</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>3257</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>3258</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>3259</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>3260</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>3261</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>3262</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>3263</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>3264</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>3265</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>3266</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>3267</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>3268</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>3269</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>3270</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>3271</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>3272</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>3273</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>3274</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>3275</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>3276</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>3277</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>3278</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>3279</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>3280</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>3281</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>3282</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>3283</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>3284</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>3285</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>3286</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>3287</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>3288</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>3289</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>3290</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>3291</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>3292</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>3293</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>3294</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>3295</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>3296</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>3297</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>3298</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>3299</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>3300</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>3301</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>3302</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>3303</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>3304</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>3305</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>3306</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>3307</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>3308</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>3309</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>3310</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>3311</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>3312</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>3313</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>3314</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>3315</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>3316</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>3317</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>3318</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>3319</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>3320</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>3321</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>3322</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>3323</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>3324</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>3325</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>3326</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>3327</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>3328</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>3329</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>3330</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>3331</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>3332</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>3333</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>3334</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>3335</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>3336</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>3337</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>3338</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>3339</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>3340</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>3341</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>3342</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>3343</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>3344</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>3345</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>3346</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>3347</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>3348</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>3349</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>3350</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>3351</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>3352</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>3353</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>3354</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>3355</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>3356</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>3357</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>3358</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>3359</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>3360</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>3361</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>3362</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>3363</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>3364</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>3365</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>3366</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>3367</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>3368</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>3369</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>3370</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>3371</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>3372</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>3373</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>3374</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>3375</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>3376</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>3377</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>3378</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>3379</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>3380</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>3381</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>3382</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>3383</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>3384</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>3385</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>3386</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>3387</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>3388</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>3389</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>3390</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>3391</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>3392</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>3393</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>3394</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>3395</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>3396</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>3397</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>3398</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>3399</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>3400</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>3401</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>3402</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>3403</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>3404</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>3405</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>3406</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>3407</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>3408</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>3409</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>3410</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>3411</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>3412</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>3413</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>3414</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>3415</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>3416</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>3417</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>3418</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>3419</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>3420</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>3421</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>3422</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>3423</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>3424</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>3425</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>3426</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>3427</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>3428</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>3429</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>3430</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>3431</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>3432</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>3433</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>3434</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>3435</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>3436</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>3437</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>3438</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>3439</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>3440</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>3441</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>3442</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>3443</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>3444</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>3445</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>3446</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>3447</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>3448</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>3449</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>3450</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>3451</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>3452</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>3453</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>3454</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>3455</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>3456</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>3457</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>3458</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>3459</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>3460</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>3461</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>3462</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>3463</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>3464</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>3465</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>3466</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>3467</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>3468</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>3469</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>3470</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>3471</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>3472</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>3473</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>3474</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>3475</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>3476</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>3477</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>3478</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>3479</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>3480</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>3481</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>3482</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>3483</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>3484</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>3485</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>3486</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>3487</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>3488</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>3489</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>3490</v>
+        <v>4493</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>3491</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>3492</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>3493</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>3494</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>3495</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>3496</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>3497</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>3498</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>3499</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>3500</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>3501</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>3502</v>
+        <v>4505</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>3503</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>3504</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>3505</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>3506</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>3507</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>3508</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>3509</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>3510</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>3511</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>3512</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>3513</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>3514</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>3515</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>3516</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>3517</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>3518</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>3519</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>3520</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>3521</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>3522</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>3523</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>3524</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>3525</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>3526</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>3527</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>3528</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>3529</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>3530</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>3531</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>3532</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>3533</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>3534</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>3535</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>3536</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>3537</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>3538</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>3539</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>3540</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>3541</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>3542</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>3543</v>
+        <v>4546</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>3544</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>3545</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>3546</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>3547</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>3548</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>3549</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>3550</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>3551</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>3552</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>3553</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>3554</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>3555</v>
+        <v>4558</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>3556</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>3557</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>3558</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>3559</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>3560</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>3561</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>3562</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>3563</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>3564</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>3565</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>3566</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>3567</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>3568</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>3569</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>3570</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>3571</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>3572</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>3573</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>3574</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>3575</v>
+        <v>4578</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>3576</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>3577</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>3578</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>3579</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>3580</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>3581</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>3582</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>3583</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>3584</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>3585</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>3586</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>3587</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>3588</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>3589</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>3590</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>3591</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>3592</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>3593</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>3594</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>3595</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>3596</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>3597</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>3598</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>3599</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>3600</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>3601</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>3602</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>3603</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>3604</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>3605</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>3606</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>3607</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>3608</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>3609</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>3610</v>
+        <v>4613</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>3611</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>3612</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>3613</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>3614</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>3615</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>3616</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>3617</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>3618</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>3619</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>3620</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>3621</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>3622</v>
+        <v>4625</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>3623</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>3624</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>3625</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>3626</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>3627</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>3628</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>3629</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>3630</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>3631</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>3632</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>3633</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>3634</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>3635</v>
+        <v>4638</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>3636</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>3637</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>3638</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>3639</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>3640</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>3641</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>3642</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>3643</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>3644</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>3645</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>3646</v>
+        <v>4649</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>3647</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>3648</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>3649</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>3650</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>3651</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>3652</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>3653</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>3654</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>3655</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>3656</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>3657</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>3658</v>
+        <v>4661</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>3659</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>3660</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>3661</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>3662</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>3663</v>
+        <v>4666</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>3664</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>3665</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>3666</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>3667</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>3668</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>3669</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>3670</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>3671</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>3672</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>3673</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>3674</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>3675</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>3676</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>3677</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>3678</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>3679</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>3680</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>3681</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>3682</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>3683</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>3684</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>3685</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>3686</v>
+        <v>4689</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>3687</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>3688</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>3689</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>3690</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>3691</v>
+        <v>4694</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>3692</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>3693</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>3694</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>3695</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>3696</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>3697</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>3698</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>3699</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>3700</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>3701</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>3702</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>3703</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>3704</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>3705</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>3706</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>3707</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>3708</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>3709</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>3710</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>3711</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>3712</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>3713</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>3714</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>3715</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>3716</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>3717</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>3718</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>3719</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>3720</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>3721</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>3722</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>3723</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>3724</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>3725</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>3726</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>3727</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>3728</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>3729</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>3730</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>3731</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>3732</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>3733</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>3734</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>3735</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>3736</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>3737</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>3738</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>3739</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>3740</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>3741</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>3742</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>3743</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>3744</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>3745</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>3746</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>3747</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>3748</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>3749</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>3750</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>3751</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>3752</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>3753</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>3754</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>3755</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>3756</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>3757</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>3758</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>3759</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>3760</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>3761</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>3762</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>3763</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>3764</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>3765</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>3766</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>3767</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>3768</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>3769</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>3770</v>
+        <v>4773</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>3771</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>3772</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>3773</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>3774</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>3775</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>3776</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>3777</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>3778</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>3779</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>3780</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>3781</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>3782</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>3783</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>3784</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>3785</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>3786</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>3787</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>3788</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>3789</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>3790</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>3791</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>3792</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>3793</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
-        <v>3794</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>3795</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>3796</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>3797</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>3798</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>3799</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>3800</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>3801</v>
+        <v>4804</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>3802</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>3803</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>3804</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>3805</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>3806</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>3807</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>3808</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>3809</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>3810</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>3811</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>3812</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>3813</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>3814</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>3815</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>3816</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>3817</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>3818</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>3819</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>3820</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>3821</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>3822</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>3823</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>3824</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>3825</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>3826</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>3827</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>3828</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>3829</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
-        <v>3830</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>3831</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>3832</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>3833</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>3834</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>3835</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>3836</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>3837</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>3838</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>3839</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>3840</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>3841</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>3842</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>3843</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="0" t="s">
-        <v>3844</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="0" t="s">
-        <v>3845</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="0" t="s">
-        <v>3846</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="0" t="s">
-        <v>3847</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="0" t="s">
-        <v>3848</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="0" t="s">
-        <v>3849</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="0" t="s">
-        <v>3850</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="0" t="s">
-        <v>3851</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="0" t="s">
-        <v>3852</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="0" t="s">
-        <v>3853</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="0" t="s">
-        <v>3854</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="0" t="s">
-        <v>3855</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>3856</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>3857</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>3858</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="0" t="s">
-        <v>3859</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0" t="s">
-        <v>3860</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>3861</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="0" t="s">
-        <v>3862</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="0" t="s">
-        <v>3863</v>
+        <v>4866</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>3864</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="0" t="s">
-        <v>3865</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="0" t="s">
-        <v>3866</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>3867</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>3868</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>3869</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>3870</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>3871</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>3872</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>3873</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>3874</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="0" t="s">
-        <v>3875</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="0" t="s">
-        <v>3876</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>3877</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="0" t="s">
-        <v>3878</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>3879</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="0" t="s">
-        <v>3880</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>3881</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>3882</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="0" t="s">
-        <v>3883</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="0" t="s">
-        <v>3884</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>3885</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="0" t="s">
-        <v>3886</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>3887</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>3888</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="0" t="s">
-        <v>3889</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>3890</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="0" t="s">
-        <v>3891</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>3892</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="0" t="s">
-        <v>3893</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>3894</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="0" t="s">
-        <v>3895</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>3896</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="0" t="s">
-        <v>3897</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="0" t="s">
-        <v>3898</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="0" t="s">
-        <v>3899</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="0" t="s">
-        <v>3900</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="0" t="s">
-        <v>3901</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="0" t="s">
-        <v>3902</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="0" t="s">
-        <v>3903</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="0" t="s">
-        <v>3904</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="0" t="s">
-        <v>3905</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="0" t="s">
-        <v>3906</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="0" t="s">
-        <v>3907</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="0" t="s">
-        <v>3908</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="0" t="s">
-        <v>3909</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="0" t="s">
-        <v>3910</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="0" t="s">
-        <v>3911</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="0" t="s">
-        <v>3912</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="0" t="s">
-        <v>3913</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="0" t="s">
-        <v>3914</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="0" t="s">
-        <v>3915</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="0" t="s">
-        <v>3916</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="0" t="s">
-        <v>3917</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="0" t="s">
-        <v>3918</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="0" t="s">
-        <v>3919</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="0" t="s">
-        <v>3920</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="0" t="s">
-        <v>3921</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="0" t="s">
-        <v>3922</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="0" t="s">
-        <v>3923</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="0" t="s">
-        <v>3924</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="0" t="s">
-        <v>3925</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="0" t="s">
-        <v>3926</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="0" t="s">
-        <v>3927</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="0" t="s">
-        <v>3928</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="0" t="s">
-        <v>3929</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="0" t="s">
-        <v>3930</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="0" t="s">
-        <v>3931</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="0" t="s">
-        <v>3932</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="0" t="s">
-        <v>3933</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0" t="s">
-        <v>3934</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0" t="s">
-        <v>3935</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0" t="s">
-        <v>3936</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0" t="s">
-        <v>3937</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="0" t="s">
-        <v>3938</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0" t="s">
-        <v>3939</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="0" t="s">
-        <v>3940</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="0" t="s">
-        <v>3941</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="0" t="s">
-        <v>3942</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="0" t="s">
-        <v>3943</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="0" t="s">
-        <v>3944</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="0" t="s">
-        <v>3945</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="0" t="s">
-        <v>3946</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="0" t="s">
-        <v>3947</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0" t="s">
-        <v>3948</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0" t="s">
-        <v>3949</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="0" t="s">
-        <v>3950</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="0" t="s">
-        <v>3951</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0" t="s">
-        <v>3952</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="0" t="s">
-        <v>3953</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="0" t="s">
-        <v>3954</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0" t="s">
-        <v>3955</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0" t="s">
-        <v>3956</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0" t="s">
-        <v>3957</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="0" t="s">
-        <v>3958</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="0" t="s">
-        <v>3959</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="0" t="s">
-        <v>3960</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0" t="s">
-        <v>3961</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0" t="s">
-        <v>3962</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0" t="s">
-        <v>3963</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="0" t="s">
-        <v>3964</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="0" t="s">
-        <v>3965</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="0" t="s">
-        <v>3966</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="0" t="s">
-        <v>3967</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="0" t="s">
-        <v>3968</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="0" t="s">
-        <v>3969</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="0" t="s">
-        <v>3970</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="0" t="s">
-        <v>3971</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0" t="s">
-        <v>3972</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="0" t="s">
-        <v>3973</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="0" t="s">
-        <v>3974</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="0" t="s">
-        <v>3975</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="0" t="s">
-        <v>3976</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="s">
-        <v>3977</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="s">
-        <v>3978</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="s">
-        <v>3979</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="s">
-        <v>3980</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="0" t="s">
-        <v>3981</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="0" t="s">
-        <v>3982</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="0" t="s">
-        <v>3983</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="0" t="s">
-        <v>3984</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="0" t="s">
-        <v>3985</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="0" t="s">
-        <v>3986</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="0" t="s">
-        <v>3987</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="0" t="s">
-        <v>3988</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="0" t="s">
-        <v>3989</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="0" t="s">
-        <v>3990</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="0" t="s">
-        <v>3991</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="0" t="s">
-        <v>3992</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="s">
-        <v>3993</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="s">
-        <v>3994</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="s">
-        <v>3995</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="s">
-        <v>3996</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="s">
-        <v>3997</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="s">
-        <v>3998</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="s">
-        <v>3999</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="s">
-        <v>4000</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="s">
-        <v>4001</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="0" t="s">
-        <v>4002</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="s">
-        <v>4003</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="s">
-        <v>4004</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="s">
-        <v>4005</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="s">
-        <v>4006</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="0" t="s">
-        <v>4007</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="0" t="s">
-        <v>4008</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="0" t="s">
-        <v>4009</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="0" t="s">
-        <v>4010</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="0" t="s">
-        <v>4011</v>
+        <v>5014</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="5015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6018" uniqueCount="6018">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -15065,6 +15065,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103901.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103900.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103892.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103890.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103889.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103888.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103887.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103884.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103882.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103881.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103880.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103879.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103878.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103877.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103876.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103875.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103874.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103873.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103871.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103870.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103869.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103868.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103867.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103866.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103865.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103863.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103862.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103859.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103855.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103851.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103846.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103845.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103844.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103843.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103839.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103838.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103837.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103836.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103835.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103833.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103826.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103825.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103818.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103814.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103813.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103812.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103811.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103810.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102834.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102828.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102793.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102778.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102770.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102765.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102759.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102757.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102752.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102722.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102720.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102704.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102702.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102694.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102693.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102690.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102656.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102652.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102647.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102636.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102620.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102615.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102614.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102605.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102594.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102593.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102592.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102586.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102582.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102572.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102558.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102557.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102545.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102544.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102543.html</t>
   </si>
 </sst>
 </file>
@@ -15085,7 +18094,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -15097,16 +18106,18 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15432,5017 +18443,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4012</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>4013</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4014</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4015</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4016</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4017</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>4018</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>4019</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>4020</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>4021</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>4022</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>4023</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>4024</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>4025</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>4026</v>
+        <v>5029</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4027</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>4028</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>4029</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>4030</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>4031</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>4032</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>4033</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>4034</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>4035</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>4036</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>4037</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>4038</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>4039</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>4040</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>4041</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>4042</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>4043</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>4044</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>4045</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>4046</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>4047</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>4048</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>4049</v>
+        <v>5052</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>4050</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>4051</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>4052</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>4053</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>4054</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>4055</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>4056</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>4057</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>4058</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>4059</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>4060</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>4061</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>4062</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>4063</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>4064</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>4065</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>4066</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>4067</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>4068</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>4069</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>4070</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>4071</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>4072</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>4073</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>4074</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>4075</v>
+        <v>5078</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>4076</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>4077</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>4078</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>4079</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>4080</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>4081</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>4082</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>4083</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>4084</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>4085</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>4086</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>4087</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>4088</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>4089</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>4090</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>4091</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>4092</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>4093</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>4094</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>4095</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>4096</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>4097</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>4098</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>4099</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>4100</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>4101</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>4102</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>4103</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>4104</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>4105</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>4106</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>4107</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>4108</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>4109</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>4110</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>4111</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>4112</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>4113</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>4114</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>4115</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>4116</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>4117</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>4118</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>4119</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>4120</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>4121</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>4122</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>4123</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>4124</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>4125</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>4126</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>4127</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>4128</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>4129</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>4130</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>4131</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>4132</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>4133</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>4134</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>4135</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>4136</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>4137</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>4138</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>4139</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>4140</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>4141</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>4142</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>4143</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>4144</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>4145</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>4146</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>4147</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>4148</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>4149</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>4150</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>4151</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>4152</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>4153</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>4154</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>4155</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>4156</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>4157</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>4158</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>4159</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>4160</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>4161</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>4162</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>4163</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>4164</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>4165</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>4166</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>4167</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>4168</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>4169</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>4170</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>4171</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>4172</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>4173</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>4174</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>4175</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>4176</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>4177</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>4178</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>4179</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>4180</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>4181</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>4182</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>4183</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>4184</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>4185</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>4186</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>4187</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>4188</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>4189</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>4190</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>4191</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>4192</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>4193</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>4194</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>4195</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>4196</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>4197</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>4198</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>4199</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>4200</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>4201</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>4202</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>4203</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>4204</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>4205</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>4206</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>4207</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>4208</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>4209</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>4210</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>4211</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>4212</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>4213</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>4214</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>4215</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>4216</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>4217</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>4218</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>4219</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>4220</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>4221</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>4222</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>4223</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>4224</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>4225</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>4226</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>4227</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>4228</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>4229</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>4230</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>4231</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>4232</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>4233</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>4234</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>4235</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>4236</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>4237</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>4238</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>4239</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>4240</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>4241</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>4242</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>4243</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>4244</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>4245</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>4246</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>4247</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>4248</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>4249</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>4250</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>4251</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>4252</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>4253</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>4254</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>4255</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>4256</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>4257</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>4258</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>4259</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>4260</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>4261</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>4262</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>4263</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>4264</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>4265</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>4266</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>4267</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>4268</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>4269</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>4270</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>4271</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>4272</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>4273</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>4274</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>4275</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>4276</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>4277</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>4278</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>4279</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>4280</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>4281</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>4282</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>4283</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>4284</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>4285</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>4286</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>4287</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>4288</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>4289</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>4290</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>4291</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>4292</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>4293</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>4294</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>4295</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>4296</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>4297</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>4298</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>4299</v>
+        <v>5302</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>4300</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>4301</v>
+        <v>5304</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>4302</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>4303</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>4304</v>
+        <v>5307</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>4305</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>4306</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>4307</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>4308</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>4309</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>4310</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>4311</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>4312</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>4313</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>4314</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>4315</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>4316</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>4317</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>4318</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>4319</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>4320</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>4321</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>4322</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>4323</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>4324</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>4325</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>4326</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>4327</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>4328</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>4329</v>
+        <v>5332</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>4330</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>4331</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>4332</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>4333</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>4334</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>4335</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>4336</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>4337</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>4338</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>4339</v>
+        <v>5342</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>4340</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>4341</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>4342</v>
+        <v>5345</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>4343</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>4344</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>4345</v>
+        <v>5348</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>4346</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>4347</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>4348</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>4349</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>4350</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>4351</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>4352</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>4353</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>4354</v>
+        <v>5357</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>4355</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>4356</v>
+        <v>5359</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>4357</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>4358</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>4359</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>4360</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>4361</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>4362</v>
+        <v>5365</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>4363</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>4364</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>4365</v>
+        <v>5368</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>4366</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>4367</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>4368</v>
+        <v>5371</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>4369</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>4370</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>4371</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>4372</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>4373</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>4374</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>4375</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>4376</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>4377</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>4378</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>4379</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>4380</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>4381</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>4382</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>4383</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>4384</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>4385</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>4386</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>4387</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>4388</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>4389</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>4390</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>4391</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>4392</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>4393</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>4394</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>4395</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>4396</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>4397</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>4398</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>4399</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>4400</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>4401</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>4402</v>
+        <v>5405</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>4403</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>4404</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>4405</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>4406</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>4407</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>4408</v>
+        <v>5411</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>4409</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>4410</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>4411</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>4412</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>4413</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>4414</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>4415</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>4416</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>4417</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>4418</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>4419</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>4420</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>4421</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>4422</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>4423</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>4424</v>
+        <v>5427</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>4425</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>4426</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>4427</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>4428</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>4429</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>4430</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>4431</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>4432</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>4433</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>4434</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>4435</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>4436</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>4437</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>4438</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>4439</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>4440</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>4441</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>4442</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>4443</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>4444</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>4445</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>4446</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>4447</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>4448</v>
+        <v>5451</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>4449</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>4450</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>4451</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>4452</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>4453</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>4454</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>4455</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>4456</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>4457</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>4458</v>
+        <v>5461</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>4459</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>4460</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>4461</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>4462</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>4463</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>4464</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>4465</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>4466</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>4467</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>4468</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>4469</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>4470</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>4471</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>4472</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>4473</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>4474</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>4475</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>4476</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>4477</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>4478</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>4479</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>4480</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>4481</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>4482</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>4483</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>4484</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>4485</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>4486</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>4487</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>4488</v>
+        <v>5491</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>4489</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>4490</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>4491</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>4492</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>4493</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>4494</v>
+        <v>5497</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>4495</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>4496</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>4497</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>4498</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>4499</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>4500</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>4501</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>4502</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>4503</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>4504</v>
+        <v>5507</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>4505</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>4506</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>4507</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>4508</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>4509</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>4510</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>4511</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>4512</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>4513</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>4514</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>4515</v>
+        <v>5518</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>4516</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>4517</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>4518</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>4519</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>4520</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>4521</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>4522</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>4523</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>4524</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>4525</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>4526</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>4527</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>4528</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>4529</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>4530</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>4531</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>4532</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>4533</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>4534</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>4535</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>4536</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>4537</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>4538</v>
+        <v>5541</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>4539</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>4540</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>4541</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>4542</v>
+        <v>5545</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>4543</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>4544</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>4545</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>4546</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>4547</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>4548</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>4549</v>
+        <v>5552</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>4550</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>4551</v>
+        <v>5554</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>4552</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>4553</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>4554</v>
+        <v>5557</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>4555</v>
+        <v>5558</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>4556</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>4557</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>4558</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>4559</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>4560</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>4561</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>4562</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>4563</v>
+        <v>5566</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>4564</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>4565</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>4566</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>4567</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>4568</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>4569</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>4570</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>4571</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>4572</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>4573</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>4574</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>4575</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>4576</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>4577</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>4578</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>4579</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>4580</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>4581</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>4582</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>4583</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>4584</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>4585</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>4586</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>4587</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>4588</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>4589</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>4590</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>4591</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>4592</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>4593</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>4594</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>4595</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>4596</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>4597</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>4598</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>4599</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>4600</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>4601</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>4602</v>
+        <v>5605</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>4603</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>4604</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>4605</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>4606</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>4607</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>4608</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>4609</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>4610</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>4611</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>4612</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>4613</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>4614</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>4615</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>4616</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>4617</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>4618</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>4619</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>4620</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>4621</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>4622</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>4623</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>4624</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>4625</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>4626</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>4627</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>4628</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>4629</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>4630</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>4631</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>4632</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>4633</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>4634</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>4635</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>4636</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>4637</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>4638</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>4639</v>
+        <v>5642</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>4640</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>4641</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>4642</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>4643</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>4644</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>4645</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>4646</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>4647</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>4648</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>4649</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>4650</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>4651</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>4652</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>4653</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>4654</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>4655</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>4656</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>4657</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>4658</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>4659</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>4660</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>4661</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>4662</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>4663</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>4664</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>4665</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>4666</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>4667</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>4668</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>4669</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>4670</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>4671</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>4672</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>4673</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>4674</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>4675</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>4676</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>4677</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>4678</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>4679</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>4680</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>4681</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>4682</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>4683</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>4684</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>4685</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>4686</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>4687</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>4688</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>4689</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>4690</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>4691</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>4692</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>4693</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>4694</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>4695</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>4696</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>4697</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>4698</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>4699</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>4700</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>4701</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>4702</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>4703</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>4704</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>4705</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>4706</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>4707</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>4708</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>4709</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>4710</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>4711</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>4712</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>4713</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>4714</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>4715</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>4716</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>4717</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>4718</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>4719</v>
+        <v>5722</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>4720</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>4721</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>4722</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>4723</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>4724</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>4725</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>4726</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>4727</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>4728</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>4729</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>4730</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>4731</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>4732</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>4733</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>4734</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>4735</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>4736</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>4737</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>4738</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>4739</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>4740</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>4741</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>4742</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>4743</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>4744</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>4745</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>4746</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>4747</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>4748</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>4749</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>4750</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>4751</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>4752</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>4753</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>4754</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>4755</v>
+        <v>5758</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>4756</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>4757</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>4758</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>4759</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>4760</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>4761</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>4762</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>4763</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>4764</v>
+        <v>5767</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>4765</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>4766</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>4767</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>4768</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>4769</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>4770</v>
+        <v>5773</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>4771</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>4772</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>4773</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>4774</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>4775</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>4776</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>4777</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>4778</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>4779</v>
+        <v>5782</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>4780</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>4781</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>4782</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>4783</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>4784</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>4785</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>4786</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>4787</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>4788</v>
+        <v>5791</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>4789</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>4790</v>
+        <v>5793</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>4791</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>4792</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>4793</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>4794</v>
+        <v>5797</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>4795</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>4796</v>
+        <v>5799</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
-        <v>4797</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>4798</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>4799</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>4800</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>4801</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>4802</v>
+        <v>5805</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>4803</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>4804</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>4805</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>4806</v>
+        <v>5809</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>4807</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>4808</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>4809</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>4810</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>4811</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>4812</v>
+        <v>5815</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>4813</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>4814</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>4815</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>4816</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>4817</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>4818</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>4819</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>4820</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>4821</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>4822</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>4823</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>4824</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>4825</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>4826</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>4827</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>4828</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>4829</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>4830</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>4831</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>4832</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
-        <v>4833</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>4834</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>4835</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>4836</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>4837</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>4838</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>4839</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>4840</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>4841</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>4842</v>
+        <v>5845</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>4843</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>4844</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>4845</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>4846</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="0" t="s">
-        <v>4847</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="0" t="s">
-        <v>4848</v>
+        <v>5851</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="0" t="s">
-        <v>4849</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="0" t="s">
-        <v>4850</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="0" t="s">
-        <v>4851</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="0" t="s">
-        <v>4852</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="0" t="s">
-        <v>4853</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="0" t="s">
-        <v>4854</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="0" t="s">
-        <v>4855</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="0" t="s">
-        <v>4856</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="0" t="s">
-        <v>4857</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="0" t="s">
-        <v>4858</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>4859</v>
+        <v>5862</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>4860</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>4861</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="0" t="s">
-        <v>4862</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0" t="s">
-        <v>4863</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>4864</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="0" t="s">
-        <v>4865</v>
+        <v>5868</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="0" t="s">
-        <v>4866</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>4867</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="0" t="s">
-        <v>4868</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="0" t="s">
-        <v>4869</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>4870</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>4871</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>4872</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>4873</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>4874</v>
+        <v>5877</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>4875</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>4876</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>4877</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="0" t="s">
-        <v>4878</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="0" t="s">
-        <v>4879</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>4880</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="0" t="s">
-        <v>4881</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>4882</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="0" t="s">
-        <v>4883</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>4884</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>4885</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="0" t="s">
-        <v>4886</v>
+        <v>5889</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="0" t="s">
-        <v>4887</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>4888</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="0" t="s">
-        <v>4889</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>4890</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>4891</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="0" t="s">
-        <v>4892</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>4893</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="0" t="s">
-        <v>4894</v>
+        <v>5897</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>4895</v>
+        <v>5898</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="0" t="s">
-        <v>4896</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>4897</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="0" t="s">
-        <v>4898</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>4899</v>
+        <v>5902</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="0" t="s">
-        <v>4900</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="0" t="s">
-        <v>4901</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="0" t="s">
-        <v>4902</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="0" t="s">
-        <v>4903</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="0" t="s">
-        <v>4904</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="0" t="s">
-        <v>4905</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="0" t="s">
-        <v>4906</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="0" t="s">
-        <v>4907</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="0" t="s">
-        <v>4908</v>
+        <v>5911</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="0" t="s">
-        <v>4909</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="0" t="s">
-        <v>4910</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="0" t="s">
-        <v>4911</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="0" t="s">
-        <v>4912</v>
+        <v>5915</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="0" t="s">
-        <v>4913</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="0" t="s">
-        <v>4914</v>
+        <v>5917</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="0" t="s">
-        <v>4915</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="0" t="s">
-        <v>4916</v>
+        <v>5919</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="0" t="s">
-        <v>4917</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="0" t="s">
-        <v>4918</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="0" t="s">
-        <v>4919</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="0" t="s">
-        <v>4920</v>
+        <v>5923</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="0" t="s">
-        <v>4921</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="0" t="s">
-        <v>4922</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="0" t="s">
-        <v>4923</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="0" t="s">
-        <v>4924</v>
+        <v>5927</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="0" t="s">
-        <v>4925</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="0" t="s">
-        <v>4926</v>
+        <v>5929</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="0" t="s">
-        <v>4927</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="0" t="s">
-        <v>4928</v>
+        <v>5931</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="0" t="s">
-        <v>4929</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="0" t="s">
-        <v>4930</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="0" t="s">
-        <v>4931</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="0" t="s">
-        <v>4932</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="0" t="s">
-        <v>4933</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="0" t="s">
-        <v>4934</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="0" t="s">
-        <v>4935</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="0" t="s">
-        <v>4936</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0" t="s">
-        <v>4937</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0" t="s">
-        <v>4938</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0" t="s">
-        <v>4939</v>
+        <v>5942</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0" t="s">
-        <v>4940</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="0" t="s">
-        <v>4941</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0" t="s">
-        <v>4942</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="0" t="s">
-        <v>4943</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="0" t="s">
-        <v>4944</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="0" t="s">
-        <v>4945</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="0" t="s">
-        <v>4946</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="0" t="s">
-        <v>4947</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="0" t="s">
-        <v>4948</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="0" t="s">
-        <v>4949</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="0" t="s">
-        <v>4950</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0" t="s">
-        <v>4951</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0" t="s">
-        <v>4952</v>
+        <v>5955</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="0" t="s">
-        <v>4953</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="0" t="s">
-        <v>4954</v>
+        <v>5957</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0" t="s">
-        <v>4955</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="0" t="s">
-        <v>4956</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="0" t="s">
-        <v>4957</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0" t="s">
-        <v>4958</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0" t="s">
-        <v>4959</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0" t="s">
-        <v>4960</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="0" t="s">
-        <v>4961</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="0" t="s">
-        <v>4962</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="0" t="s">
-        <v>4963</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0" t="s">
-        <v>4964</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0" t="s">
-        <v>4965</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0" t="s">
-        <v>4966</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="0" t="s">
-        <v>4967</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="0" t="s">
-        <v>4968</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="0" t="s">
-        <v>4969</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="0" t="s">
-        <v>4970</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="0" t="s">
-        <v>4971</v>
+        <v>5974</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="0" t="s">
-        <v>4972</v>
+        <v>5975</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="0" t="s">
-        <v>4973</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="0" t="s">
-        <v>4974</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0" t="s">
-        <v>4975</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="0" t="s">
-        <v>4976</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="0" t="s">
-        <v>4977</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="0" t="s">
-        <v>4978</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="0" t="s">
-        <v>4979</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="s">
-        <v>4980</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="s">
-        <v>4981</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="s">
-        <v>4982</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="s">
-        <v>4983</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="0" t="s">
-        <v>4984</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="0" t="s">
-        <v>4985</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="0" t="s">
-        <v>4986</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="0" t="s">
-        <v>4987</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="0" t="s">
-        <v>4988</v>
+        <v>5991</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="0" t="s">
-        <v>4989</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="0" t="s">
-        <v>4990</v>
+        <v>5993</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="0" t="s">
-        <v>4991</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="0" t="s">
-        <v>4992</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="0" t="s">
-        <v>4993</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="0" t="s">
-        <v>4994</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="0" t="s">
-        <v>4995</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="s">
-        <v>4996</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="s">
-        <v>4997</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="s">
-        <v>4998</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="s">
-        <v>4999</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="s">
-        <v>5000</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="s">
-        <v>5001</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="s">
-        <v>5002</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="s">
-        <v>5003</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="s">
-        <v>5004</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="0" t="s">
-        <v>5005</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="s">
-        <v>5006</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="s">
-        <v>5007</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="s">
-        <v>5008</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="s">
-        <v>5009</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="0" t="s">
-        <v>5010</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="0" t="s">
-        <v>5011</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="0" t="s">
-        <v>5012</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="0" t="s">
-        <v>5013</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="0" t="s">
-        <v>5014</v>
+        <v>6017</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6018" uniqueCount="6018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7021" uniqueCount="7021">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -18074,6 +18074,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103955.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103953.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103951.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103948.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103937.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103935.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103933.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103932.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103931.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103917.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103913.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103910.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103901.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103900.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103892.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103890.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103889.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103888.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103887.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103884.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103882.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103881.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103880.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103879.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103878.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103877.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103876.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103875.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103874.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103873.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103871.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103870.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103869.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103868.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103867.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103866.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103865.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103863.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103862.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103859.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103855.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103851.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103846.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103845.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103844.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103843.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103839.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103838.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103837.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103836.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103835.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103833.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103826.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103825.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103818.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103814.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103813.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103812.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103811.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103810.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102834.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102828.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102793.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102778.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102770.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102765.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102759.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102757.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102752.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102722.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102720.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102704.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102702.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102694.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102693.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102690.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102656.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102652.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102647.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102636.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102620.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102615.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102614.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102607.html</t>
   </si>
 </sst>
 </file>
@@ -18094,7 +21103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -18107,17 +21116,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18443,5017 +21454,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5015</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>5016</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>5017</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>5018</v>
+        <v>6021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5019</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5020</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>5021</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>5022</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>5023</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>5024</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>5025</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>5026</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>5027</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>5028</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>5029</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>5030</v>
+        <v>6033</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>5031</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>5032</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>5033</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>5034</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>5035</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>5036</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>5037</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>5038</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>5039</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>5040</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>5041</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>5042</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>5043</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>5044</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>5045</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>5046</v>
+        <v>6049</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>5047</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>5048</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>5049</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>5050</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>5051</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>5052</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>5053</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>5054</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>5055</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>5056</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>5057</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>5058</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>5059</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>5060</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>5061</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>5062</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>5063</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>5064</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>5065</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>5066</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>5067</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>5068</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>5069</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>5070</v>
+        <v>6073</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>5071</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>5072</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>5073</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>5074</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>5075</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>5076</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>5077</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>5078</v>
+        <v>6081</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>5079</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>5080</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>5081</v>
+        <v>6084</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>5082</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>5083</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>5084</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>5085</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>5086</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>5087</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>5088</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>5089</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>5090</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>5091</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>5092</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>5093</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>5094</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>5095</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>5096</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>5097</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>5098</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>5099</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>5100</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>5101</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>5102</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>5103</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>5104</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>5105</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>5106</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>5107</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>5108</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>5109</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>5110</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>5111</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>5112</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>5113</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>5114</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>5115</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>5116</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>5117</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>5118</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>5119</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>5120</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>5121</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>5122</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>5123</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>5124</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>5125</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>5126</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>5127</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>5128</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>5129</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>5130</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>5131</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>5132</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>5133</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>5134</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>5135</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>5136</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>5137</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>5138</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>5139</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>5140</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>5141</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>5142</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>5143</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>5144</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>5145</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>5146</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>5147</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>5148</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>5149</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>5150</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>5151</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>5152</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>5153</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>5154</v>
+        <v>6157</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>5155</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>5156</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>5157</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>5158</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>5159</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>5160</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>5161</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>5162</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>5163</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>5164</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>5165</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>5166</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>5167</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>5168</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>5169</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>5170</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>5171</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>5172</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>5173</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>5174</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>5175</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>5176</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>5177</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>5178</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>5179</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>5180</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>5181</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>5182</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>5183</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>5184</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>5185</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>5186</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>5187</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>5188</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>5189</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>5190</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>5191</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>5192</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>5193</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>5194</v>
+        <v>6197</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>5195</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>5196</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>5197</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>5198</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>5199</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>5200</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>5201</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>5202</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>5203</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>5204</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>5205</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>5206</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>5207</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>5208</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>5209</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>5210</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>5211</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>5212</v>
+        <v>6215</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>5213</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>5214</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>5215</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>5216</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>5217</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>5218</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>5219</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>5220</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>5221</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>5222</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>5223</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>5224</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>5225</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>5226</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>5227</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>5228</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>5229</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>5230</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>5231</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>5232</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>5233</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>5234</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>5235</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>5236</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>5237</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>5238</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>5239</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>5240</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>5241</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>5242</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>5243</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>5244</v>
+        <v>6247</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>5245</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>5246</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>5247</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>5248</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>5249</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>5250</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>5251</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>5252</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>5253</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>5254</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>5255</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>5256</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>5257</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>5258</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>5259</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>5260</v>
+        <v>6263</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>5261</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>5262</v>
+        <v>6265</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>5263</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>5264</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>5265</v>
+        <v>6268</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>5266</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>5267</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>5268</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>5269</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>5270</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>5271</v>
+        <v>6274</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>5272</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>5273</v>
+        <v>6276</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>5274</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>5275</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>5276</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>5277</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>5278</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>5279</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>5280</v>
+        <v>6283</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>5281</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>5282</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>5283</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>5284</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>5285</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>5286</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>5287</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>5288</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>5289</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>5290</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>5291</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>5292</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>5293</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>5294</v>
+        <v>6297</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>5295</v>
+        <v>6298</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>5296</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>5297</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>5298</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>5299</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>5300</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>5301</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>5302</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>5303</v>
+        <v>6306</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>5304</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>5305</v>
+        <v>6308</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>5306</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>5307</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>5308</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>5309</v>
+        <v>6312</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>5310</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>5311</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>5312</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>5313</v>
+        <v>6316</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>5314</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>5315</v>
+        <v>6318</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>5316</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>5317</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>5318</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>5319</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>5320</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>5321</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>5322</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>5323</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>5324</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>5325</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>5326</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>5327</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>5328</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>5329</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>5330</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>5331</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>5332</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>5333</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>5334</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>5335</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>5336</v>
+        <v>6339</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>5337</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>5338</v>
+        <v>6341</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>5339</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>5340</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>5341</v>
+        <v>6344</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>5342</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>5343</v>
+        <v>6346</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>5344</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>5345</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>5346</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>5347</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>5348</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>5349</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>5350</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>5351</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>5352</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>5353</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>5354</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>5355</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>5356</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>5357</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>5358</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>5359</v>
+        <v>6362</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>5360</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>5361</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>5362</v>
+        <v>6365</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>5363</v>
+        <v>6366</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>5364</v>
+        <v>6367</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>5365</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>5366</v>
+        <v>6369</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>5367</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>5368</v>
+        <v>6371</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>5369</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>5370</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>5371</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>5372</v>
+        <v>6375</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>5373</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>5374</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>5375</v>
+        <v>6378</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>5376</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>5377</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>5378</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>5379</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>5380</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>5381</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>5382</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>5383</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>5384</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>5385</v>
+        <v>6388</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>5386</v>
+        <v>6389</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>5387</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>5388</v>
+        <v>6391</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>5389</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>5390</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>5391</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>5392</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>5393</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>5394</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>5395</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>5396</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>5397</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>5398</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>5399</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>5400</v>
+        <v>6403</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>5401</v>
+        <v>6404</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>5402</v>
+        <v>6405</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>5403</v>
+        <v>6406</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>5404</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>5405</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>5406</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>5407</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>5408</v>
+        <v>6411</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>5409</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>5410</v>
+        <v>6413</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>5411</v>
+        <v>6414</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>5412</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>5413</v>
+        <v>6416</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>5414</v>
+        <v>6417</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>5415</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>5416</v>
+        <v>6419</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>5417</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>5418</v>
+        <v>6421</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>5419</v>
+        <v>6422</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>5420</v>
+        <v>6423</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>5421</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>5422</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>5423</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>5424</v>
+        <v>6427</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>5425</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>5426</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>5427</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>5428</v>
+        <v>6431</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>5429</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>5430</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>5431</v>
+        <v>6434</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>5432</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>5433</v>
+        <v>6436</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>5434</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>5435</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>5436</v>
+        <v>6439</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>5437</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>5438</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>5439</v>
+        <v>6442</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>5440</v>
+        <v>6443</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>5441</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>5442</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>5443</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>5444</v>
+        <v>6447</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>5445</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>5446</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>5447</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>5448</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>5449</v>
+        <v>6452</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>5450</v>
+        <v>6453</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>5451</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>5452</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>5453</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>5454</v>
+        <v>6457</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>5455</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>5456</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>5457</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>5458</v>
+        <v>6461</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>5459</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>5460</v>
+        <v>6463</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>5461</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>5462</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>5463</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>5464</v>
+        <v>6467</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>5465</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>5466</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>5467</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>5468</v>
+        <v>6471</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>5469</v>
+        <v>6472</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>5470</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>5471</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>5472</v>
+        <v>6475</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>5473</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>5474</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>5475</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>5476</v>
+        <v>6479</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>5477</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>5478</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>5479</v>
+        <v>6482</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>5480</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>5481</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>5482</v>
+        <v>6485</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>5483</v>
+        <v>6486</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>5484</v>
+        <v>6487</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>5485</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>5486</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>5487</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>5488</v>
+        <v>6491</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>5489</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>5490</v>
+        <v>6493</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>5491</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>5492</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>5493</v>
+        <v>6496</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>5494</v>
+        <v>6497</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>5495</v>
+        <v>6498</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>5496</v>
+        <v>6499</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>5497</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>5498</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>5499</v>
+        <v>6502</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>5500</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>5501</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>5502</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>5503</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>5504</v>
+        <v>6507</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>5505</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>5506</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>5507</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>5508</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>5509</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>5510</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>5511</v>
+        <v>6514</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>5512</v>
+        <v>6515</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>5513</v>
+        <v>6516</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>5514</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>5515</v>
+        <v>6518</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>5516</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>5517</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>5518</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>5519</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>5520</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>5521</v>
+        <v>6524</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>5522</v>
+        <v>6525</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>5523</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>5524</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>5525</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>5526</v>
+        <v>6529</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>5527</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>5528</v>
+        <v>6531</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>5529</v>
+        <v>6532</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>5530</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>5531</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>5532</v>
+        <v>6535</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>5533</v>
+        <v>6536</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>5534</v>
+        <v>6537</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>5535</v>
+        <v>6538</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>5536</v>
+        <v>6539</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>5537</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>5538</v>
+        <v>6541</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>5539</v>
+        <v>6542</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>5540</v>
+        <v>6543</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>5541</v>
+        <v>6544</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>5542</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>5543</v>
+        <v>6546</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>5544</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>5545</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>5546</v>
+        <v>6549</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>5547</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>5548</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>5549</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>5550</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>5551</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>5552</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>5553</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>5554</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>5555</v>
+        <v>6558</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>5556</v>
+        <v>6559</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>5557</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>5558</v>
+        <v>6561</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>5559</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>5560</v>
+        <v>6563</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>5561</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>5562</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>5563</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>5564</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>5565</v>
+        <v>6568</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>5566</v>
+        <v>6569</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>5567</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>5568</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>5569</v>
+        <v>6572</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>5570</v>
+        <v>6573</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>5571</v>
+        <v>6574</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>5572</v>
+        <v>6575</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>5573</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>5574</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>5575</v>
+        <v>6578</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>5576</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>5577</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>5578</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>5579</v>
+        <v>6582</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>5580</v>
+        <v>6583</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>5581</v>
+        <v>6584</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>5582</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>5583</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>5584</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>5585</v>
+        <v>6588</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>5586</v>
+        <v>6589</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>5587</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>5588</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>5589</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>5590</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>5591</v>
+        <v>6594</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>5592</v>
+        <v>6595</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>5593</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>5594</v>
+        <v>6597</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>5595</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>5596</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>5597</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>5598</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>5599</v>
+        <v>6602</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>5600</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>5601</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>5602</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>5603</v>
+        <v>6606</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>5604</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>5605</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>5606</v>
+        <v>6609</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>5607</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>5608</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>5609</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>5610</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>5611</v>
+        <v>6614</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>5612</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>5613</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>5614</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>5615</v>
+        <v>6618</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>5616</v>
+        <v>6619</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>5617</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>5618</v>
+        <v>6621</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>5619</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>5620</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>5621</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>5622</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>5623</v>
+        <v>6626</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>5624</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>5625</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>5626</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>5627</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>5628</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>5629</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>5630</v>
+        <v>6633</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>5631</v>
+        <v>6634</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>5632</v>
+        <v>6635</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>5633</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>5634</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>5635</v>
+        <v>6638</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>5636</v>
+        <v>6639</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>5637</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>5638</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>5639</v>
+        <v>6642</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>5640</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>5641</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>5642</v>
+        <v>6645</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>5643</v>
+        <v>6646</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>5644</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>5645</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>5646</v>
+        <v>6649</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>5647</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>5648</v>
+        <v>6651</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>5649</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>5650</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>5651</v>
+        <v>6654</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>5652</v>
+        <v>6655</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>5653</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>5654</v>
+        <v>6657</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>5655</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>5656</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>5657</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>5658</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>5659</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>5660</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>5661</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>5662</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>5663</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>5664</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>5665</v>
+        <v>6668</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>5666</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>5667</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>5668</v>
+        <v>6671</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>5669</v>
+        <v>6672</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>5670</v>
+        <v>6673</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>5671</v>
+        <v>6674</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>5672</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>5673</v>
+        <v>6676</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>5674</v>
+        <v>6677</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>5675</v>
+        <v>6678</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>5676</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>5677</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>5678</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>5679</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>5680</v>
+        <v>6683</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>5681</v>
+        <v>6684</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>5682</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>5683</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>5684</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>5685</v>
+        <v>6688</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>5686</v>
+        <v>6689</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>5687</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>5688</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>5689</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>5690</v>
+        <v>6693</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>5691</v>
+        <v>6694</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>5692</v>
+        <v>6695</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>5693</v>
+        <v>6696</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>5694</v>
+        <v>6697</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>5695</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>5696</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>5697</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>5698</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>5699</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>5700</v>
+        <v>6703</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>5701</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>5702</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>5703</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>5704</v>
+        <v>6707</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>5705</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>5706</v>
+        <v>6709</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>5707</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>5708</v>
+        <v>6711</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>5709</v>
+        <v>6712</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>5710</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>5711</v>
+        <v>6714</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>5712</v>
+        <v>6715</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>5713</v>
+        <v>6716</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>5714</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>5715</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>5716</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>5717</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>5718</v>
+        <v>6721</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>5719</v>
+        <v>6722</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>5720</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>5721</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>5722</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>5723</v>
+        <v>6726</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>5724</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>5725</v>
+        <v>6728</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>5726</v>
+        <v>6729</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>5727</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>5728</v>
+        <v>6731</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>5729</v>
+        <v>6732</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>5730</v>
+        <v>6733</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>5731</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>5732</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>5733</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>5734</v>
+        <v>6737</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>5735</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>5736</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>5737</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>5738</v>
+        <v>6741</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>5739</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>5740</v>
+        <v>6743</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>5741</v>
+        <v>6744</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>5742</v>
+        <v>6745</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>5743</v>
+        <v>6746</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>5744</v>
+        <v>6747</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>5745</v>
+        <v>6748</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>5746</v>
+        <v>6749</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>5747</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>5748</v>
+        <v>6751</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>5749</v>
+        <v>6752</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>5750</v>
+        <v>6753</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>5751</v>
+        <v>6754</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>5752</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>5753</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>5754</v>
+        <v>6757</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>5755</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>5756</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>5757</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>5758</v>
+        <v>6761</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>5759</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>5760</v>
+        <v>6763</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>5761</v>
+        <v>6764</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>5762</v>
+        <v>6765</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>5763</v>
+        <v>6766</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>5764</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>5765</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>5766</v>
+        <v>6769</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>5767</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>5768</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>5769</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>5770</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>5771</v>
+        <v>6774</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>5772</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>5773</v>
+        <v>6776</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>5774</v>
+        <v>6777</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>5775</v>
+        <v>6778</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>5776</v>
+        <v>6779</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>5777</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>5778</v>
+        <v>6781</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>5779</v>
+        <v>6782</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>5780</v>
+        <v>6783</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>5781</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>5782</v>
+        <v>6785</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>5783</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>5784</v>
+        <v>6787</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>5785</v>
+        <v>6788</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>5786</v>
+        <v>6789</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>5787</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>5788</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>5789</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>5790</v>
+        <v>6793</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>5791</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>5792</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>5793</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>5794</v>
+        <v>6797</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>5795</v>
+        <v>6798</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>5796</v>
+        <v>6799</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>5797</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>5798</v>
+        <v>6801</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>5799</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
-        <v>5800</v>
+        <v>6803</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>5801</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>5802</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>5803</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>5804</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>5805</v>
+        <v>6808</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>5806</v>
+        <v>6809</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>5807</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>5808</v>
+        <v>6811</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>5809</v>
+        <v>6812</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>5810</v>
+        <v>6813</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>5811</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>5812</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>5813</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>5814</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>5815</v>
+        <v>6818</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>5816</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>5817</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>5818</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>5819</v>
+        <v>6822</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>5820</v>
+        <v>6823</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>5821</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>5822</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>5823</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>5824</v>
+        <v>6827</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>5825</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>5826</v>
+        <v>6829</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>5827</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>5828</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>5829</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>5830</v>
+        <v>6833</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>5831</v>
+        <v>6834</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>5832</v>
+        <v>6835</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>5833</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>5834</v>
+        <v>6837</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>5835</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
-        <v>5836</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>5837</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>5838</v>
+        <v>6841</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>5839</v>
+        <v>6842</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>5840</v>
+        <v>6843</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>5841</v>
+        <v>6844</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>5842</v>
+        <v>6845</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>5843</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>5844</v>
+        <v>6847</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>5845</v>
+        <v>6848</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>5846</v>
+        <v>6849</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>5847</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>5848</v>
+        <v>6851</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>5849</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="0" t="s">
-        <v>5850</v>
+        <v>6853</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="0" t="s">
-        <v>5851</v>
+        <v>6854</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="0" t="s">
-        <v>5852</v>
+        <v>6855</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="0" t="s">
-        <v>5853</v>
+        <v>6856</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="0" t="s">
-        <v>5854</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="0" t="s">
-        <v>5855</v>
+        <v>6858</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="0" t="s">
-        <v>5856</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="0" t="s">
-        <v>5857</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="0" t="s">
-        <v>5858</v>
+        <v>6861</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="0" t="s">
-        <v>5859</v>
+        <v>6862</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="0" t="s">
-        <v>5860</v>
+        <v>6863</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="0" t="s">
-        <v>5861</v>
+        <v>6864</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>5862</v>
+        <v>6865</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>5863</v>
+        <v>6866</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>5864</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="0" t="s">
-        <v>5865</v>
+        <v>6868</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0" t="s">
-        <v>5866</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>5867</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="0" t="s">
-        <v>5868</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="0" t="s">
-        <v>5869</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>5870</v>
+        <v>6873</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="0" t="s">
-        <v>5871</v>
+        <v>6874</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="0" t="s">
-        <v>5872</v>
+        <v>6875</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>5873</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>5874</v>
+        <v>6877</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>5875</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>5876</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>5877</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>5878</v>
+        <v>6881</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>5879</v>
+        <v>6882</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>5880</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="0" t="s">
-        <v>5881</v>
+        <v>6884</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="0" t="s">
-        <v>5882</v>
+        <v>6885</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>5883</v>
+        <v>6886</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="0" t="s">
-        <v>5884</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>5885</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="0" t="s">
-        <v>5886</v>
+        <v>6889</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>5887</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>5888</v>
+        <v>6891</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="0" t="s">
-        <v>5889</v>
+        <v>6892</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="0" t="s">
-        <v>5890</v>
+        <v>6893</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>5891</v>
+        <v>6894</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="0" t="s">
-        <v>5892</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>5893</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>5894</v>
+        <v>6897</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="0" t="s">
-        <v>5895</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>5896</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="0" t="s">
-        <v>5897</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>5898</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="0" t="s">
-        <v>5899</v>
+        <v>6902</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>5900</v>
+        <v>6903</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="0" t="s">
-        <v>5901</v>
+        <v>6904</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>5902</v>
+        <v>6905</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="0" t="s">
-        <v>5903</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="0" t="s">
-        <v>5904</v>
+        <v>6907</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="0" t="s">
-        <v>5905</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="0" t="s">
-        <v>5906</v>
+        <v>6909</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="0" t="s">
-        <v>5907</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="0" t="s">
-        <v>5908</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="0" t="s">
-        <v>5909</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="0" t="s">
-        <v>5910</v>
+        <v>6913</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="0" t="s">
-        <v>5911</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="0" t="s">
-        <v>5912</v>
+        <v>6915</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="0" t="s">
-        <v>5913</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="0" t="s">
-        <v>5914</v>
+        <v>6917</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="0" t="s">
-        <v>5915</v>
+        <v>6918</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="0" t="s">
-        <v>5916</v>
+        <v>6919</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="0" t="s">
-        <v>5917</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="0" t="s">
-        <v>5918</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="0" t="s">
-        <v>5919</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="0" t="s">
-        <v>5920</v>
+        <v>6923</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="0" t="s">
-        <v>5921</v>
+        <v>6924</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="0" t="s">
-        <v>5922</v>
+        <v>6925</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="0" t="s">
-        <v>5923</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="0" t="s">
-        <v>5924</v>
+        <v>6927</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="0" t="s">
-        <v>5925</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="0" t="s">
-        <v>5926</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="0" t="s">
-        <v>5927</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="0" t="s">
-        <v>5928</v>
+        <v>6931</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="0" t="s">
-        <v>5929</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="0" t="s">
-        <v>5930</v>
+        <v>6933</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="0" t="s">
-        <v>5931</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="0" t="s">
-        <v>5932</v>
+        <v>6935</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="0" t="s">
-        <v>5933</v>
+        <v>6936</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="0" t="s">
-        <v>5934</v>
+        <v>6937</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="0" t="s">
-        <v>5935</v>
+        <v>6938</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="0" t="s">
-        <v>5936</v>
+        <v>6939</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="0" t="s">
-        <v>5937</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="0" t="s">
-        <v>5938</v>
+        <v>6941</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="0" t="s">
-        <v>5939</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0" t="s">
-        <v>5940</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0" t="s">
-        <v>5941</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0" t="s">
-        <v>5942</v>
+        <v>6945</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0" t="s">
-        <v>5943</v>
+        <v>6946</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="0" t="s">
-        <v>5944</v>
+        <v>6947</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0" t="s">
-        <v>5945</v>
+        <v>6948</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="0" t="s">
-        <v>5946</v>
+        <v>6949</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="0" t="s">
-        <v>5947</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="0" t="s">
-        <v>5948</v>
+        <v>6951</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="0" t="s">
-        <v>5949</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="0" t="s">
-        <v>5950</v>
+        <v>6953</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="0" t="s">
-        <v>5951</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="0" t="s">
-        <v>5952</v>
+        <v>6955</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="0" t="s">
-        <v>5953</v>
+        <v>6956</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0" t="s">
-        <v>5954</v>
+        <v>6957</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0" t="s">
-        <v>5955</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="0" t="s">
-        <v>5956</v>
+        <v>6959</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="0" t="s">
-        <v>5957</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0" t="s">
-        <v>5958</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="0" t="s">
-        <v>5959</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="0" t="s">
-        <v>5960</v>
+        <v>6963</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0" t="s">
-        <v>5961</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0" t="s">
-        <v>5962</v>
+        <v>6965</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0" t="s">
-        <v>5963</v>
+        <v>6966</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="0" t="s">
-        <v>5964</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="0" t="s">
-        <v>5965</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="0" t="s">
-        <v>5966</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0" t="s">
-        <v>5967</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0" t="s">
-        <v>5968</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0" t="s">
-        <v>5969</v>
+        <v>6972</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="0" t="s">
-        <v>5970</v>
+        <v>6973</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="0" t="s">
-        <v>5971</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="0" t="s">
-        <v>5972</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="0" t="s">
-        <v>5973</v>
+        <v>6976</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="0" t="s">
-        <v>5974</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="0" t="s">
-        <v>5975</v>
+        <v>6978</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="0" t="s">
-        <v>5976</v>
+        <v>6979</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="0" t="s">
-        <v>5977</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0" t="s">
-        <v>5978</v>
+        <v>6981</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="0" t="s">
-        <v>5979</v>
+        <v>6982</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="0" t="s">
-        <v>5980</v>
+        <v>6983</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="0" t="s">
-        <v>5981</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="0" t="s">
-        <v>5982</v>
+        <v>6985</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="s">
-        <v>5983</v>
+        <v>6986</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="s">
-        <v>5984</v>
+        <v>6987</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="s">
-        <v>5985</v>
+        <v>6988</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="s">
-        <v>5986</v>
+        <v>6989</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="0" t="s">
-        <v>5987</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="0" t="s">
-        <v>5988</v>
+        <v>6991</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="0" t="s">
-        <v>5989</v>
+        <v>6992</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="0" t="s">
-        <v>5990</v>
+        <v>6993</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="0" t="s">
-        <v>5991</v>
+        <v>6994</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="0" t="s">
-        <v>5992</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="0" t="s">
-        <v>5993</v>
+        <v>6996</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="0" t="s">
-        <v>5994</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="0" t="s">
-        <v>5995</v>
+        <v>6998</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="0" t="s">
-        <v>5996</v>
+        <v>6999</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="0" t="s">
-        <v>5997</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="0" t="s">
-        <v>5998</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="s">
-        <v>5999</v>
+        <v>7002</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="s">
-        <v>6000</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="s">
-        <v>6001</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="s">
-        <v>6002</v>
+        <v>7005</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="s">
-        <v>6003</v>
+        <v>7006</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="s">
-        <v>6004</v>
+        <v>7007</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="s">
-        <v>6005</v>
+        <v>7008</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="s">
-        <v>6006</v>
+        <v>7009</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="s">
-        <v>6007</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="0" t="s">
-        <v>6008</v>
+        <v>7011</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="s">
-        <v>6009</v>
+        <v>7012</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="s">
-        <v>6010</v>
+        <v>7013</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="s">
-        <v>6011</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="s">
-        <v>6012</v>
+        <v>7015</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="0" t="s">
-        <v>6013</v>
+        <v>7016</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="0" t="s">
-        <v>6014</v>
+        <v>7017</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="0" t="s">
-        <v>6015</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="0" t="s">
-        <v>6016</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="0" t="s">
-        <v>6017</v>
+        <v>7020</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7021" uniqueCount="7021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8024" uniqueCount="8024">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -21083,6 +21083,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103990.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103977.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103960.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103955.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103953.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103951.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103948.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103937.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103935.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103933.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103932.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103931.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103917.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103913.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103910.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103901.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103900.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103892.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103890.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103889.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103888.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103887.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103884.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103882.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103881.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103880.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103879.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103878.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103877.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103876.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103875.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103874.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103873.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103871.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103870.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103869.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103868.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103867.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103866.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103865.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103863.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103862.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103859.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103855.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103851.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103846.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103845.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103844.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103843.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103839.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103838.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103837.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103836.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103835.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103833.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103826.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103825.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103818.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103814.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103813.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103812.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103811.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103810.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102834.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102828.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102793.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102778.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102770.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102765.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102759.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102757.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102752.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102722.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102720.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102704.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102702.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102694.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102693.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102690.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102656.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102652.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102647.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102641.html</t>
   </si>
 </sst>
 </file>
@@ -21103,7 +24112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -21117,11 +24126,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -21129,6 +24139,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21454,5017 +24465,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6018</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6019</v>
+        <v>7022</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6020</v>
+        <v>7023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>6021</v>
+        <v>7024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>6022</v>
+        <v>7025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6023</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6024</v>
+        <v>7027</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>6025</v>
+        <v>7028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>6026</v>
+        <v>7029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>6027</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>6028</v>
+        <v>7031</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>6029</v>
+        <v>7032</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>6030</v>
+        <v>7033</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>6031</v>
+        <v>7034</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>6032</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>6033</v>
+        <v>7036</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>6034</v>
+        <v>7037</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>6035</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>6036</v>
+        <v>7039</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>6037</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>6038</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>6039</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>6040</v>
+        <v>7043</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>6041</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>6042</v>
+        <v>7045</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>6043</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>6044</v>
+        <v>7047</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>6045</v>
+        <v>7048</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>6046</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>6047</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>6048</v>
+        <v>7051</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>6049</v>
+        <v>7052</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>6050</v>
+        <v>7053</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>6051</v>
+        <v>7054</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>6052</v>
+        <v>7055</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>6053</v>
+        <v>7056</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>6054</v>
+        <v>7057</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>6055</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>6056</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>6057</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>6058</v>
+        <v>7061</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>6059</v>
+        <v>7062</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>6060</v>
+        <v>7063</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>6061</v>
+        <v>7064</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>6062</v>
+        <v>7065</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>6063</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>6064</v>
+        <v>7067</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>6065</v>
+        <v>7068</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>6066</v>
+        <v>7069</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>6067</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>6068</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>6069</v>
+        <v>7072</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>6070</v>
+        <v>7073</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>6071</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>6072</v>
+        <v>7075</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>6073</v>
+        <v>7076</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>6074</v>
+        <v>7077</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>6075</v>
+        <v>7078</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>6076</v>
+        <v>7079</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>6077</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>6078</v>
+        <v>7081</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>6079</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>6080</v>
+        <v>7083</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>6081</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>6082</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>6083</v>
+        <v>7086</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>6084</v>
+        <v>7087</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>6085</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>6086</v>
+        <v>7089</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>6087</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>6088</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>6089</v>
+        <v>7092</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>6090</v>
+        <v>7093</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>6091</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>6092</v>
+        <v>7095</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>6093</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>6094</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>6095</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>6096</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>6097</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>6098</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>6099</v>
+        <v>7102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>6100</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>6101</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>6102</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>6103</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>6104</v>
+        <v>7107</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>6105</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>6106</v>
+        <v>7109</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>6107</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>6108</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>6109</v>
+        <v>7112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>6110</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>6111</v>
+        <v>7114</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>6112</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>6113</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>6114</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>6115</v>
+        <v>7118</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>6116</v>
+        <v>7119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>6117</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>6118</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>6119</v>
+        <v>7122</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>6120</v>
+        <v>7123</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>6121</v>
+        <v>7124</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>6122</v>
+        <v>7125</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>6123</v>
+        <v>7126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>6124</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>6125</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>6126</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>6127</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>6128</v>
+        <v>7131</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>6129</v>
+        <v>7132</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>6130</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>6131</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>6132</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>6133</v>
+        <v>7136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>6134</v>
+        <v>7137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>6135</v>
+        <v>7138</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>6136</v>
+        <v>7139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>6137</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>6138</v>
+        <v>7141</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>6139</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>6140</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>6141</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>6142</v>
+        <v>7145</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>6143</v>
+        <v>7146</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>6144</v>
+        <v>7147</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>6145</v>
+        <v>7148</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>6146</v>
+        <v>7149</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>6147</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>6148</v>
+        <v>7151</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>6149</v>
+        <v>7152</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>6150</v>
+        <v>7153</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>6151</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>6152</v>
+        <v>7155</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>6153</v>
+        <v>7156</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>6154</v>
+        <v>7157</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>6155</v>
+        <v>7158</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>6156</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>6157</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>6158</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>6159</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>6160</v>
+        <v>7163</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>6161</v>
+        <v>7164</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>6162</v>
+        <v>7165</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>6163</v>
+        <v>7166</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>6164</v>
+        <v>7167</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>6165</v>
+        <v>7168</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>6166</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>6167</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>6168</v>
+        <v>7171</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>6169</v>
+        <v>7172</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>6170</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>6171</v>
+        <v>7174</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>6172</v>
+        <v>7175</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>6173</v>
+        <v>7176</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>6174</v>
+        <v>7177</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>6175</v>
+        <v>7178</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>6176</v>
+        <v>7179</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>6177</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>6178</v>
+        <v>7181</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>6179</v>
+        <v>7182</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>6180</v>
+        <v>7183</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>6181</v>
+        <v>7184</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>6182</v>
+        <v>7185</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>6183</v>
+        <v>7186</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>6184</v>
+        <v>7187</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>6185</v>
+        <v>7188</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>6186</v>
+        <v>7189</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>6187</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>6188</v>
+        <v>7191</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>6189</v>
+        <v>7192</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>6190</v>
+        <v>7193</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>6191</v>
+        <v>7194</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>6192</v>
+        <v>7195</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>6193</v>
+        <v>7196</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>6194</v>
+        <v>7197</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>6195</v>
+        <v>7198</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>6196</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>6197</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>6198</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>6199</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>6200</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>6201</v>
+        <v>7204</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>6202</v>
+        <v>7205</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>6203</v>
+        <v>7206</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>6204</v>
+        <v>7207</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>6205</v>
+        <v>7208</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>6206</v>
+        <v>7209</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>6207</v>
+        <v>7210</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>6208</v>
+        <v>7211</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>6209</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>6210</v>
+        <v>7213</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>6211</v>
+        <v>7214</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>6212</v>
+        <v>7215</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>6213</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>6214</v>
+        <v>7217</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>6215</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>6216</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>6217</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>6218</v>
+        <v>7221</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>6219</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>6220</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>6221</v>
+        <v>7224</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>6222</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>6223</v>
+        <v>7226</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>6224</v>
+        <v>7227</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>6225</v>
+        <v>7228</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>6226</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>6227</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>6228</v>
+        <v>7231</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>6229</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>6230</v>
+        <v>7233</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>6231</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>6232</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>6233</v>
+        <v>7236</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>6234</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>6235</v>
+        <v>7238</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>6236</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>6237</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>6238</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>6239</v>
+        <v>7242</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>6240</v>
+        <v>7243</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>6241</v>
+        <v>7244</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>6242</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>6243</v>
+        <v>7246</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>6244</v>
+        <v>7247</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>6245</v>
+        <v>7248</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>6246</v>
+        <v>7249</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>6247</v>
+        <v>7250</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>6248</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>6249</v>
+        <v>7252</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>6250</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>6251</v>
+        <v>7254</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>6252</v>
+        <v>7255</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>6253</v>
+        <v>7256</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>6254</v>
+        <v>7257</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>6255</v>
+        <v>7258</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>6256</v>
+        <v>7259</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>6257</v>
+        <v>7260</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>6258</v>
+        <v>7261</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>6259</v>
+        <v>7262</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>6260</v>
+        <v>7263</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>6261</v>
+        <v>7264</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>6262</v>
+        <v>7265</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>6263</v>
+        <v>7266</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>6264</v>
+        <v>7267</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>6265</v>
+        <v>7268</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>6266</v>
+        <v>7269</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>6267</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>6268</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>6269</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>6270</v>
+        <v>7273</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>6271</v>
+        <v>7274</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>6272</v>
+        <v>7275</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>6273</v>
+        <v>7276</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>6274</v>
+        <v>7277</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>6275</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>6276</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>6277</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>6278</v>
+        <v>7281</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>6279</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>6280</v>
+        <v>7283</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>6281</v>
+        <v>7284</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>6282</v>
+        <v>7285</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>6283</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>6284</v>
+        <v>7287</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>6285</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>6286</v>
+        <v>7289</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>6287</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>6288</v>
+        <v>7291</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>6289</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>6290</v>
+        <v>7293</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>6291</v>
+        <v>7294</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>6292</v>
+        <v>7295</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>6293</v>
+        <v>7296</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>6294</v>
+        <v>7297</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>6295</v>
+        <v>7298</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>6296</v>
+        <v>7299</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>6297</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>6298</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>6299</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>6300</v>
+        <v>7303</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>6301</v>
+        <v>7304</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>6302</v>
+        <v>7305</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>6303</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>6304</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>6305</v>
+        <v>7308</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>6306</v>
+        <v>7309</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>6307</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>6308</v>
+        <v>7311</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>6309</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>6310</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>6311</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>6312</v>
+        <v>7315</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>6313</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>6314</v>
+        <v>7317</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>6315</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>6316</v>
+        <v>7319</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>6317</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>6318</v>
+        <v>7321</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>6319</v>
+        <v>7322</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>6320</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>6321</v>
+        <v>7324</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>6322</v>
+        <v>7325</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>6323</v>
+        <v>7326</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>6324</v>
+        <v>7327</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>6325</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>6326</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>6327</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>6328</v>
+        <v>7331</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>6329</v>
+        <v>7332</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>6330</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>6331</v>
+        <v>7334</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>6332</v>
+        <v>7335</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>6333</v>
+        <v>7336</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>6334</v>
+        <v>7337</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>6335</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>6336</v>
+        <v>7339</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>6337</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>6338</v>
+        <v>7341</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>6339</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>6340</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>6341</v>
+        <v>7344</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>6342</v>
+        <v>7345</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>6343</v>
+        <v>7346</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>6344</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>6345</v>
+        <v>7348</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>6346</v>
+        <v>7349</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>6347</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>6348</v>
+        <v>7351</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>6349</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>6350</v>
+        <v>7353</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>6351</v>
+        <v>7354</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>6352</v>
+        <v>7355</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>6353</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>6354</v>
+        <v>7357</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>6355</v>
+        <v>7358</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>6356</v>
+        <v>7359</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>6357</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>6358</v>
+        <v>7361</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>6359</v>
+        <v>7362</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>6360</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>6361</v>
+        <v>7364</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>6362</v>
+        <v>7365</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>6363</v>
+        <v>7366</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>6364</v>
+        <v>7367</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>6365</v>
+        <v>7368</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>6366</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>6367</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>6368</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>6369</v>
+        <v>7372</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>6370</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>6371</v>
+        <v>7374</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>6372</v>
+        <v>7375</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>6373</v>
+        <v>7376</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>6374</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>6375</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>6376</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>6377</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>6378</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>6379</v>
+        <v>7382</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>6380</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>6381</v>
+        <v>7384</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>6382</v>
+        <v>7385</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>6383</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>6384</v>
+        <v>7387</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>6385</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>6386</v>
+        <v>7389</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>6387</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>6388</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>6389</v>
+        <v>7392</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>6390</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>6391</v>
+        <v>7394</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>6392</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>6393</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>6394</v>
+        <v>7397</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>6395</v>
+        <v>7398</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>6396</v>
+        <v>7399</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>6397</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>6398</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>6399</v>
+        <v>7402</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>6400</v>
+        <v>7403</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>6401</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>6402</v>
+        <v>7405</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>6403</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>6404</v>
+        <v>7407</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>6405</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>6406</v>
+        <v>7409</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>6407</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>6408</v>
+        <v>7411</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>6409</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>6410</v>
+        <v>7413</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>6411</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>6412</v>
+        <v>7415</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>6413</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>6414</v>
+        <v>7417</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>6415</v>
+        <v>7418</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>6416</v>
+        <v>7419</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>6417</v>
+        <v>7420</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>6418</v>
+        <v>7421</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>6419</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>6420</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>6421</v>
+        <v>7424</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>6422</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>6423</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>6424</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>6425</v>
+        <v>7428</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>6426</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>6427</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>6428</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>6429</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>6430</v>
+        <v>7433</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>6431</v>
+        <v>7434</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>6432</v>
+        <v>7435</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>6433</v>
+        <v>7436</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>6434</v>
+        <v>7437</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>6435</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>6436</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>6437</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>6438</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>6439</v>
+        <v>7442</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>6440</v>
+        <v>7443</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>6441</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>6442</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>6443</v>
+        <v>7446</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>6444</v>
+        <v>7447</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>6445</v>
+        <v>7448</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>6446</v>
+        <v>7449</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>6447</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>6448</v>
+        <v>7451</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>6449</v>
+        <v>7452</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>6450</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>6451</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>6452</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>6453</v>
+        <v>7456</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>6454</v>
+        <v>7457</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>6455</v>
+        <v>7458</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>6456</v>
+        <v>7459</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>6457</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>6458</v>
+        <v>7461</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>6459</v>
+        <v>7462</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>6460</v>
+        <v>7463</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>6461</v>
+        <v>7464</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>6462</v>
+        <v>7465</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>6463</v>
+        <v>7466</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>6464</v>
+        <v>7467</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>6465</v>
+        <v>7468</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>6466</v>
+        <v>7469</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>6467</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>6468</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>6469</v>
+        <v>7472</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>6470</v>
+        <v>7473</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>6471</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>6472</v>
+        <v>7475</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>6473</v>
+        <v>7476</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>6474</v>
+        <v>7477</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>6475</v>
+        <v>7478</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>6476</v>
+        <v>7479</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>6477</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>6478</v>
+        <v>7481</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>6479</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>6480</v>
+        <v>7483</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>6481</v>
+        <v>7484</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>6482</v>
+        <v>7485</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>6483</v>
+        <v>7486</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>6484</v>
+        <v>7487</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>6485</v>
+        <v>7488</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>6486</v>
+        <v>7489</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>6487</v>
+        <v>7490</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>6488</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>6489</v>
+        <v>7492</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>6490</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>6491</v>
+        <v>7494</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>6492</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>6493</v>
+        <v>7496</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>6494</v>
+        <v>7497</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>6495</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>6496</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>6497</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>6498</v>
+        <v>7501</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>6499</v>
+        <v>7502</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>6500</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>6501</v>
+        <v>7504</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>6502</v>
+        <v>7505</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>6503</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>6504</v>
+        <v>7507</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>6505</v>
+        <v>7508</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>6506</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>6507</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>6508</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>6509</v>
+        <v>7512</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>6510</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>6511</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>6512</v>
+        <v>7515</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>6513</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>6514</v>
+        <v>7517</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>6515</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>6516</v>
+        <v>7519</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>6517</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>6518</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>6519</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>6520</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>6521</v>
+        <v>7524</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>6522</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>6523</v>
+        <v>7526</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>6524</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>6525</v>
+        <v>7528</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>6526</v>
+        <v>7529</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>6527</v>
+        <v>7530</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>6528</v>
+        <v>7531</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>6529</v>
+        <v>7532</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>6530</v>
+        <v>7533</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>6531</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>6532</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>6533</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>6534</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>6535</v>
+        <v>7538</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>6536</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>6537</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>6538</v>
+        <v>7541</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>6539</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>6540</v>
+        <v>7543</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>6541</v>
+        <v>7544</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>6542</v>
+        <v>7545</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>6543</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>6544</v>
+        <v>7547</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>6545</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>6546</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>6547</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>6548</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>6549</v>
+        <v>7552</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>6550</v>
+        <v>7553</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>6551</v>
+        <v>7554</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>6552</v>
+        <v>7555</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>6553</v>
+        <v>7556</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>6554</v>
+        <v>7557</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>6555</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>6556</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>6557</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>6558</v>
+        <v>7561</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>6559</v>
+        <v>7562</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>6560</v>
+        <v>7563</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>6561</v>
+        <v>7564</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>6562</v>
+        <v>7565</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>6563</v>
+        <v>7566</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>6564</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>6565</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>6566</v>
+        <v>7569</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>6567</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>6568</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>6569</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>6570</v>
+        <v>7573</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>6571</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>6572</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>6573</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>6574</v>
+        <v>7577</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>6575</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>6576</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>6577</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>6578</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>6579</v>
+        <v>7582</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>6580</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>6581</v>
+        <v>7584</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>6582</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>6583</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>6584</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>6585</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>6586</v>
+        <v>7589</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>6587</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>6588</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>6589</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>6590</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>6591</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>6592</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>6593</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>6594</v>
+        <v>7597</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>6595</v>
+        <v>7598</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>6596</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>6597</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>6598</v>
+        <v>7601</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>6599</v>
+        <v>7602</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>6600</v>
+        <v>7603</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>6601</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>6602</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>6603</v>
+        <v>7606</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>6604</v>
+        <v>7607</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>6605</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>6606</v>
+        <v>7609</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>6607</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>6608</v>
+        <v>7611</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>6609</v>
+        <v>7612</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>6610</v>
+        <v>7613</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>6611</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>6612</v>
+        <v>7615</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>6613</v>
+        <v>7616</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>6614</v>
+        <v>7617</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>6615</v>
+        <v>7618</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>6616</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>6617</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>6618</v>
+        <v>7621</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>6619</v>
+        <v>7622</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>6620</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>6621</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>6622</v>
+        <v>7625</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>6623</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>6624</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>6625</v>
+        <v>7628</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>6626</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>6627</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>6628</v>
+        <v>7631</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>6629</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>6630</v>
+        <v>7633</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>6631</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>6632</v>
+        <v>7635</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>6633</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>6634</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>6635</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>6636</v>
+        <v>7639</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>6637</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>6638</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>6639</v>
+        <v>7642</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>6640</v>
+        <v>7643</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>6641</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>6642</v>
+        <v>7645</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>6643</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>6644</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>6645</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>6646</v>
+        <v>7649</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>6647</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>6648</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>6649</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>6650</v>
+        <v>7653</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>6651</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>6652</v>
+        <v>7655</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>6653</v>
+        <v>7656</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>6654</v>
+        <v>7657</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>6655</v>
+        <v>7658</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>6656</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>6657</v>
+        <v>7660</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>6658</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>6659</v>
+        <v>7662</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>6660</v>
+        <v>7663</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>6661</v>
+        <v>7664</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>6662</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>6663</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>6664</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>6665</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>6666</v>
+        <v>7669</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>6667</v>
+        <v>7670</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>6668</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>6669</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>6670</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>6671</v>
+        <v>7674</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>6672</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>6673</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>6674</v>
+        <v>7677</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>6675</v>
+        <v>7678</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>6676</v>
+        <v>7679</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>6677</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>6678</v>
+        <v>7681</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>6679</v>
+        <v>7682</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>6680</v>
+        <v>7683</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>6681</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>6682</v>
+        <v>7685</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>6683</v>
+        <v>7686</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>6684</v>
+        <v>7687</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>6685</v>
+        <v>7688</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>6686</v>
+        <v>7689</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>6687</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>6688</v>
+        <v>7691</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>6689</v>
+        <v>7692</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>6690</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>6691</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>6692</v>
+        <v>7695</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>6693</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>6694</v>
+        <v>7697</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>6695</v>
+        <v>7698</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>6696</v>
+        <v>7699</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>6697</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>6698</v>
+        <v>7701</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>6699</v>
+        <v>7702</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>6700</v>
+        <v>7703</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>6701</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>6702</v>
+        <v>7705</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>6703</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>6704</v>
+        <v>7707</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>6705</v>
+        <v>7708</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>6706</v>
+        <v>7709</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>6707</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>6708</v>
+        <v>7711</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>6709</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>6710</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>6711</v>
+        <v>7714</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>6712</v>
+        <v>7715</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>6713</v>
+        <v>7716</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>6714</v>
+        <v>7717</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>6715</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>6716</v>
+        <v>7719</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>6717</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>6718</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>6719</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>6720</v>
+        <v>7723</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>6721</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>6722</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>6723</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>6724</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>6725</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>6726</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>6727</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>6728</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>6729</v>
+        <v>7732</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>6730</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>6731</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>6732</v>
+        <v>7735</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>6733</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>6734</v>
+        <v>7737</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>6735</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>6736</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>6737</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>6738</v>
+        <v>7741</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>6739</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>6740</v>
+        <v>7743</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>6741</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>6742</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>6743</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>6744</v>
+        <v>7747</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>6745</v>
+        <v>7748</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>6746</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>6747</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>6748</v>
+        <v>7751</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>6749</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>6750</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>6751</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>6752</v>
+        <v>7755</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>6753</v>
+        <v>7756</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>6754</v>
+        <v>7757</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>6755</v>
+        <v>7758</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>6756</v>
+        <v>7759</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>6757</v>
+        <v>7760</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>6758</v>
+        <v>7761</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>6759</v>
+        <v>7762</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>6760</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>6761</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>6762</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>6763</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>6764</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>6765</v>
+        <v>7768</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>6766</v>
+        <v>7769</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>6767</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>6768</v>
+        <v>7771</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>6769</v>
+        <v>7772</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>6770</v>
+        <v>7773</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>6771</v>
+        <v>7774</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>6772</v>
+        <v>7775</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>6773</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>6774</v>
+        <v>7777</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>6775</v>
+        <v>7778</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>6776</v>
+        <v>7779</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>6777</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>6778</v>
+        <v>7781</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>6779</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>6780</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>6781</v>
+        <v>7784</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>6782</v>
+        <v>7785</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>6783</v>
+        <v>7786</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>6784</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>6785</v>
+        <v>7788</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>6786</v>
+        <v>7789</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>6787</v>
+        <v>7790</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>6788</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>6789</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>6790</v>
+        <v>7793</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>6791</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>6792</v>
+        <v>7795</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>6793</v>
+        <v>7796</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>6794</v>
+        <v>7797</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>6795</v>
+        <v>7798</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>6796</v>
+        <v>7799</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>6797</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>6798</v>
+        <v>7801</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>6799</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>6800</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>6801</v>
+        <v>7804</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>6802</v>
+        <v>7805</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
-        <v>6803</v>
+        <v>7806</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>6804</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>6805</v>
+        <v>7808</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>6806</v>
+        <v>7809</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>6807</v>
+        <v>7810</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>6808</v>
+        <v>7811</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>6809</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>6810</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>6811</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>6812</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>6813</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>6814</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>6815</v>
+        <v>7818</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>6816</v>
+        <v>7819</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>6817</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>6818</v>
+        <v>7821</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>6819</v>
+        <v>7822</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>6820</v>
+        <v>7823</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>6821</v>
+        <v>7824</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>6822</v>
+        <v>7825</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>6823</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>6824</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>6825</v>
+        <v>7828</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>6826</v>
+        <v>7829</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>6827</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>6828</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>6829</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>6830</v>
+        <v>7833</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>6831</v>
+        <v>7834</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>6832</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>6833</v>
+        <v>7836</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>6834</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>6835</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>6836</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>6837</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>6838</v>
+        <v>7841</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
-        <v>6839</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>6840</v>
+        <v>7843</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>6841</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>6842</v>
+        <v>7845</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>6843</v>
+        <v>7846</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>6844</v>
+        <v>7847</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>6845</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>6846</v>
+        <v>7849</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>6847</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>6848</v>
+        <v>7851</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>6849</v>
+        <v>7852</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>6850</v>
+        <v>7853</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>6851</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>6852</v>
+        <v>7855</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="0" t="s">
-        <v>6853</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="0" t="s">
-        <v>6854</v>
+        <v>7857</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="0" t="s">
-        <v>6855</v>
+        <v>7858</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="0" t="s">
-        <v>6856</v>
+        <v>7859</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="0" t="s">
-        <v>6857</v>
+        <v>7860</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="0" t="s">
-        <v>6858</v>
+        <v>7861</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="0" t="s">
-        <v>6859</v>
+        <v>7862</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="0" t="s">
-        <v>6860</v>
+        <v>7863</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="0" t="s">
-        <v>6861</v>
+        <v>7864</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="0" t="s">
-        <v>6862</v>
+        <v>7865</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="0" t="s">
-        <v>6863</v>
+        <v>7866</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="0" t="s">
-        <v>6864</v>
+        <v>7867</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>6865</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>6866</v>
+        <v>7869</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>6867</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="0" t="s">
-        <v>6868</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0" t="s">
-        <v>6869</v>
+        <v>7872</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>6870</v>
+        <v>7873</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="0" t="s">
-        <v>6871</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="0" t="s">
-        <v>6872</v>
+        <v>7875</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>6873</v>
+        <v>7876</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="0" t="s">
-        <v>6874</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="0" t="s">
-        <v>6875</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>6876</v>
+        <v>7879</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>6877</v>
+        <v>7880</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>6878</v>
+        <v>7881</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>6879</v>
+        <v>7882</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>6880</v>
+        <v>7883</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>6881</v>
+        <v>7884</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>6882</v>
+        <v>7885</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>6883</v>
+        <v>7886</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="0" t="s">
-        <v>6884</v>
+        <v>7887</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="0" t="s">
-        <v>6885</v>
+        <v>7888</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>6886</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="0" t="s">
-        <v>6887</v>
+        <v>7890</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>6888</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="0" t="s">
-        <v>6889</v>
+        <v>7892</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>6890</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>6891</v>
+        <v>7894</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="0" t="s">
-        <v>6892</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="0" t="s">
-        <v>6893</v>
+        <v>7896</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>6894</v>
+        <v>7897</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="0" t="s">
-        <v>6895</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>6896</v>
+        <v>7899</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>6897</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="0" t="s">
-        <v>6898</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>6899</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="0" t="s">
-        <v>6900</v>
+        <v>7903</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>6901</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="0" t="s">
-        <v>6902</v>
+        <v>7905</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>6903</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="0" t="s">
-        <v>6904</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>6905</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="0" t="s">
-        <v>6906</v>
+        <v>7909</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="0" t="s">
-        <v>6907</v>
+        <v>7910</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="0" t="s">
-        <v>6908</v>
+        <v>7911</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="0" t="s">
-        <v>6909</v>
+        <v>7912</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="0" t="s">
-        <v>6910</v>
+        <v>7913</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="0" t="s">
-        <v>6911</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="0" t="s">
-        <v>6912</v>
+        <v>7915</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="0" t="s">
-        <v>6913</v>
+        <v>7916</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="0" t="s">
-        <v>6914</v>
+        <v>7917</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="0" t="s">
-        <v>6915</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="0" t="s">
-        <v>6916</v>
+        <v>7919</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="0" t="s">
-        <v>6917</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="0" t="s">
-        <v>6918</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="0" t="s">
-        <v>6919</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="0" t="s">
-        <v>6920</v>
+        <v>7923</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="0" t="s">
-        <v>6921</v>
+        <v>7924</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="0" t="s">
-        <v>6922</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="0" t="s">
-        <v>6923</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="0" t="s">
-        <v>6924</v>
+        <v>7927</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="0" t="s">
-        <v>6925</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="0" t="s">
-        <v>6926</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="0" t="s">
-        <v>6927</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="0" t="s">
-        <v>6928</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="0" t="s">
-        <v>6929</v>
+        <v>7932</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="0" t="s">
-        <v>6930</v>
+        <v>7933</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="0" t="s">
-        <v>6931</v>
+        <v>7934</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="0" t="s">
-        <v>6932</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="0" t="s">
-        <v>6933</v>
+        <v>7936</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="0" t="s">
-        <v>6934</v>
+        <v>7937</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="0" t="s">
-        <v>6935</v>
+        <v>7938</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="0" t="s">
-        <v>6936</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="0" t="s">
-        <v>6937</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="0" t="s">
-        <v>6938</v>
+        <v>7941</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="0" t="s">
-        <v>6939</v>
+        <v>7942</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="0" t="s">
-        <v>6940</v>
+        <v>7943</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="0" t="s">
-        <v>6941</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="0" t="s">
-        <v>6942</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0" t="s">
-        <v>6943</v>
+        <v>7946</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0" t="s">
-        <v>6944</v>
+        <v>7947</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0" t="s">
-        <v>6945</v>
+        <v>7948</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0" t="s">
-        <v>6946</v>
+        <v>7949</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="0" t="s">
-        <v>6947</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0" t="s">
-        <v>6948</v>
+        <v>7951</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="0" t="s">
-        <v>6949</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="0" t="s">
-        <v>6950</v>
+        <v>7953</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="0" t="s">
-        <v>6951</v>
+        <v>7954</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="0" t="s">
-        <v>6952</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="0" t="s">
-        <v>6953</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="0" t="s">
-        <v>6954</v>
+        <v>7957</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="0" t="s">
-        <v>6955</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="0" t="s">
-        <v>6956</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0" t="s">
-        <v>6957</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0" t="s">
-        <v>6958</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="0" t="s">
-        <v>6959</v>
+        <v>7962</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="0" t="s">
-        <v>6960</v>
+        <v>7963</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0" t="s">
-        <v>6961</v>
+        <v>7964</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="0" t="s">
-        <v>6962</v>
+        <v>7965</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="0" t="s">
-        <v>6963</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0" t="s">
-        <v>6964</v>
+        <v>7967</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0" t="s">
-        <v>6965</v>
+        <v>7968</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0" t="s">
-        <v>6966</v>
+        <v>7969</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="0" t="s">
-        <v>6967</v>
+        <v>7970</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="0" t="s">
-        <v>6968</v>
+        <v>7971</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="0" t="s">
-        <v>6969</v>
+        <v>7972</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0" t="s">
-        <v>6970</v>
+        <v>7973</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0" t="s">
-        <v>6971</v>
+        <v>7974</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0" t="s">
-        <v>6972</v>
+        <v>7975</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="0" t="s">
-        <v>6973</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="0" t="s">
-        <v>6974</v>
+        <v>7977</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="0" t="s">
-        <v>6975</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="0" t="s">
-        <v>6976</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="0" t="s">
-        <v>6977</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="0" t="s">
-        <v>6978</v>
+        <v>7981</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="0" t="s">
-        <v>6979</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="0" t="s">
-        <v>6980</v>
+        <v>7983</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0" t="s">
-        <v>6981</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="0" t="s">
-        <v>6982</v>
+        <v>7985</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="0" t="s">
-        <v>6983</v>
+        <v>7986</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="0" t="s">
-        <v>6984</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="0" t="s">
-        <v>6985</v>
+        <v>7988</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="s">
-        <v>6986</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="s">
-        <v>6987</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="s">
-        <v>6988</v>
+        <v>7991</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="s">
-        <v>6989</v>
+        <v>7992</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="0" t="s">
-        <v>6990</v>
+        <v>7993</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="0" t="s">
-        <v>6991</v>
+        <v>7994</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="0" t="s">
-        <v>6992</v>
+        <v>7995</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="0" t="s">
-        <v>6993</v>
+        <v>7996</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="0" t="s">
-        <v>6994</v>
+        <v>7997</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="0" t="s">
-        <v>6995</v>
+        <v>7998</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="0" t="s">
-        <v>6996</v>
+        <v>7999</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="0" t="s">
-        <v>6997</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="0" t="s">
-        <v>6998</v>
+        <v>8001</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="0" t="s">
-        <v>6999</v>
+        <v>8002</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="0" t="s">
-        <v>7000</v>
+        <v>8003</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="0" t="s">
-        <v>7001</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="s">
-        <v>7002</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="s">
-        <v>7003</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="s">
-        <v>7004</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="s">
-        <v>7005</v>
+        <v>8008</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="s">
-        <v>7006</v>
+        <v>8009</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="s">
-        <v>7007</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="s">
-        <v>7008</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="s">
-        <v>7009</v>
+        <v>8012</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="s">
-        <v>7010</v>
+        <v>8013</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="0" t="s">
-        <v>7011</v>
+        <v>8014</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="s">
-        <v>7012</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="s">
-        <v>7013</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="s">
-        <v>7014</v>
+        <v>8017</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="s">
-        <v>7015</v>
+        <v>8018</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="0" t="s">
-        <v>7016</v>
+        <v>8019</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="0" t="s">
-        <v>7017</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="0" t="s">
-        <v>7018</v>
+        <v>8021</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="0" t="s">
-        <v>7019</v>
+        <v>8022</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="0" t="s">
-        <v>7020</v>
+        <v>8023</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10030" uniqueCount="10030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11033" uniqueCount="11033">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -30110,6 +30110,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104052.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104051.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104046.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104040.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104037.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104032.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104027.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104026.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104024.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104018.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104015.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104014.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104013.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104012.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104009.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103990.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103977.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103960.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103955.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103953.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103951.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103948.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103937.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103935.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103933.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103932.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103931.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103917.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103913.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103910.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103901.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103900.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103892.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103890.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103889.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103888.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103887.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103884.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103882.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103881.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103880.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103879.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103878.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103877.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103876.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103875.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103874.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103873.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103871.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103870.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103869.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103868.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103867.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103866.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103865.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103863.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103862.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103859.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103855.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103851.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103846.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103845.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103844.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103843.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103839.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103838.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103837.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103836.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103835.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103833.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103826.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103825.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103818.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103814.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103813.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103812.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103811.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103810.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102834.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102828.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102793.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102778.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102770.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102765.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102759.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102757.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102752.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102732.html</t>
   </si>
 </sst>
 </file>
@@ -30130,7 +33139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -30147,11 +33156,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -30162,6 +33172,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -30487,5017 +33498,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9027</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>9028</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>9029</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9030</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>9031</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>9032</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>9033</v>
+        <v>10036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>9034</v>
+        <v>10037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>9035</v>
+        <v>10038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9036</v>
+        <v>10039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>9037</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>9038</v>
+        <v>10041</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>9039</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>9040</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>9041</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>9042</v>
+        <v>10045</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>9043</v>
+        <v>10046</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>9044</v>
+        <v>10047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>9045</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>9046</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>9047</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>9048</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>9049</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>9050</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>9051</v>
+        <v>10054</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>9052</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>9053</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>9054</v>
+        <v>10057</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>9055</v>
+        <v>10058</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>9056</v>
+        <v>10059</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>9057</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>9058</v>
+        <v>10061</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>9059</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>9060</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>9061</v>
+        <v>10064</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>9062</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>9063</v>
+        <v>10066</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>9064</v>
+        <v>10067</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>9065</v>
+        <v>10068</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>9066</v>
+        <v>10069</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>9067</v>
+        <v>10070</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>9068</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>9069</v>
+        <v>10072</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>9070</v>
+        <v>10073</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>9071</v>
+        <v>10074</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>9072</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>9073</v>
+        <v>10076</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>9074</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>9075</v>
+        <v>10078</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>9076</v>
+        <v>10079</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>9077</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>9078</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>9079</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>9080</v>
+        <v>10083</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>9081</v>
+        <v>10084</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>9082</v>
+        <v>10085</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>9083</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>9084</v>
+        <v>10087</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>9085</v>
+        <v>10088</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>9086</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>9087</v>
+        <v>10090</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>9088</v>
+        <v>10091</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>9089</v>
+        <v>10092</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>9090</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>9091</v>
+        <v>10094</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>9092</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>9093</v>
+        <v>10096</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>9094</v>
+        <v>10097</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>9095</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>9096</v>
+        <v>10099</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>9097</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>9098</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>9099</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>9100</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>9101</v>
+        <v>10104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>9102</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>9103</v>
+        <v>10106</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>9104</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>9105</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>9106</v>
+        <v>10109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>9107</v>
+        <v>10110</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>9108</v>
+        <v>10111</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>9109</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>9110</v>
+        <v>10113</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>9111</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>9112</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>9113</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>9114</v>
+        <v>10117</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>9115</v>
+        <v>10118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>9116</v>
+        <v>10119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>9117</v>
+        <v>10120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>9118</v>
+        <v>10121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>9119</v>
+        <v>10122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>9120</v>
+        <v>10123</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>9121</v>
+        <v>10124</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>9122</v>
+        <v>10125</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>9123</v>
+        <v>10126</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>9124</v>
+        <v>10127</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>9125</v>
+        <v>10128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>9126</v>
+        <v>10129</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>9127</v>
+        <v>10130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>9128</v>
+        <v>10131</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>9129</v>
+        <v>10132</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>9130</v>
+        <v>10133</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>9131</v>
+        <v>10134</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>9132</v>
+        <v>10135</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>9133</v>
+        <v>10136</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>9134</v>
+        <v>10137</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>9135</v>
+        <v>10138</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>9136</v>
+        <v>10139</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>9137</v>
+        <v>10140</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>9138</v>
+        <v>10141</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>9139</v>
+        <v>10142</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>9140</v>
+        <v>10143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>9141</v>
+        <v>10144</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>9142</v>
+        <v>10145</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>9143</v>
+        <v>10146</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>9144</v>
+        <v>10147</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>9145</v>
+        <v>10148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>9146</v>
+        <v>10149</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>9147</v>
+        <v>10150</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>9148</v>
+        <v>10151</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>9149</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>9150</v>
+        <v>10153</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>9151</v>
+        <v>10154</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>9152</v>
+        <v>10155</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>9153</v>
+        <v>10156</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>9154</v>
+        <v>10157</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>9155</v>
+        <v>10158</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>9156</v>
+        <v>10159</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>9157</v>
+        <v>10160</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>9158</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>9159</v>
+        <v>10162</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>9160</v>
+        <v>10163</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>9161</v>
+        <v>10164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>9162</v>
+        <v>10165</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>9163</v>
+        <v>10166</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>9164</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>9165</v>
+        <v>10168</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>9166</v>
+        <v>10169</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>9167</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>9168</v>
+        <v>10171</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>9169</v>
+        <v>10172</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>9170</v>
+        <v>10173</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>9171</v>
+        <v>10174</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>9172</v>
+        <v>10175</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>9173</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>9174</v>
+        <v>10177</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>9175</v>
+        <v>10178</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>9176</v>
+        <v>10179</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>9177</v>
+        <v>10180</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>9178</v>
+        <v>10181</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>9179</v>
+        <v>10182</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>9180</v>
+        <v>10183</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>9181</v>
+        <v>10184</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>9182</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>9183</v>
+        <v>10186</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>9184</v>
+        <v>10187</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>9185</v>
+        <v>10188</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>9186</v>
+        <v>10189</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>9187</v>
+        <v>10190</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>9188</v>
+        <v>10191</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>9189</v>
+        <v>10192</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>9190</v>
+        <v>10193</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>9191</v>
+        <v>10194</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>9192</v>
+        <v>10195</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>9193</v>
+        <v>10196</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>9194</v>
+        <v>10197</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>9195</v>
+        <v>10198</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>9196</v>
+        <v>10199</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>9197</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>9198</v>
+        <v>10201</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>9199</v>
+        <v>10202</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>9200</v>
+        <v>10203</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>9201</v>
+        <v>10204</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>9202</v>
+        <v>10205</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>9203</v>
+        <v>10206</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>9204</v>
+        <v>10207</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>9205</v>
+        <v>10208</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>9206</v>
+        <v>10209</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>9207</v>
+        <v>10210</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>9208</v>
+        <v>10211</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>9209</v>
+        <v>10212</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>9210</v>
+        <v>10213</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>9211</v>
+        <v>10214</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>9212</v>
+        <v>10215</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>9213</v>
+        <v>10216</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>9214</v>
+        <v>10217</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>9215</v>
+        <v>10218</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>9216</v>
+        <v>10219</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>9217</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>9218</v>
+        <v>10221</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>9219</v>
+        <v>10222</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>9220</v>
+        <v>10223</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>9221</v>
+        <v>10224</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>9222</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>9223</v>
+        <v>10226</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>9224</v>
+        <v>10227</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>9225</v>
+        <v>10228</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>9226</v>
+        <v>10229</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>9227</v>
+        <v>10230</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>9228</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>9229</v>
+        <v>10232</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>9230</v>
+        <v>10233</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>9231</v>
+        <v>10234</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>9232</v>
+        <v>10235</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>9233</v>
+        <v>10236</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>9234</v>
+        <v>10237</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>9235</v>
+        <v>10238</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>9236</v>
+        <v>10239</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>9237</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>9238</v>
+        <v>10241</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>9239</v>
+        <v>10242</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>9240</v>
+        <v>10243</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>9241</v>
+        <v>10244</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>9242</v>
+        <v>10245</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>9243</v>
+        <v>10246</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>9244</v>
+        <v>10247</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>9245</v>
+        <v>10248</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>9246</v>
+        <v>10249</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>9247</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>9248</v>
+        <v>10251</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>9249</v>
+        <v>10252</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>9250</v>
+        <v>10253</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>9251</v>
+        <v>10254</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>9252</v>
+        <v>10255</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>9253</v>
+        <v>10256</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>9254</v>
+        <v>10257</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>9255</v>
+        <v>10258</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>9256</v>
+        <v>10259</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>9257</v>
+        <v>10260</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>9258</v>
+        <v>10261</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>9259</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>9260</v>
+        <v>10263</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>9261</v>
+        <v>10264</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>9262</v>
+        <v>10265</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>9263</v>
+        <v>10266</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>9264</v>
+        <v>10267</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>9265</v>
+        <v>10268</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>9266</v>
+        <v>10269</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>9267</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>9268</v>
+        <v>10271</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>9269</v>
+        <v>10272</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>9270</v>
+        <v>10273</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>9271</v>
+        <v>10274</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>9272</v>
+        <v>10275</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>9273</v>
+        <v>10276</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>9274</v>
+        <v>10277</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>9275</v>
+        <v>10278</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>9276</v>
+        <v>10279</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>9277</v>
+        <v>10280</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>9278</v>
+        <v>10281</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>9279</v>
+        <v>10282</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>9280</v>
+        <v>10283</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>9281</v>
+        <v>10284</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>9282</v>
+        <v>10285</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>9283</v>
+        <v>10286</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>9284</v>
+        <v>10287</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>9285</v>
+        <v>10288</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>9286</v>
+        <v>10289</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>9287</v>
+        <v>10290</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>9288</v>
+        <v>10291</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>9289</v>
+        <v>10292</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>9290</v>
+        <v>10293</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>9291</v>
+        <v>10294</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>9292</v>
+        <v>10295</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>9293</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>9294</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>9295</v>
+        <v>10298</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>9296</v>
+        <v>10299</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>9297</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>9298</v>
+        <v>10301</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>9299</v>
+        <v>10302</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>9300</v>
+        <v>10303</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>9301</v>
+        <v>10304</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>9302</v>
+        <v>10305</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>9303</v>
+        <v>10306</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>9304</v>
+        <v>10307</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>9305</v>
+        <v>10308</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>9306</v>
+        <v>10309</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>9307</v>
+        <v>10310</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>9308</v>
+        <v>10311</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>9309</v>
+        <v>10312</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>9310</v>
+        <v>10313</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>9311</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>9312</v>
+        <v>10315</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>9313</v>
+        <v>10316</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>9314</v>
+        <v>10317</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>9315</v>
+        <v>10318</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>9316</v>
+        <v>10319</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>9317</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>9318</v>
+        <v>10321</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>9319</v>
+        <v>10322</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>9320</v>
+        <v>10323</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>9321</v>
+        <v>10324</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>9322</v>
+        <v>10325</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>9323</v>
+        <v>10326</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>9324</v>
+        <v>10327</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>9325</v>
+        <v>10328</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>9326</v>
+        <v>10329</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>9327</v>
+        <v>10330</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>9328</v>
+        <v>10331</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>9329</v>
+        <v>10332</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>9330</v>
+        <v>10333</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>9331</v>
+        <v>10334</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>9332</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>9333</v>
+        <v>10336</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>9334</v>
+        <v>10337</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>9335</v>
+        <v>10338</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>9336</v>
+        <v>10339</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>9337</v>
+        <v>10340</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>9338</v>
+        <v>10341</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>9339</v>
+        <v>10342</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>9340</v>
+        <v>10343</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>9341</v>
+        <v>10344</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>9342</v>
+        <v>10345</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>9343</v>
+        <v>10346</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>9344</v>
+        <v>10347</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>9345</v>
+        <v>10348</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>9346</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>9347</v>
+        <v>10350</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>9348</v>
+        <v>10351</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>9349</v>
+        <v>10352</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>9350</v>
+        <v>10353</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>9351</v>
+        <v>10354</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>9352</v>
+        <v>10355</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>9353</v>
+        <v>10356</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>9354</v>
+        <v>10357</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>9355</v>
+        <v>10358</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>9356</v>
+        <v>10359</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>9357</v>
+        <v>10360</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>9358</v>
+        <v>10361</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>9359</v>
+        <v>10362</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>9360</v>
+        <v>10363</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>9361</v>
+        <v>10364</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>9362</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>9363</v>
+        <v>10366</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>9364</v>
+        <v>10367</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>9365</v>
+        <v>10368</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>9366</v>
+        <v>10369</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>9367</v>
+        <v>10370</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>9368</v>
+        <v>10371</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>9369</v>
+        <v>10372</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>9370</v>
+        <v>10373</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>9371</v>
+        <v>10374</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>9372</v>
+        <v>10375</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>9373</v>
+        <v>10376</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>9374</v>
+        <v>10377</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>9375</v>
+        <v>10378</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>9376</v>
+        <v>10379</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>9377</v>
+        <v>10380</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>9378</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>9379</v>
+        <v>10382</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>9380</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>9381</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>9382</v>
+        <v>10385</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>9383</v>
+        <v>10386</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>9384</v>
+        <v>10387</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>9385</v>
+        <v>10388</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>9386</v>
+        <v>10389</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>9387</v>
+        <v>10390</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>9388</v>
+        <v>10391</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>9389</v>
+        <v>10392</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>9390</v>
+        <v>10393</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>9391</v>
+        <v>10394</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>9392</v>
+        <v>10395</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>9393</v>
+        <v>10396</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>9394</v>
+        <v>10397</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>9395</v>
+        <v>10398</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>9396</v>
+        <v>10399</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>9397</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>9398</v>
+        <v>10401</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>9399</v>
+        <v>10402</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>9400</v>
+        <v>10403</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>9401</v>
+        <v>10404</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>9402</v>
+        <v>10405</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>9403</v>
+        <v>10406</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>9404</v>
+        <v>10407</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>9405</v>
+        <v>10408</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>9406</v>
+        <v>10409</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>9407</v>
+        <v>10410</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>9408</v>
+        <v>10411</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>9409</v>
+        <v>10412</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>9410</v>
+        <v>10413</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>9411</v>
+        <v>10414</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>9412</v>
+        <v>10415</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>9413</v>
+        <v>10416</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>9414</v>
+        <v>10417</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>9415</v>
+        <v>10418</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>9416</v>
+        <v>10419</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>9417</v>
+        <v>10420</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>9418</v>
+        <v>10421</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>9419</v>
+        <v>10422</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>9420</v>
+        <v>10423</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>9421</v>
+        <v>10424</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>9422</v>
+        <v>10425</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>9423</v>
+        <v>10426</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>9424</v>
+        <v>10427</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>9425</v>
+        <v>10428</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>9426</v>
+        <v>10429</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>9427</v>
+        <v>10430</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>9428</v>
+        <v>10431</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>9429</v>
+        <v>10432</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>9430</v>
+        <v>10433</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>9431</v>
+        <v>10434</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>9432</v>
+        <v>10435</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>9433</v>
+        <v>10436</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>9434</v>
+        <v>10437</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>9435</v>
+        <v>10438</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>9436</v>
+        <v>10439</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>9437</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>9438</v>
+        <v>10441</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>9439</v>
+        <v>10442</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>9440</v>
+        <v>10443</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>9441</v>
+        <v>10444</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>9442</v>
+        <v>10445</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>9443</v>
+        <v>10446</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>9444</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>9445</v>
+        <v>10448</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>9446</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>9447</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>9448</v>
+        <v>10451</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>9449</v>
+        <v>10452</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>9450</v>
+        <v>10453</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>9451</v>
+        <v>10454</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>9452</v>
+        <v>10455</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>9453</v>
+        <v>10456</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>9454</v>
+        <v>10457</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>9455</v>
+        <v>10458</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>9456</v>
+        <v>10459</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>9457</v>
+        <v>10460</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>9458</v>
+        <v>10461</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>9459</v>
+        <v>10462</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>9460</v>
+        <v>10463</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>9461</v>
+        <v>10464</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>9462</v>
+        <v>10465</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>9463</v>
+        <v>10466</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>9464</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>9465</v>
+        <v>10468</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>9466</v>
+        <v>10469</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>9467</v>
+        <v>10470</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>9468</v>
+        <v>10471</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>9469</v>
+        <v>10472</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>9470</v>
+        <v>10473</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>9471</v>
+        <v>10474</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>9472</v>
+        <v>10475</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>9473</v>
+        <v>10476</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>9474</v>
+        <v>10477</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>9475</v>
+        <v>10478</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>9476</v>
+        <v>10479</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>9477</v>
+        <v>10480</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>9478</v>
+        <v>10481</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>9479</v>
+        <v>10482</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>9480</v>
+        <v>10483</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>9481</v>
+        <v>10484</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>9482</v>
+        <v>10485</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>9483</v>
+        <v>10486</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>9484</v>
+        <v>10487</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>9485</v>
+        <v>10488</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>9486</v>
+        <v>10489</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>9487</v>
+        <v>10490</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>9488</v>
+        <v>10491</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>9489</v>
+        <v>10492</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>9490</v>
+        <v>10493</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>9491</v>
+        <v>10494</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>9492</v>
+        <v>10495</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>9493</v>
+        <v>10496</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>9494</v>
+        <v>10497</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>9495</v>
+        <v>10498</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>9496</v>
+        <v>10499</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>9497</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>9498</v>
+        <v>10501</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>9499</v>
+        <v>10502</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>9500</v>
+        <v>10503</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>9501</v>
+        <v>10504</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>9502</v>
+        <v>10505</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>9503</v>
+        <v>10506</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>9504</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>9505</v>
+        <v>10508</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>9506</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>9507</v>
+        <v>10510</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>9508</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>9509</v>
+        <v>10512</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>9510</v>
+        <v>10513</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>9511</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>9512</v>
+        <v>10515</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>9513</v>
+        <v>10516</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>9514</v>
+        <v>10517</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>9515</v>
+        <v>10518</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>9516</v>
+        <v>10519</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>9517</v>
+        <v>10520</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>9518</v>
+        <v>10521</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>9519</v>
+        <v>10522</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>9520</v>
+        <v>10523</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>9521</v>
+        <v>10524</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>9522</v>
+        <v>10525</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>9523</v>
+        <v>10526</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>9524</v>
+        <v>10527</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>9525</v>
+        <v>10528</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>9526</v>
+        <v>10529</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>9527</v>
+        <v>10530</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>9528</v>
+        <v>10531</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>9529</v>
+        <v>10532</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>9530</v>
+        <v>10533</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>9531</v>
+        <v>10534</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>9532</v>
+        <v>10535</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>9533</v>
+        <v>10536</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>9534</v>
+        <v>10537</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>9535</v>
+        <v>10538</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>9536</v>
+        <v>10539</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>9537</v>
+        <v>10540</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>9538</v>
+        <v>10541</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>9539</v>
+        <v>10542</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>9540</v>
+        <v>10543</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>9541</v>
+        <v>10544</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>9542</v>
+        <v>10545</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>9543</v>
+        <v>10546</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>9544</v>
+        <v>10547</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>9545</v>
+        <v>10548</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>9546</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>9547</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>9548</v>
+        <v>10551</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>9549</v>
+        <v>10552</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>9550</v>
+        <v>10553</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>9551</v>
+        <v>10554</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>9552</v>
+        <v>10555</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>9553</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>9554</v>
+        <v>10557</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>9555</v>
+        <v>10558</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>9556</v>
+        <v>10559</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>9557</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>9558</v>
+        <v>10561</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>9559</v>
+        <v>10562</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>9560</v>
+        <v>10563</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>9561</v>
+        <v>10564</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>9562</v>
+        <v>10565</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>9563</v>
+        <v>10566</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>9564</v>
+        <v>10567</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>9565</v>
+        <v>10568</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>9566</v>
+        <v>10569</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>9567</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>9568</v>
+        <v>10571</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>9569</v>
+        <v>10572</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>9570</v>
+        <v>10573</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>9571</v>
+        <v>10574</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>9572</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>9573</v>
+        <v>10576</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>9574</v>
+        <v>10577</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>9575</v>
+        <v>10578</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>9576</v>
+        <v>10579</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>9577</v>
+        <v>10580</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>9578</v>
+        <v>10581</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>9579</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>9580</v>
+        <v>10583</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>9581</v>
+        <v>10584</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>9582</v>
+        <v>10585</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>9583</v>
+        <v>10586</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>9584</v>
+        <v>10587</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>9585</v>
+        <v>10588</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>9586</v>
+        <v>10589</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>9587</v>
+        <v>10590</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>9588</v>
+        <v>10591</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>9589</v>
+        <v>10592</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>9590</v>
+        <v>10593</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>9591</v>
+        <v>10594</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>9592</v>
+        <v>10595</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>9593</v>
+        <v>10596</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>9594</v>
+        <v>10597</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>9595</v>
+        <v>10598</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>9596</v>
+        <v>10599</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>9597</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>9598</v>
+        <v>10601</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>9599</v>
+        <v>10602</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>9600</v>
+        <v>10603</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>9601</v>
+        <v>10604</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>9602</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>9603</v>
+        <v>10606</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>9604</v>
+        <v>10607</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>9605</v>
+        <v>10608</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>9606</v>
+        <v>10609</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>9607</v>
+        <v>10610</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>9608</v>
+        <v>10611</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>9609</v>
+        <v>10612</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>9610</v>
+        <v>10613</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>9611</v>
+        <v>10614</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>9612</v>
+        <v>10615</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>9613</v>
+        <v>10616</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>9614</v>
+        <v>10617</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>9615</v>
+        <v>10618</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>9616</v>
+        <v>10619</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>9617</v>
+        <v>10620</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>9618</v>
+        <v>10621</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>9619</v>
+        <v>10622</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>9620</v>
+        <v>10623</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>9621</v>
+        <v>10624</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>9622</v>
+        <v>10625</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>9623</v>
+        <v>10626</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>9624</v>
+        <v>10627</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>9625</v>
+        <v>10628</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>9626</v>
+        <v>10629</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>9627</v>
+        <v>10630</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>9628</v>
+        <v>10631</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>9629</v>
+        <v>10632</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>9630</v>
+        <v>10633</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>9631</v>
+        <v>10634</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>9632</v>
+        <v>10635</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>9633</v>
+        <v>10636</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>9634</v>
+        <v>10637</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>9635</v>
+        <v>10638</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>9636</v>
+        <v>10639</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>9637</v>
+        <v>10640</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>9638</v>
+        <v>10641</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>9639</v>
+        <v>10642</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>9640</v>
+        <v>10643</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>9641</v>
+        <v>10644</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>9642</v>
+        <v>10645</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>9643</v>
+        <v>10646</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>9644</v>
+        <v>10647</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>9645</v>
+        <v>10648</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>9646</v>
+        <v>10649</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>9647</v>
+        <v>10650</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>9648</v>
+        <v>10651</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>9649</v>
+        <v>10652</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>9650</v>
+        <v>10653</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>9651</v>
+        <v>10654</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>9652</v>
+        <v>10655</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>9653</v>
+        <v>10656</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>9654</v>
+        <v>10657</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>9655</v>
+        <v>10658</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>9656</v>
+        <v>10659</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>9657</v>
+        <v>10660</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>9658</v>
+        <v>10661</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>9659</v>
+        <v>10662</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>9660</v>
+        <v>10663</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>9661</v>
+        <v>10664</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>9662</v>
+        <v>10665</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>9663</v>
+        <v>10666</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>9664</v>
+        <v>10667</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>9665</v>
+        <v>10668</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>9666</v>
+        <v>10669</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>9667</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>9668</v>
+        <v>10671</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>9669</v>
+        <v>10672</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>9670</v>
+        <v>10673</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>9671</v>
+        <v>10674</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>9672</v>
+        <v>10675</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>9673</v>
+        <v>10676</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>9674</v>
+        <v>10677</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>9675</v>
+        <v>10678</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>9676</v>
+        <v>10679</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>9677</v>
+        <v>10680</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>9678</v>
+        <v>10681</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>9679</v>
+        <v>10682</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>9680</v>
+        <v>10683</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>9681</v>
+        <v>10684</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>9682</v>
+        <v>10685</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>9683</v>
+        <v>10686</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>9684</v>
+        <v>10687</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>9685</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>9686</v>
+        <v>10689</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>9687</v>
+        <v>10690</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>9688</v>
+        <v>10691</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>9689</v>
+        <v>10692</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>9690</v>
+        <v>10693</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>9691</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>9692</v>
+        <v>10695</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>9693</v>
+        <v>10696</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>9694</v>
+        <v>10697</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>9695</v>
+        <v>10698</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>9696</v>
+        <v>10699</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>9697</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>9698</v>
+        <v>10701</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>9699</v>
+        <v>10702</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>9700</v>
+        <v>10703</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>9701</v>
+        <v>10704</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>9702</v>
+        <v>10705</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>9703</v>
+        <v>10706</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>9704</v>
+        <v>10707</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>9705</v>
+        <v>10708</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>9706</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>9707</v>
+        <v>10710</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>9708</v>
+        <v>10711</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>9709</v>
+        <v>10712</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>9710</v>
+        <v>10713</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>9711</v>
+        <v>10714</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>9712</v>
+        <v>10715</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>9713</v>
+        <v>10716</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>9714</v>
+        <v>10717</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>9715</v>
+        <v>10718</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>9716</v>
+        <v>10719</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>9717</v>
+        <v>10720</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>9718</v>
+        <v>10721</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>9719</v>
+        <v>10722</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>9720</v>
+        <v>10723</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>9721</v>
+        <v>10724</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>9722</v>
+        <v>10725</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>9723</v>
+        <v>10726</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>9724</v>
+        <v>10727</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>9725</v>
+        <v>10728</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>9726</v>
+        <v>10729</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>9727</v>
+        <v>10730</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>9728</v>
+        <v>10731</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>9729</v>
+        <v>10732</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>9730</v>
+        <v>10733</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>9731</v>
+        <v>10734</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>9732</v>
+        <v>10735</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>9733</v>
+        <v>10736</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>9734</v>
+        <v>10737</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>9735</v>
+        <v>10738</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>9736</v>
+        <v>10739</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>9737</v>
+        <v>10740</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>9738</v>
+        <v>10741</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>9739</v>
+        <v>10742</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>9740</v>
+        <v>10743</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>9741</v>
+        <v>10744</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>9742</v>
+        <v>10745</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>9743</v>
+        <v>10746</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>9744</v>
+        <v>10747</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>9745</v>
+        <v>10748</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>9746</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>9747</v>
+        <v>10750</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>9748</v>
+        <v>10751</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>9749</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>9750</v>
+        <v>10753</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>9751</v>
+        <v>10754</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>9752</v>
+        <v>10755</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>9753</v>
+        <v>10756</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>9754</v>
+        <v>10757</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>9755</v>
+        <v>10758</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>9756</v>
+        <v>10759</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>9757</v>
+        <v>10760</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>9758</v>
+        <v>10761</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>9759</v>
+        <v>10762</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>9760</v>
+        <v>10763</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>9761</v>
+        <v>10764</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>9762</v>
+        <v>10765</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>9763</v>
+        <v>10766</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>9764</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>9765</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>9766</v>
+        <v>10769</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>9767</v>
+        <v>10770</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>9768</v>
+        <v>10771</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>9769</v>
+        <v>10772</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>9770</v>
+        <v>10773</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>9771</v>
+        <v>10774</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>9772</v>
+        <v>10775</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>9773</v>
+        <v>10776</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>9774</v>
+        <v>10777</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>9775</v>
+        <v>10778</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>9776</v>
+        <v>10779</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>9777</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>9778</v>
+        <v>10781</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>9779</v>
+        <v>10782</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>9780</v>
+        <v>10783</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>9781</v>
+        <v>10784</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>9782</v>
+        <v>10785</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>9783</v>
+        <v>10786</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>9784</v>
+        <v>10787</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>9785</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>9786</v>
+        <v>10789</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>9787</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>9788</v>
+        <v>10791</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>9789</v>
+        <v>10792</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>9790</v>
+        <v>10793</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>9791</v>
+        <v>10794</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>9792</v>
+        <v>10795</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>9793</v>
+        <v>10796</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>9794</v>
+        <v>10797</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>9795</v>
+        <v>10798</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>9796</v>
+        <v>10799</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>9797</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>9798</v>
+        <v>10801</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>9799</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>9800</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>9801</v>
+        <v>10804</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>9802</v>
+        <v>10805</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>9803</v>
+        <v>10806</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>9804</v>
+        <v>10807</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>9805</v>
+        <v>10808</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>9806</v>
+        <v>10809</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>9807</v>
+        <v>10810</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>9808</v>
+        <v>10811</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>9809</v>
+        <v>10812</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>9810</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>9811</v>
+        <v>10814</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
-        <v>9812</v>
+        <v>10815</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>9813</v>
+        <v>10816</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>9814</v>
+        <v>10817</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>9815</v>
+        <v>10818</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>9816</v>
+        <v>10819</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>9817</v>
+        <v>10820</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>9818</v>
+        <v>10821</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>9819</v>
+        <v>10822</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>9820</v>
+        <v>10823</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>9821</v>
+        <v>10824</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>9822</v>
+        <v>10825</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>9823</v>
+        <v>10826</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>9824</v>
+        <v>10827</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>9825</v>
+        <v>10828</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>9826</v>
+        <v>10829</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>9827</v>
+        <v>10830</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>9828</v>
+        <v>10831</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>9829</v>
+        <v>10832</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>9830</v>
+        <v>10833</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>9831</v>
+        <v>10834</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>9832</v>
+        <v>10835</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>9833</v>
+        <v>10836</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>9834</v>
+        <v>10837</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>9835</v>
+        <v>10838</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>9836</v>
+        <v>10839</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>9837</v>
+        <v>10840</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>9838</v>
+        <v>10841</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>9839</v>
+        <v>10842</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>9840</v>
+        <v>10843</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>9841</v>
+        <v>10844</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>9842</v>
+        <v>10845</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>9843</v>
+        <v>10846</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>9844</v>
+        <v>10847</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>9845</v>
+        <v>10848</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>9846</v>
+        <v>10849</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>9847</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
-        <v>9848</v>
+        <v>10851</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>9849</v>
+        <v>10852</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>9850</v>
+        <v>10853</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>9851</v>
+        <v>10854</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>9852</v>
+        <v>10855</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>9853</v>
+        <v>10856</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>9854</v>
+        <v>10857</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>9855</v>
+        <v>10858</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>9856</v>
+        <v>10859</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>9857</v>
+        <v>10860</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>9858</v>
+        <v>10861</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>9859</v>
+        <v>10862</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>9860</v>
+        <v>10863</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>9861</v>
+        <v>10864</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="0" t="s">
-        <v>9862</v>
+        <v>10865</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="0" t="s">
-        <v>9863</v>
+        <v>10866</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="0" t="s">
-        <v>9864</v>
+        <v>10867</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="0" t="s">
-        <v>9865</v>
+        <v>10868</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="0" t="s">
-        <v>9866</v>
+        <v>10869</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="0" t="s">
-        <v>9867</v>
+        <v>10870</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="0" t="s">
-        <v>9868</v>
+        <v>10871</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="0" t="s">
-        <v>9869</v>
+        <v>10872</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="0" t="s">
-        <v>9870</v>
+        <v>10873</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="0" t="s">
-        <v>9871</v>
+        <v>10874</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="0" t="s">
-        <v>9872</v>
+        <v>10875</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="0" t="s">
-        <v>9873</v>
+        <v>10876</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>9874</v>
+        <v>10877</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>9875</v>
+        <v>10878</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>9876</v>
+        <v>10879</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="0" t="s">
-        <v>9877</v>
+        <v>10880</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0" t="s">
-        <v>9878</v>
+        <v>10881</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>9879</v>
+        <v>10882</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="0" t="s">
-        <v>9880</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="0" t="s">
-        <v>9881</v>
+        <v>10884</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>9882</v>
+        <v>10885</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="0" t="s">
-        <v>9883</v>
+        <v>10886</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="0" t="s">
-        <v>9884</v>
+        <v>10887</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>9885</v>
+        <v>10888</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>9886</v>
+        <v>10889</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>9887</v>
+        <v>10890</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>9888</v>
+        <v>10891</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>9889</v>
+        <v>10892</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>9890</v>
+        <v>10893</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>9891</v>
+        <v>10894</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>9892</v>
+        <v>10895</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="0" t="s">
-        <v>9893</v>
+        <v>10896</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="0" t="s">
-        <v>9894</v>
+        <v>10897</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>9895</v>
+        <v>10898</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="0" t="s">
-        <v>9896</v>
+        <v>10899</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>9897</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="0" t="s">
-        <v>9898</v>
+        <v>10901</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>9899</v>
+        <v>10902</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>9900</v>
+        <v>10903</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="0" t="s">
-        <v>9901</v>
+        <v>10904</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="0" t="s">
-        <v>9902</v>
+        <v>10905</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>9903</v>
+        <v>10906</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="0" t="s">
-        <v>9904</v>
+        <v>10907</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>9905</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>9906</v>
+        <v>10909</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="0" t="s">
-        <v>9907</v>
+        <v>10910</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>9908</v>
+        <v>10911</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="0" t="s">
-        <v>9909</v>
+        <v>10912</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>9910</v>
+        <v>10913</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="0" t="s">
-        <v>9911</v>
+        <v>10914</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>9912</v>
+        <v>10915</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="0" t="s">
-        <v>9913</v>
+        <v>10916</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>9914</v>
+        <v>10917</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="0" t="s">
-        <v>9915</v>
+        <v>10918</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="0" t="s">
-        <v>9916</v>
+        <v>10919</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="0" t="s">
-        <v>9917</v>
+        <v>10920</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="0" t="s">
-        <v>9918</v>
+        <v>10921</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="0" t="s">
-        <v>9919</v>
+        <v>10922</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="0" t="s">
-        <v>9920</v>
+        <v>10923</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="0" t="s">
-        <v>9921</v>
+        <v>10924</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="0" t="s">
-        <v>9922</v>
+        <v>10925</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="0" t="s">
-        <v>9923</v>
+        <v>10926</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="0" t="s">
-        <v>9924</v>
+        <v>10927</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="0" t="s">
-        <v>9925</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="0" t="s">
-        <v>9926</v>
+        <v>10929</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="0" t="s">
-        <v>9927</v>
+        <v>10930</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="0" t="s">
-        <v>9928</v>
+        <v>10931</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="0" t="s">
-        <v>9929</v>
+        <v>10932</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="0" t="s">
-        <v>9930</v>
+        <v>10933</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="0" t="s">
-        <v>9931</v>
+        <v>10934</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="0" t="s">
-        <v>9932</v>
+        <v>10935</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="0" t="s">
-        <v>9933</v>
+        <v>10936</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="0" t="s">
-        <v>9934</v>
+        <v>10937</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="0" t="s">
-        <v>9935</v>
+        <v>10938</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="0" t="s">
-        <v>9936</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="0" t="s">
-        <v>9937</v>
+        <v>10940</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="0" t="s">
-        <v>9938</v>
+        <v>10941</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="0" t="s">
-        <v>9939</v>
+        <v>10942</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="0" t="s">
-        <v>9940</v>
+        <v>10943</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="0" t="s">
-        <v>9941</v>
+        <v>10944</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="0" t="s">
-        <v>9942</v>
+        <v>10945</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="0" t="s">
-        <v>9943</v>
+        <v>10946</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="0" t="s">
-        <v>9944</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="0" t="s">
-        <v>9945</v>
+        <v>10948</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="0" t="s">
-        <v>9946</v>
+        <v>10949</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="0" t="s">
-        <v>9947</v>
+        <v>10950</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="0" t="s">
-        <v>9948</v>
+        <v>10951</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="0" t="s">
-        <v>9949</v>
+        <v>10952</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="0" t="s">
-        <v>9950</v>
+        <v>10953</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="0" t="s">
-        <v>9951</v>
+        <v>10954</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0" t="s">
-        <v>9952</v>
+        <v>10955</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0" t="s">
-        <v>9953</v>
+        <v>10956</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0" t="s">
-        <v>9954</v>
+        <v>10957</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0" t="s">
-        <v>9955</v>
+        <v>10958</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="0" t="s">
-        <v>9956</v>
+        <v>10959</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0" t="s">
-        <v>9957</v>
+        <v>10960</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="0" t="s">
-        <v>9958</v>
+        <v>10961</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="0" t="s">
-        <v>9959</v>
+        <v>10962</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="0" t="s">
-        <v>9960</v>
+        <v>10963</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="0" t="s">
-        <v>9961</v>
+        <v>10964</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="0" t="s">
-        <v>9962</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="0" t="s">
-        <v>9963</v>
+        <v>10966</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="0" t="s">
-        <v>9964</v>
+        <v>10967</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="0" t="s">
-        <v>9965</v>
+        <v>10968</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0" t="s">
-        <v>9966</v>
+        <v>10969</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0" t="s">
-        <v>9967</v>
+        <v>10970</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="0" t="s">
-        <v>9968</v>
+        <v>10971</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="0" t="s">
-        <v>9969</v>
+        <v>10972</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0" t="s">
-        <v>9970</v>
+        <v>10973</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="0" t="s">
-        <v>9971</v>
+        <v>10974</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="0" t="s">
-        <v>9972</v>
+        <v>10975</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0" t="s">
-        <v>9973</v>
+        <v>10976</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0" t="s">
-        <v>9974</v>
+        <v>10977</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0" t="s">
-        <v>9975</v>
+        <v>10978</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="0" t="s">
-        <v>9976</v>
+        <v>10979</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="0" t="s">
-        <v>9977</v>
+        <v>10980</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="0" t="s">
-        <v>9978</v>
+        <v>10981</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0" t="s">
-        <v>9979</v>
+        <v>10982</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0" t="s">
-        <v>9980</v>
+        <v>10983</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0" t="s">
-        <v>9981</v>
+        <v>10984</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="0" t="s">
-        <v>9982</v>
+        <v>10985</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="0" t="s">
-        <v>9983</v>
+        <v>10986</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="0" t="s">
-        <v>9984</v>
+        <v>10987</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="0" t="s">
-        <v>9985</v>
+        <v>10988</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="0" t="s">
-        <v>9986</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="0" t="s">
-        <v>9987</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="0" t="s">
-        <v>9988</v>
+        <v>10991</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="0" t="s">
-        <v>9989</v>
+        <v>10992</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0" t="s">
-        <v>9990</v>
+        <v>10993</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="0" t="s">
-        <v>9991</v>
+        <v>10994</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="0" t="s">
-        <v>9992</v>
+        <v>10995</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="0" t="s">
-        <v>9993</v>
+        <v>10996</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="0" t="s">
-        <v>9994</v>
+        <v>10997</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="s">
-        <v>9995</v>
+        <v>10998</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="s">
-        <v>9996</v>
+        <v>10999</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="s">
-        <v>9997</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="s">
-        <v>9998</v>
+        <v>11001</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="0" t="s">
-        <v>9999</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="0" t="s">
-        <v>10000</v>
+        <v>11003</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="0" t="s">
-        <v>10001</v>
+        <v>11004</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="0" t="s">
-        <v>10002</v>
+        <v>11005</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="0" t="s">
-        <v>10003</v>
+        <v>11006</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="0" t="s">
-        <v>10004</v>
+        <v>11007</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="0" t="s">
-        <v>10005</v>
+        <v>11008</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="0" t="s">
-        <v>10006</v>
+        <v>11009</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="0" t="s">
-        <v>10007</v>
+        <v>11010</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="0" t="s">
-        <v>10008</v>
+        <v>11011</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="0" t="s">
-        <v>10009</v>
+        <v>11012</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="0" t="s">
-        <v>10010</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="s">
-        <v>10011</v>
+        <v>11014</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="s">
-        <v>10012</v>
+        <v>11015</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="s">
-        <v>10013</v>
+        <v>11016</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="s">
-        <v>10014</v>
+        <v>11017</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="s">
-        <v>10015</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="s">
-        <v>10016</v>
+        <v>11019</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="s">
-        <v>10017</v>
+        <v>11020</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="s">
-        <v>10018</v>
+        <v>11021</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="s">
-        <v>10019</v>
+        <v>11022</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="0" t="s">
-        <v>10020</v>
+        <v>11023</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="s">
-        <v>10021</v>
+        <v>11024</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="s">
-        <v>10022</v>
+        <v>11025</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="s">
-        <v>10023</v>
+        <v>11026</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="s">
-        <v>10024</v>
+        <v>11027</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="0" t="s">
-        <v>10025</v>
+        <v>11028</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="0" t="s">
-        <v>10026</v>
+        <v>11029</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="0" t="s">
-        <v>10027</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="0" t="s">
-        <v>10028</v>
+        <v>11031</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="0" t="s">
-        <v>10029</v>
+        <v>11032</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11033" uniqueCount="11033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12036" uniqueCount="12036">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -33119,6 +33119,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104088.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104084.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104083.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104079.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104078.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104077.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104052.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104051.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104046.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104040.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104037.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104032.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104027.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104026.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104024.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104018.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104015.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104014.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104013.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104012.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104009.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103990.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103977.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103960.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103955.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103953.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103951.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103948.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103937.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103935.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103933.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103932.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103931.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103917.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103913.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103910.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103901.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103900.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103892.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103890.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103889.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103888.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103887.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103884.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103882.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103881.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103880.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103879.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103878.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103877.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103876.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103875.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103874.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103873.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103871.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103870.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103869.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103868.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103867.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103866.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103865.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103863.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103862.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103859.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103855.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103851.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103846.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103845.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103844.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103843.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103839.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103838.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103837.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103836.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103835.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103833.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103826.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103825.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103818.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103814.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103813.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103812.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103811.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103810.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102834.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102828.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102793.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102778.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102770.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102768.html</t>
   </si>
 </sst>
 </file>
@@ -33139,7 +36148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -33157,11 +36166,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -33173,6 +36183,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33498,5017 +36509,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10030</v>
+        <v>11033</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>10031</v>
+        <v>11034</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>10032</v>
+        <v>11035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>10033</v>
+        <v>11036</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>10034</v>
+        <v>11037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>10035</v>
+        <v>11038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>10036</v>
+        <v>11039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>10037</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>10038</v>
+        <v>11041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>10039</v>
+        <v>11042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10040</v>
+        <v>11043</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>10041</v>
+        <v>11044</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>10042</v>
+        <v>11045</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>10043</v>
+        <v>11046</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>10044</v>
+        <v>11047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>10045</v>
+        <v>11048</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>10046</v>
+        <v>11049</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>10047</v>
+        <v>11050</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>10048</v>
+        <v>11051</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>10049</v>
+        <v>11052</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>10050</v>
+        <v>11053</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>10051</v>
+        <v>11054</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>10052</v>
+        <v>11055</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>10053</v>
+        <v>11056</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>10054</v>
+        <v>11057</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>10055</v>
+        <v>11058</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>10056</v>
+        <v>11059</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>10057</v>
+        <v>11060</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>10058</v>
+        <v>11061</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>10059</v>
+        <v>11062</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>10060</v>
+        <v>11063</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>10061</v>
+        <v>11064</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>10062</v>
+        <v>11065</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>10063</v>
+        <v>11066</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>10064</v>
+        <v>11067</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>10065</v>
+        <v>11068</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>10066</v>
+        <v>11069</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>10067</v>
+        <v>11070</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>10068</v>
+        <v>11071</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>10069</v>
+        <v>11072</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>10070</v>
+        <v>11073</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>10071</v>
+        <v>11074</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>10072</v>
+        <v>11075</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>10073</v>
+        <v>11076</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>10074</v>
+        <v>11077</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>10075</v>
+        <v>11078</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>10076</v>
+        <v>11079</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>10077</v>
+        <v>11080</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>10078</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>10079</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>10080</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>10081</v>
+        <v>11084</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>10082</v>
+        <v>11085</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>10083</v>
+        <v>11086</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>10084</v>
+        <v>11087</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>10085</v>
+        <v>11088</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>10086</v>
+        <v>11089</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>10087</v>
+        <v>11090</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>10088</v>
+        <v>11091</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>10089</v>
+        <v>11092</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>10090</v>
+        <v>11093</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>10091</v>
+        <v>11094</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>10092</v>
+        <v>11095</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>10093</v>
+        <v>11096</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>10094</v>
+        <v>11097</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>10095</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>10096</v>
+        <v>11099</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>10097</v>
+        <v>11100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>10098</v>
+        <v>11101</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>10099</v>
+        <v>11102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>10100</v>
+        <v>11103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>10101</v>
+        <v>11104</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>10102</v>
+        <v>11105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>10103</v>
+        <v>11106</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>10104</v>
+        <v>11107</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>10105</v>
+        <v>11108</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>10106</v>
+        <v>11109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>10107</v>
+        <v>11110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>10108</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>10109</v>
+        <v>11112</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>10110</v>
+        <v>11113</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>10111</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>10112</v>
+        <v>11115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>10113</v>
+        <v>11116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>10114</v>
+        <v>11117</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>10115</v>
+        <v>11118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>10116</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>10117</v>
+        <v>11120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>10118</v>
+        <v>11121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>10119</v>
+        <v>11122</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>10120</v>
+        <v>11123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>10121</v>
+        <v>11124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>10122</v>
+        <v>11125</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>10123</v>
+        <v>11126</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>10124</v>
+        <v>11127</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>10125</v>
+        <v>11128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>10126</v>
+        <v>11129</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>10127</v>
+        <v>11130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>10128</v>
+        <v>11131</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>10129</v>
+        <v>11132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>10130</v>
+        <v>11133</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>10131</v>
+        <v>11134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>10132</v>
+        <v>11135</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>10133</v>
+        <v>11136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>10134</v>
+        <v>11137</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>10135</v>
+        <v>11138</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>10136</v>
+        <v>11139</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>10137</v>
+        <v>11140</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>10138</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>10139</v>
+        <v>11142</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>10140</v>
+        <v>11143</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>10141</v>
+        <v>11144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>10142</v>
+        <v>11145</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>10143</v>
+        <v>11146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>10144</v>
+        <v>11147</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>10145</v>
+        <v>11148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>10146</v>
+        <v>11149</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>10147</v>
+        <v>11150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>10148</v>
+        <v>11151</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>10149</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>10150</v>
+        <v>11153</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>10151</v>
+        <v>11154</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>10152</v>
+        <v>11155</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>10153</v>
+        <v>11156</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>10154</v>
+        <v>11157</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>10155</v>
+        <v>11158</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>10156</v>
+        <v>11159</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>10157</v>
+        <v>11160</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>10158</v>
+        <v>11161</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>10159</v>
+        <v>11162</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>10160</v>
+        <v>11163</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>10161</v>
+        <v>11164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>10162</v>
+        <v>11165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>10163</v>
+        <v>11166</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>10164</v>
+        <v>11167</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>10165</v>
+        <v>11168</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>10166</v>
+        <v>11169</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>10167</v>
+        <v>11170</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>10168</v>
+        <v>11171</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>10169</v>
+        <v>11172</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>10170</v>
+        <v>11173</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>10171</v>
+        <v>11174</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>10172</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>10173</v>
+        <v>11176</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>10174</v>
+        <v>11177</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>10175</v>
+        <v>11178</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>10176</v>
+        <v>11179</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>10177</v>
+        <v>11180</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>10178</v>
+        <v>11181</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>10179</v>
+        <v>11182</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>10180</v>
+        <v>11183</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>10181</v>
+        <v>11184</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>10182</v>
+        <v>11185</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>10183</v>
+        <v>11186</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>10184</v>
+        <v>11187</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>10185</v>
+        <v>11188</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>10186</v>
+        <v>11189</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>10187</v>
+        <v>11190</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>10188</v>
+        <v>11191</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>10189</v>
+        <v>11192</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>10190</v>
+        <v>11193</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>10191</v>
+        <v>11194</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>10192</v>
+        <v>11195</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>10193</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>10194</v>
+        <v>11197</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>10195</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>10196</v>
+        <v>11199</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>10197</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>10198</v>
+        <v>11201</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>10199</v>
+        <v>11202</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>10200</v>
+        <v>11203</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>10201</v>
+        <v>11204</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>10202</v>
+        <v>11205</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>10203</v>
+        <v>11206</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>10204</v>
+        <v>11207</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>10205</v>
+        <v>11208</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>10206</v>
+        <v>11209</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>10207</v>
+        <v>11210</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>10208</v>
+        <v>11211</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>10209</v>
+        <v>11212</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>10210</v>
+        <v>11213</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>10211</v>
+        <v>11214</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>10212</v>
+        <v>11215</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>10213</v>
+        <v>11216</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>10214</v>
+        <v>11217</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>10215</v>
+        <v>11218</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>10216</v>
+        <v>11219</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>10217</v>
+        <v>11220</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>10218</v>
+        <v>11221</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>10219</v>
+        <v>11222</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>10220</v>
+        <v>11223</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>10221</v>
+        <v>11224</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>10222</v>
+        <v>11225</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>10223</v>
+        <v>11226</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>10224</v>
+        <v>11227</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>10225</v>
+        <v>11228</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>10226</v>
+        <v>11229</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>10227</v>
+        <v>11230</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>10228</v>
+        <v>11231</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>10229</v>
+        <v>11232</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>10230</v>
+        <v>11233</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>10231</v>
+        <v>11234</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>10232</v>
+        <v>11235</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>10233</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>10234</v>
+        <v>11237</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>10235</v>
+        <v>11238</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>10236</v>
+        <v>11239</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>10237</v>
+        <v>11240</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>10238</v>
+        <v>11241</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>10239</v>
+        <v>11242</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>10240</v>
+        <v>11243</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>10241</v>
+        <v>11244</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>10242</v>
+        <v>11245</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>10243</v>
+        <v>11246</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>10244</v>
+        <v>11247</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>10245</v>
+        <v>11248</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>10246</v>
+        <v>11249</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>10247</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>10248</v>
+        <v>11251</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>10249</v>
+        <v>11252</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>10250</v>
+        <v>11253</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>10251</v>
+        <v>11254</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>10252</v>
+        <v>11255</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>10253</v>
+        <v>11256</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>10254</v>
+        <v>11257</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>10255</v>
+        <v>11258</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>10256</v>
+        <v>11259</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>10257</v>
+        <v>11260</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>10258</v>
+        <v>11261</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>10259</v>
+        <v>11262</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>10260</v>
+        <v>11263</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>10261</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>10262</v>
+        <v>11265</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>10263</v>
+        <v>11266</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>10264</v>
+        <v>11267</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>10265</v>
+        <v>11268</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>10266</v>
+        <v>11269</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>10267</v>
+        <v>11270</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>10268</v>
+        <v>11271</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>10269</v>
+        <v>11272</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>10270</v>
+        <v>11273</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>10271</v>
+        <v>11274</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>10272</v>
+        <v>11275</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>10273</v>
+        <v>11276</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>10274</v>
+        <v>11277</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>10275</v>
+        <v>11278</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>10276</v>
+        <v>11279</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>10277</v>
+        <v>11280</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>10278</v>
+        <v>11281</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>10279</v>
+        <v>11282</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>10280</v>
+        <v>11283</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>10281</v>
+        <v>11284</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>10282</v>
+        <v>11285</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>10283</v>
+        <v>11286</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>10284</v>
+        <v>11287</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>10285</v>
+        <v>11288</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>10286</v>
+        <v>11289</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>10287</v>
+        <v>11290</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>10288</v>
+        <v>11291</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>10289</v>
+        <v>11292</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>10290</v>
+        <v>11293</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>10291</v>
+        <v>11294</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>10292</v>
+        <v>11295</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>10293</v>
+        <v>11296</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>10294</v>
+        <v>11297</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>10295</v>
+        <v>11298</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>10296</v>
+        <v>11299</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>10297</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>10298</v>
+        <v>11301</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>10299</v>
+        <v>11302</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>10300</v>
+        <v>11303</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>10301</v>
+        <v>11304</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>10302</v>
+        <v>11305</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>10303</v>
+        <v>11306</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>10304</v>
+        <v>11307</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>10305</v>
+        <v>11308</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>10306</v>
+        <v>11309</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>10307</v>
+        <v>11310</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>10308</v>
+        <v>11311</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>10309</v>
+        <v>11312</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>10310</v>
+        <v>11313</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>10311</v>
+        <v>11314</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>10312</v>
+        <v>11315</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>10313</v>
+        <v>11316</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>10314</v>
+        <v>11317</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>10315</v>
+        <v>11318</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>10316</v>
+        <v>11319</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>10317</v>
+        <v>11320</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>10318</v>
+        <v>11321</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>10319</v>
+        <v>11322</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>10320</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>10321</v>
+        <v>11324</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>10322</v>
+        <v>11325</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>10323</v>
+        <v>11326</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>10324</v>
+        <v>11327</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>10325</v>
+        <v>11328</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>10326</v>
+        <v>11329</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>10327</v>
+        <v>11330</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>10328</v>
+        <v>11331</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>10329</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>10330</v>
+        <v>11333</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>10331</v>
+        <v>11334</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>10332</v>
+        <v>11335</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>10333</v>
+        <v>11336</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>10334</v>
+        <v>11337</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>10335</v>
+        <v>11338</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>10336</v>
+        <v>11339</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>10337</v>
+        <v>11340</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>10338</v>
+        <v>11341</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>10339</v>
+        <v>11342</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>10340</v>
+        <v>11343</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>10341</v>
+        <v>11344</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>10342</v>
+        <v>11345</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>10343</v>
+        <v>11346</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>10344</v>
+        <v>11347</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>10345</v>
+        <v>11348</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>10346</v>
+        <v>11349</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>10347</v>
+        <v>11350</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>10348</v>
+        <v>11351</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>10349</v>
+        <v>11352</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>10350</v>
+        <v>11353</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>10351</v>
+        <v>11354</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>10352</v>
+        <v>11355</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>10353</v>
+        <v>11356</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>10354</v>
+        <v>11357</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>10355</v>
+        <v>11358</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>10356</v>
+        <v>11359</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>10357</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>10358</v>
+        <v>11361</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>10359</v>
+        <v>11362</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>10360</v>
+        <v>11363</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>10361</v>
+        <v>11364</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>10362</v>
+        <v>11365</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>10363</v>
+        <v>11366</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>10364</v>
+        <v>11367</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>10365</v>
+        <v>11368</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>10366</v>
+        <v>11369</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>10367</v>
+        <v>11370</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>10368</v>
+        <v>11371</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>10369</v>
+        <v>11372</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>10370</v>
+        <v>11373</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>10371</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>10372</v>
+        <v>11375</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>10373</v>
+        <v>11376</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>10374</v>
+        <v>11377</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>10375</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>10376</v>
+        <v>11379</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>10377</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>10378</v>
+        <v>11381</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>10379</v>
+        <v>11382</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>10380</v>
+        <v>11383</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>10381</v>
+        <v>11384</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>10382</v>
+        <v>11385</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>10383</v>
+        <v>11386</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>10384</v>
+        <v>11387</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>10385</v>
+        <v>11388</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>10386</v>
+        <v>11389</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>10387</v>
+        <v>11390</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>10388</v>
+        <v>11391</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>10389</v>
+        <v>11392</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>10390</v>
+        <v>11393</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>10391</v>
+        <v>11394</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>10392</v>
+        <v>11395</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>10393</v>
+        <v>11396</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>10394</v>
+        <v>11397</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>10395</v>
+        <v>11398</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>10396</v>
+        <v>11399</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>10397</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>10398</v>
+        <v>11401</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>10399</v>
+        <v>11402</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>10400</v>
+        <v>11403</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>10401</v>
+        <v>11404</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>10402</v>
+        <v>11405</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>10403</v>
+        <v>11406</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>10404</v>
+        <v>11407</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>10405</v>
+        <v>11408</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>10406</v>
+        <v>11409</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>10407</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>10408</v>
+        <v>11411</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>10409</v>
+        <v>11412</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>10410</v>
+        <v>11413</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>10411</v>
+        <v>11414</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>10412</v>
+        <v>11415</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>10413</v>
+        <v>11416</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>10414</v>
+        <v>11417</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>10415</v>
+        <v>11418</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>10416</v>
+        <v>11419</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>10417</v>
+        <v>11420</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>10418</v>
+        <v>11421</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>10419</v>
+        <v>11422</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>10420</v>
+        <v>11423</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>10421</v>
+        <v>11424</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>10422</v>
+        <v>11425</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>10423</v>
+        <v>11426</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>10424</v>
+        <v>11427</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>10425</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>10426</v>
+        <v>11429</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>10427</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>10428</v>
+        <v>11431</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>10429</v>
+        <v>11432</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>10430</v>
+        <v>11433</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>10431</v>
+        <v>11434</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>10432</v>
+        <v>11435</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>10433</v>
+        <v>11436</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>10434</v>
+        <v>11437</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>10435</v>
+        <v>11438</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>10436</v>
+        <v>11439</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>10437</v>
+        <v>11440</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>10438</v>
+        <v>11441</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>10439</v>
+        <v>11442</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>10440</v>
+        <v>11443</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>10441</v>
+        <v>11444</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>10442</v>
+        <v>11445</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>10443</v>
+        <v>11446</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>10444</v>
+        <v>11447</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>10445</v>
+        <v>11448</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>10446</v>
+        <v>11449</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>10447</v>
+        <v>11450</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>10448</v>
+        <v>11451</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>10449</v>
+        <v>11452</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>10450</v>
+        <v>11453</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>10451</v>
+        <v>11454</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>10452</v>
+        <v>11455</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>10453</v>
+        <v>11456</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>10454</v>
+        <v>11457</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>10455</v>
+        <v>11458</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>10456</v>
+        <v>11459</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>10457</v>
+        <v>11460</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>10458</v>
+        <v>11461</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>10459</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>10460</v>
+        <v>11463</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>10461</v>
+        <v>11464</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>10462</v>
+        <v>11465</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>10463</v>
+        <v>11466</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>10464</v>
+        <v>11467</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>10465</v>
+        <v>11468</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>10466</v>
+        <v>11469</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>10467</v>
+        <v>11470</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>10468</v>
+        <v>11471</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>10469</v>
+        <v>11472</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>10470</v>
+        <v>11473</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>10471</v>
+        <v>11474</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>10472</v>
+        <v>11475</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>10473</v>
+        <v>11476</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>10474</v>
+        <v>11477</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>10475</v>
+        <v>11478</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>10476</v>
+        <v>11479</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>10477</v>
+        <v>11480</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>10478</v>
+        <v>11481</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>10479</v>
+        <v>11482</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>10480</v>
+        <v>11483</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>10481</v>
+        <v>11484</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>10482</v>
+        <v>11485</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>10483</v>
+        <v>11486</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>10484</v>
+        <v>11487</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>10485</v>
+        <v>11488</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>10486</v>
+        <v>11489</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>10487</v>
+        <v>11490</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>10488</v>
+        <v>11491</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>10489</v>
+        <v>11492</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>10490</v>
+        <v>11493</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>10491</v>
+        <v>11494</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>10492</v>
+        <v>11495</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>10493</v>
+        <v>11496</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>10494</v>
+        <v>11497</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>10495</v>
+        <v>11498</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>10496</v>
+        <v>11499</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>10497</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>10498</v>
+        <v>11501</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>10499</v>
+        <v>11502</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>10500</v>
+        <v>11503</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>10501</v>
+        <v>11504</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>10502</v>
+        <v>11505</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>10503</v>
+        <v>11506</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>10504</v>
+        <v>11507</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>10505</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>10506</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>10507</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>10508</v>
+        <v>11511</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>10509</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>10510</v>
+        <v>11513</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>10511</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>10512</v>
+        <v>11515</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>10513</v>
+        <v>11516</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>10514</v>
+        <v>11517</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>10515</v>
+        <v>11518</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>10516</v>
+        <v>11519</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>10517</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>10518</v>
+        <v>11521</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>10519</v>
+        <v>11522</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>10520</v>
+        <v>11523</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>10521</v>
+        <v>11524</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>10522</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>10523</v>
+        <v>11526</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>10524</v>
+        <v>11527</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>10525</v>
+        <v>11528</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>10526</v>
+        <v>11529</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>10527</v>
+        <v>11530</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>10528</v>
+        <v>11531</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>10529</v>
+        <v>11532</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>10530</v>
+        <v>11533</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>10531</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>10532</v>
+        <v>11535</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>10533</v>
+        <v>11536</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>10534</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>10535</v>
+        <v>11538</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>10536</v>
+        <v>11539</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>10537</v>
+        <v>11540</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>10538</v>
+        <v>11541</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>10539</v>
+        <v>11542</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>10540</v>
+        <v>11543</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>10541</v>
+        <v>11544</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>10542</v>
+        <v>11545</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>10543</v>
+        <v>11546</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>10544</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>10545</v>
+        <v>11548</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>10546</v>
+        <v>11549</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>10547</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>10548</v>
+        <v>11551</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>10549</v>
+        <v>11552</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>10550</v>
+        <v>11553</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>10551</v>
+        <v>11554</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>10552</v>
+        <v>11555</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>10553</v>
+        <v>11556</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>10554</v>
+        <v>11557</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>10555</v>
+        <v>11558</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>10556</v>
+        <v>11559</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>10557</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>10558</v>
+        <v>11561</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>10559</v>
+        <v>11562</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>10560</v>
+        <v>11563</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>10561</v>
+        <v>11564</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>10562</v>
+        <v>11565</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>10563</v>
+        <v>11566</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>10564</v>
+        <v>11567</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>10565</v>
+        <v>11568</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>10566</v>
+        <v>11569</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>10567</v>
+        <v>11570</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>10568</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>10569</v>
+        <v>11572</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>10570</v>
+        <v>11573</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>10571</v>
+        <v>11574</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>10572</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>10573</v>
+        <v>11576</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>10574</v>
+        <v>11577</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>10575</v>
+        <v>11578</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>10576</v>
+        <v>11579</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>10577</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>10578</v>
+        <v>11581</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>10579</v>
+        <v>11582</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>10580</v>
+        <v>11583</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>10581</v>
+        <v>11584</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>10582</v>
+        <v>11585</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>10583</v>
+        <v>11586</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>10584</v>
+        <v>11587</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>10585</v>
+        <v>11588</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>10586</v>
+        <v>11589</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>10587</v>
+        <v>11590</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>10588</v>
+        <v>11591</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>10589</v>
+        <v>11592</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>10590</v>
+        <v>11593</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>10591</v>
+        <v>11594</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>10592</v>
+        <v>11595</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>10593</v>
+        <v>11596</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>10594</v>
+        <v>11597</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>10595</v>
+        <v>11598</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>10596</v>
+        <v>11599</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>10597</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>10598</v>
+        <v>11601</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>10599</v>
+        <v>11602</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>10600</v>
+        <v>11603</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>10601</v>
+        <v>11604</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>10602</v>
+        <v>11605</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>10603</v>
+        <v>11606</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>10604</v>
+        <v>11607</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>10605</v>
+        <v>11608</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>10606</v>
+        <v>11609</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>10607</v>
+        <v>11610</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>10608</v>
+        <v>11611</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>10609</v>
+        <v>11612</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>10610</v>
+        <v>11613</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>10611</v>
+        <v>11614</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>10612</v>
+        <v>11615</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>10613</v>
+        <v>11616</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>10614</v>
+        <v>11617</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>10615</v>
+        <v>11618</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>10616</v>
+        <v>11619</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>10617</v>
+        <v>11620</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>10618</v>
+        <v>11621</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>10619</v>
+        <v>11622</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>10620</v>
+        <v>11623</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>10621</v>
+        <v>11624</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>10622</v>
+        <v>11625</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>10623</v>
+        <v>11626</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>10624</v>
+        <v>11627</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>10625</v>
+        <v>11628</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>10626</v>
+        <v>11629</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>10627</v>
+        <v>11630</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>10628</v>
+        <v>11631</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>10629</v>
+        <v>11632</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>10630</v>
+        <v>11633</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>10631</v>
+        <v>11634</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>10632</v>
+        <v>11635</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>10633</v>
+        <v>11636</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>10634</v>
+        <v>11637</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>10635</v>
+        <v>11638</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>10636</v>
+        <v>11639</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>10637</v>
+        <v>11640</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>10638</v>
+        <v>11641</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>10639</v>
+        <v>11642</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>10640</v>
+        <v>11643</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>10641</v>
+        <v>11644</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>10642</v>
+        <v>11645</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>10643</v>
+        <v>11646</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>10644</v>
+        <v>11647</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>10645</v>
+        <v>11648</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>10646</v>
+        <v>11649</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>10647</v>
+        <v>11650</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>10648</v>
+        <v>11651</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>10649</v>
+        <v>11652</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>10650</v>
+        <v>11653</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>10651</v>
+        <v>11654</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>10652</v>
+        <v>11655</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>10653</v>
+        <v>11656</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>10654</v>
+        <v>11657</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>10655</v>
+        <v>11658</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>10656</v>
+        <v>11659</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>10657</v>
+        <v>11660</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>10658</v>
+        <v>11661</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>10659</v>
+        <v>11662</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>10660</v>
+        <v>11663</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>10661</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>10662</v>
+        <v>11665</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>10663</v>
+        <v>11666</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>10664</v>
+        <v>11667</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>10665</v>
+        <v>11668</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>10666</v>
+        <v>11669</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>10667</v>
+        <v>11670</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>10668</v>
+        <v>11671</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>10669</v>
+        <v>11672</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>10670</v>
+        <v>11673</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>10671</v>
+        <v>11674</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>10672</v>
+        <v>11675</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>10673</v>
+        <v>11676</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>10674</v>
+        <v>11677</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>10675</v>
+        <v>11678</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>10676</v>
+        <v>11679</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>10677</v>
+        <v>11680</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>10678</v>
+        <v>11681</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>10679</v>
+        <v>11682</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>10680</v>
+        <v>11683</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>10681</v>
+        <v>11684</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>10682</v>
+        <v>11685</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>10683</v>
+        <v>11686</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>10684</v>
+        <v>11687</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>10685</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>10686</v>
+        <v>11689</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>10687</v>
+        <v>11690</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>10688</v>
+        <v>11691</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>10689</v>
+        <v>11692</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>10690</v>
+        <v>11693</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>10691</v>
+        <v>11694</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>10692</v>
+        <v>11695</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>10693</v>
+        <v>11696</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>10694</v>
+        <v>11697</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>10695</v>
+        <v>11698</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>10696</v>
+        <v>11699</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>10697</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>10698</v>
+        <v>11701</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>10699</v>
+        <v>11702</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>10700</v>
+        <v>11703</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>10701</v>
+        <v>11704</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>10702</v>
+        <v>11705</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>10703</v>
+        <v>11706</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>10704</v>
+        <v>11707</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>10705</v>
+        <v>11708</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>10706</v>
+        <v>11709</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>10707</v>
+        <v>11710</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>10708</v>
+        <v>11711</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>10709</v>
+        <v>11712</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>10710</v>
+        <v>11713</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>10711</v>
+        <v>11714</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>10712</v>
+        <v>11715</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>10713</v>
+        <v>11716</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>10714</v>
+        <v>11717</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>10715</v>
+        <v>11718</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>10716</v>
+        <v>11719</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>10717</v>
+        <v>11720</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>10718</v>
+        <v>11721</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>10719</v>
+        <v>11722</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>10720</v>
+        <v>11723</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>10721</v>
+        <v>11724</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>10722</v>
+        <v>11725</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>10723</v>
+        <v>11726</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>10724</v>
+        <v>11727</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>10725</v>
+        <v>11728</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>10726</v>
+        <v>11729</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>10727</v>
+        <v>11730</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>10728</v>
+        <v>11731</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>10729</v>
+        <v>11732</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>10730</v>
+        <v>11733</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>10731</v>
+        <v>11734</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>10732</v>
+        <v>11735</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>10733</v>
+        <v>11736</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>10734</v>
+        <v>11737</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>10735</v>
+        <v>11738</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>10736</v>
+        <v>11739</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>10737</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>10738</v>
+        <v>11741</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>10739</v>
+        <v>11742</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>10740</v>
+        <v>11743</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>10741</v>
+        <v>11744</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>10742</v>
+        <v>11745</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>10743</v>
+        <v>11746</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>10744</v>
+        <v>11747</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>10745</v>
+        <v>11748</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>10746</v>
+        <v>11749</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>10747</v>
+        <v>11750</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>10748</v>
+        <v>11751</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>10749</v>
+        <v>11752</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>10750</v>
+        <v>11753</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>10751</v>
+        <v>11754</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>10752</v>
+        <v>11755</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>10753</v>
+        <v>11756</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>10754</v>
+        <v>11757</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>10755</v>
+        <v>11758</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>10756</v>
+        <v>11759</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>10757</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>10758</v>
+        <v>11761</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>10759</v>
+        <v>11762</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>10760</v>
+        <v>11763</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>10761</v>
+        <v>11764</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>10762</v>
+        <v>11765</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>10763</v>
+        <v>11766</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>10764</v>
+        <v>11767</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>10765</v>
+        <v>11768</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>10766</v>
+        <v>11769</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>10767</v>
+        <v>11770</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>10768</v>
+        <v>11771</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>10769</v>
+        <v>11772</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>10770</v>
+        <v>11773</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>10771</v>
+        <v>11774</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>10772</v>
+        <v>11775</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>10773</v>
+        <v>11776</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>10774</v>
+        <v>11777</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>10775</v>
+        <v>11778</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>10776</v>
+        <v>11779</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>10777</v>
+        <v>11780</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>10778</v>
+        <v>11781</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>10779</v>
+        <v>11782</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>10780</v>
+        <v>11783</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>10781</v>
+        <v>11784</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>10782</v>
+        <v>11785</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>10783</v>
+        <v>11786</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>10784</v>
+        <v>11787</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>10785</v>
+        <v>11788</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>10786</v>
+        <v>11789</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>10787</v>
+        <v>11790</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>10788</v>
+        <v>11791</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>10789</v>
+        <v>11792</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>10790</v>
+        <v>11793</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>10791</v>
+        <v>11794</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>10792</v>
+        <v>11795</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>10793</v>
+        <v>11796</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>10794</v>
+        <v>11797</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>10795</v>
+        <v>11798</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>10796</v>
+        <v>11799</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>10797</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>10798</v>
+        <v>11801</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>10799</v>
+        <v>11802</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>10800</v>
+        <v>11803</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>10801</v>
+        <v>11804</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>10802</v>
+        <v>11805</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>10803</v>
+        <v>11806</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>10804</v>
+        <v>11807</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>10805</v>
+        <v>11808</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>10806</v>
+        <v>11809</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>10807</v>
+        <v>11810</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>10808</v>
+        <v>11811</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>10809</v>
+        <v>11812</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>10810</v>
+        <v>11813</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>10811</v>
+        <v>11814</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>10812</v>
+        <v>11815</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>10813</v>
+        <v>11816</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>10814</v>
+        <v>11817</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
-        <v>10815</v>
+        <v>11818</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>10816</v>
+        <v>11819</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>10817</v>
+        <v>11820</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>10818</v>
+        <v>11821</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>10819</v>
+        <v>11822</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>10820</v>
+        <v>11823</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>10821</v>
+        <v>11824</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>10822</v>
+        <v>11825</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>10823</v>
+        <v>11826</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>10824</v>
+        <v>11827</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>10825</v>
+        <v>11828</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>10826</v>
+        <v>11829</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>10827</v>
+        <v>11830</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>10828</v>
+        <v>11831</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>10829</v>
+        <v>11832</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>10830</v>
+        <v>11833</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>10831</v>
+        <v>11834</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>10832</v>
+        <v>11835</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>10833</v>
+        <v>11836</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>10834</v>
+        <v>11837</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>10835</v>
+        <v>11838</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>10836</v>
+        <v>11839</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>10837</v>
+        <v>11840</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>10838</v>
+        <v>11841</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>10839</v>
+        <v>11842</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>10840</v>
+        <v>11843</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>10841</v>
+        <v>11844</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>10842</v>
+        <v>11845</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>10843</v>
+        <v>11846</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>10844</v>
+        <v>11847</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>10845</v>
+        <v>11848</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>10846</v>
+        <v>11849</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>10847</v>
+        <v>11850</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>10848</v>
+        <v>11851</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>10849</v>
+        <v>11852</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>10850</v>
+        <v>11853</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
-        <v>10851</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>10852</v>
+        <v>11855</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>10853</v>
+        <v>11856</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>10854</v>
+        <v>11857</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>10855</v>
+        <v>11858</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>10856</v>
+        <v>11859</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>10857</v>
+        <v>11860</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>10858</v>
+        <v>11861</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>10859</v>
+        <v>11862</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>10860</v>
+        <v>11863</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>10861</v>
+        <v>11864</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>10862</v>
+        <v>11865</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>10863</v>
+        <v>11866</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>10864</v>
+        <v>11867</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="0" t="s">
-        <v>10865</v>
+        <v>11868</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="0" t="s">
-        <v>10866</v>
+        <v>11869</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="0" t="s">
-        <v>10867</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="0" t="s">
-        <v>10868</v>
+        <v>11871</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="0" t="s">
-        <v>10869</v>
+        <v>11872</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="0" t="s">
-        <v>10870</v>
+        <v>11873</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="0" t="s">
-        <v>10871</v>
+        <v>11874</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="0" t="s">
-        <v>10872</v>
+        <v>11875</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="0" t="s">
-        <v>10873</v>
+        <v>11876</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="0" t="s">
-        <v>10874</v>
+        <v>11877</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="0" t="s">
-        <v>10875</v>
+        <v>11878</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="0" t="s">
-        <v>10876</v>
+        <v>11879</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>10877</v>
+        <v>11880</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>10878</v>
+        <v>11881</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>10879</v>
+        <v>11882</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="0" t="s">
-        <v>10880</v>
+        <v>11883</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0" t="s">
-        <v>10881</v>
+        <v>11884</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>10882</v>
+        <v>11885</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="0" t="s">
-        <v>10883</v>
+        <v>11886</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="0" t="s">
-        <v>10884</v>
+        <v>11887</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>10885</v>
+        <v>11888</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="0" t="s">
-        <v>10886</v>
+        <v>11889</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="0" t="s">
-        <v>10887</v>
+        <v>11890</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>10888</v>
+        <v>11891</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>10889</v>
+        <v>11892</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>10890</v>
+        <v>11893</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>10891</v>
+        <v>11894</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>10892</v>
+        <v>11895</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>10893</v>
+        <v>11896</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>10894</v>
+        <v>11897</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>10895</v>
+        <v>11898</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="0" t="s">
-        <v>10896</v>
+        <v>11899</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="0" t="s">
-        <v>10897</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>10898</v>
+        <v>11901</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="0" t="s">
-        <v>10899</v>
+        <v>11902</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>10900</v>
+        <v>11903</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="0" t="s">
-        <v>10901</v>
+        <v>11904</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>10902</v>
+        <v>11905</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>10903</v>
+        <v>11906</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="0" t="s">
-        <v>10904</v>
+        <v>11907</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="0" t="s">
-        <v>10905</v>
+        <v>11908</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>10906</v>
+        <v>11909</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="0" t="s">
-        <v>10907</v>
+        <v>11910</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>10908</v>
+        <v>11911</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>10909</v>
+        <v>11912</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="0" t="s">
-        <v>10910</v>
+        <v>11913</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>10911</v>
+        <v>11914</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="0" t="s">
-        <v>10912</v>
+        <v>11915</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>10913</v>
+        <v>11916</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="0" t="s">
-        <v>10914</v>
+        <v>11917</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>10915</v>
+        <v>11918</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="0" t="s">
-        <v>10916</v>
+        <v>11919</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>10917</v>
+        <v>11920</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="0" t="s">
-        <v>10918</v>
+        <v>11921</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="0" t="s">
-        <v>10919</v>
+        <v>11922</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="0" t="s">
-        <v>10920</v>
+        <v>11923</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="0" t="s">
-        <v>10921</v>
+        <v>11924</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="0" t="s">
-        <v>10922</v>
+        <v>11925</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="0" t="s">
-        <v>10923</v>
+        <v>11926</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="0" t="s">
-        <v>10924</v>
+        <v>11927</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="0" t="s">
-        <v>10925</v>
+        <v>11928</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="0" t="s">
-        <v>10926</v>
+        <v>11929</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="0" t="s">
-        <v>10927</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="0" t="s">
-        <v>10928</v>
+        <v>11931</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="0" t="s">
-        <v>10929</v>
+        <v>11932</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="0" t="s">
-        <v>10930</v>
+        <v>11933</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="0" t="s">
-        <v>10931</v>
+        <v>11934</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="0" t="s">
-        <v>10932</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="0" t="s">
-        <v>10933</v>
+        <v>11936</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="0" t="s">
-        <v>10934</v>
+        <v>11937</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="0" t="s">
-        <v>10935</v>
+        <v>11938</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="0" t="s">
-        <v>10936</v>
+        <v>11939</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="0" t="s">
-        <v>10937</v>
+        <v>11940</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="0" t="s">
-        <v>10938</v>
+        <v>11941</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="0" t="s">
-        <v>10939</v>
+        <v>11942</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="0" t="s">
-        <v>10940</v>
+        <v>11943</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="0" t="s">
-        <v>10941</v>
+        <v>11944</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="0" t="s">
-        <v>10942</v>
+        <v>11945</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="0" t="s">
-        <v>10943</v>
+        <v>11946</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="0" t="s">
-        <v>10944</v>
+        <v>11947</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="0" t="s">
-        <v>10945</v>
+        <v>11948</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="0" t="s">
-        <v>10946</v>
+        <v>11949</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="0" t="s">
-        <v>10947</v>
+        <v>11950</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="0" t="s">
-        <v>10948</v>
+        <v>11951</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="0" t="s">
-        <v>10949</v>
+        <v>11952</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="0" t="s">
-        <v>10950</v>
+        <v>11953</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="0" t="s">
-        <v>10951</v>
+        <v>11954</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="0" t="s">
-        <v>10952</v>
+        <v>11955</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="0" t="s">
-        <v>10953</v>
+        <v>11956</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="0" t="s">
-        <v>10954</v>
+        <v>11957</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0" t="s">
-        <v>10955</v>
+        <v>11958</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0" t="s">
-        <v>10956</v>
+        <v>11959</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0" t="s">
-        <v>10957</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0" t="s">
-        <v>10958</v>
+        <v>11961</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="0" t="s">
-        <v>10959</v>
+        <v>11962</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0" t="s">
-        <v>10960</v>
+        <v>11963</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="0" t="s">
-        <v>10961</v>
+        <v>11964</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="0" t="s">
-        <v>10962</v>
+        <v>11965</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="0" t="s">
-        <v>10963</v>
+        <v>11966</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="0" t="s">
-        <v>10964</v>
+        <v>11967</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="0" t="s">
-        <v>10965</v>
+        <v>11968</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="0" t="s">
-        <v>10966</v>
+        <v>11969</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="0" t="s">
-        <v>10967</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="0" t="s">
-        <v>10968</v>
+        <v>11971</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0" t="s">
-        <v>10969</v>
+        <v>11972</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0" t="s">
-        <v>10970</v>
+        <v>11973</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="0" t="s">
-        <v>10971</v>
+        <v>11974</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="0" t="s">
-        <v>10972</v>
+        <v>11975</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0" t="s">
-        <v>10973</v>
+        <v>11976</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="0" t="s">
-        <v>10974</v>
+        <v>11977</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="0" t="s">
-        <v>10975</v>
+        <v>11978</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0" t="s">
-        <v>10976</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0" t="s">
-        <v>10977</v>
+        <v>11980</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0" t="s">
-        <v>10978</v>
+        <v>11981</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="0" t="s">
-        <v>10979</v>
+        <v>11982</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="0" t="s">
-        <v>10980</v>
+        <v>11983</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="0" t="s">
-        <v>10981</v>
+        <v>11984</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0" t="s">
-        <v>10982</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0" t="s">
-        <v>10983</v>
+        <v>11986</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0" t="s">
-        <v>10984</v>
+        <v>11987</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="0" t="s">
-        <v>10985</v>
+        <v>11988</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="0" t="s">
-        <v>10986</v>
+        <v>11989</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="0" t="s">
-        <v>10987</v>
+        <v>11990</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="0" t="s">
-        <v>10988</v>
+        <v>11991</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="0" t="s">
-        <v>10989</v>
+        <v>11992</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="0" t="s">
-        <v>10990</v>
+        <v>11993</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="0" t="s">
-        <v>10991</v>
+        <v>11994</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="0" t="s">
-        <v>10992</v>
+        <v>11995</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0" t="s">
-        <v>10993</v>
+        <v>11996</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="0" t="s">
-        <v>10994</v>
+        <v>11997</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="0" t="s">
-        <v>10995</v>
+        <v>11998</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="0" t="s">
-        <v>10996</v>
+        <v>11999</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="0" t="s">
-        <v>10997</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="s">
-        <v>10998</v>
+        <v>12001</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="s">
-        <v>10999</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="s">
-        <v>11000</v>
+        <v>12003</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="s">
-        <v>11001</v>
+        <v>12004</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="0" t="s">
-        <v>11002</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="0" t="s">
-        <v>11003</v>
+        <v>12006</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="0" t="s">
-        <v>11004</v>
+        <v>12007</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="0" t="s">
-        <v>11005</v>
+        <v>12008</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="0" t="s">
-        <v>11006</v>
+        <v>12009</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="0" t="s">
-        <v>11007</v>
+        <v>12010</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="0" t="s">
-        <v>11008</v>
+        <v>12011</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="0" t="s">
-        <v>11009</v>
+        <v>12012</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="0" t="s">
-        <v>11010</v>
+        <v>12013</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="0" t="s">
-        <v>11011</v>
+        <v>12014</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="0" t="s">
-        <v>11012</v>
+        <v>12015</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="0" t="s">
-        <v>11013</v>
+        <v>12016</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="s">
-        <v>11014</v>
+        <v>12017</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="s">
-        <v>11015</v>
+        <v>12018</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="s">
-        <v>11016</v>
+        <v>12019</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="s">
-        <v>11017</v>
+        <v>12020</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="s">
-        <v>11018</v>
+        <v>12021</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="s">
-        <v>11019</v>
+        <v>12022</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="s">
-        <v>11020</v>
+        <v>12023</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="s">
-        <v>11021</v>
+        <v>12024</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="s">
-        <v>11022</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="0" t="s">
-        <v>11023</v>
+        <v>12026</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="s">
-        <v>11024</v>
+        <v>12027</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="s">
-        <v>11025</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="s">
-        <v>11026</v>
+        <v>12029</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="s">
-        <v>11027</v>
+        <v>12030</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="0" t="s">
-        <v>11028</v>
+        <v>12031</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="0" t="s">
-        <v>11029</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="0" t="s">
-        <v>11030</v>
+        <v>12033</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="0" t="s">
-        <v>11031</v>
+        <v>12034</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="0" t="s">
-        <v>11032</v>
+        <v>12035</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12036" uniqueCount="12036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13039" uniqueCount="13039">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -36128,6 +36128,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104137.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104133.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104108.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104105.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104103.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104102.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104101.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104099.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104090.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104088.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104084.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104083.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104079.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104078.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104077.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104052.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104051.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104046.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104040.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104037.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104032.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104027.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104026.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104024.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104018.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104015.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104014.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104013.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104012.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104009.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103990.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103977.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103960.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103955.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103953.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103951.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103948.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103937.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103935.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103933.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103932.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103931.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103917.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103913.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103910.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103901.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103900.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103892.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103890.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103889.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103888.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103887.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103884.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103882.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103881.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103880.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103879.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103878.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103877.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103876.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103875.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103874.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103873.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103871.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103870.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103869.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103868.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103867.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103866.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103865.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103863.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103862.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103859.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103855.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103851.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103846.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103845.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103844.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103843.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103839.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103838.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103837.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103836.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103835.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103833.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103826.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103825.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103818.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103814.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103813.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103812.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103811.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103810.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102834.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102828.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102815.html</t>
   </si>
 </sst>
 </file>
@@ -36148,7 +39157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -36167,11 +39176,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -36184,6 +39194,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -36509,5017 +39520,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11033</v>
+        <v>12036</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>11034</v>
+        <v>12037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>11035</v>
+        <v>12038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>11036</v>
+        <v>12039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11037</v>
+        <v>12040</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>11038</v>
+        <v>12041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>11039</v>
+        <v>12042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>11040</v>
+        <v>12043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>11041</v>
+        <v>12044</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>11042</v>
+        <v>12045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>11043</v>
+        <v>12046</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11044</v>
+        <v>12047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>11045</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>11046</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>11047</v>
+        <v>12050</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>11048</v>
+        <v>12051</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>11049</v>
+        <v>12052</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>11050</v>
+        <v>12053</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>11051</v>
+        <v>12054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>11052</v>
+        <v>12055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>11053</v>
+        <v>12056</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>11054</v>
+        <v>12057</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>11055</v>
+        <v>12058</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>11056</v>
+        <v>12059</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>11057</v>
+        <v>12060</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>11058</v>
+        <v>12061</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>11059</v>
+        <v>12062</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>11060</v>
+        <v>12063</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>11061</v>
+        <v>12064</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>11062</v>
+        <v>12065</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>11063</v>
+        <v>12066</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>11064</v>
+        <v>12067</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>11065</v>
+        <v>12068</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>11066</v>
+        <v>12069</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>11067</v>
+        <v>12070</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>11068</v>
+        <v>12071</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>11069</v>
+        <v>12072</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>11070</v>
+        <v>12073</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>11071</v>
+        <v>12074</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>11072</v>
+        <v>12075</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>11073</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>11074</v>
+        <v>12077</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>11075</v>
+        <v>12078</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>11076</v>
+        <v>12079</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>11077</v>
+        <v>12080</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>11078</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>11079</v>
+        <v>12082</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>11080</v>
+        <v>12083</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>11081</v>
+        <v>12084</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>11082</v>
+        <v>12085</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>11083</v>
+        <v>12086</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>11084</v>
+        <v>12087</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>11085</v>
+        <v>12088</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>11086</v>
+        <v>12089</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>11087</v>
+        <v>12090</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>11088</v>
+        <v>12091</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>11089</v>
+        <v>12092</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>11090</v>
+        <v>12093</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>11091</v>
+        <v>12094</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>11092</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>11093</v>
+        <v>12096</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>11094</v>
+        <v>12097</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>11095</v>
+        <v>12098</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>11096</v>
+        <v>12099</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>11097</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>11098</v>
+        <v>12101</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>11099</v>
+        <v>12102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>11100</v>
+        <v>12103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>11101</v>
+        <v>12104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>11102</v>
+        <v>12105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>11103</v>
+        <v>12106</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>11104</v>
+        <v>12107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>11105</v>
+        <v>12108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>11106</v>
+        <v>12109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>11107</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>11108</v>
+        <v>12111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>11109</v>
+        <v>12112</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>11110</v>
+        <v>12113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>11111</v>
+        <v>12114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>11112</v>
+        <v>12115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>11113</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>11114</v>
+        <v>12117</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>11115</v>
+        <v>12118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>11116</v>
+        <v>12119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>11117</v>
+        <v>12120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>11118</v>
+        <v>12121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>11119</v>
+        <v>12122</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>11120</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>11121</v>
+        <v>12124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>11122</v>
+        <v>12125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>11123</v>
+        <v>12126</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>11124</v>
+        <v>12127</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>11125</v>
+        <v>12128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>11126</v>
+        <v>12129</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>11127</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>11128</v>
+        <v>12131</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>11129</v>
+        <v>12132</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>11130</v>
+        <v>12133</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>11131</v>
+        <v>12134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>11132</v>
+        <v>12135</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>11133</v>
+        <v>12136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>11134</v>
+        <v>12137</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>11135</v>
+        <v>12138</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>11136</v>
+        <v>12139</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>11137</v>
+        <v>12140</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>11138</v>
+        <v>12141</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>11139</v>
+        <v>12142</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>11140</v>
+        <v>12143</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>11141</v>
+        <v>12144</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>11142</v>
+        <v>12145</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>11143</v>
+        <v>12146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>11144</v>
+        <v>12147</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>11145</v>
+        <v>12148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>11146</v>
+        <v>12149</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>11147</v>
+        <v>12150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>11148</v>
+        <v>12151</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>11149</v>
+        <v>12152</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>11150</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>11151</v>
+        <v>12154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>11152</v>
+        <v>12155</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>11153</v>
+        <v>12156</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>11154</v>
+        <v>12157</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>11155</v>
+        <v>12158</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>11156</v>
+        <v>12159</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>11157</v>
+        <v>12160</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>11158</v>
+        <v>12161</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>11159</v>
+        <v>12162</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>11160</v>
+        <v>12163</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>11161</v>
+        <v>12164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>11162</v>
+        <v>12165</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>11163</v>
+        <v>12166</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>11164</v>
+        <v>12167</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>11165</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>11166</v>
+        <v>12169</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>11167</v>
+        <v>12170</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>11168</v>
+        <v>12171</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>11169</v>
+        <v>12172</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>11170</v>
+        <v>12173</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>11171</v>
+        <v>12174</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>11172</v>
+        <v>12175</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>11173</v>
+        <v>12176</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>11174</v>
+        <v>12177</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>11175</v>
+        <v>12178</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>11176</v>
+        <v>12179</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>11177</v>
+        <v>12180</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>11178</v>
+        <v>12181</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>11179</v>
+        <v>12182</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>11180</v>
+        <v>12183</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>11181</v>
+        <v>12184</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>11182</v>
+        <v>12185</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>11183</v>
+        <v>12186</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>11184</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>11185</v>
+        <v>12188</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>11186</v>
+        <v>12189</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>11187</v>
+        <v>12190</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>11188</v>
+        <v>12191</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>11189</v>
+        <v>12192</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>11190</v>
+        <v>12193</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>11191</v>
+        <v>12194</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>11192</v>
+        <v>12195</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>11193</v>
+        <v>12196</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>11194</v>
+        <v>12197</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>11195</v>
+        <v>12198</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>11196</v>
+        <v>12199</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>11197</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>11198</v>
+        <v>12201</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>11199</v>
+        <v>12202</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>11200</v>
+        <v>12203</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>11201</v>
+        <v>12204</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>11202</v>
+        <v>12205</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>11203</v>
+        <v>12206</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>11204</v>
+        <v>12207</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>11205</v>
+        <v>12208</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>11206</v>
+        <v>12209</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>11207</v>
+        <v>12210</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>11208</v>
+        <v>12211</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>11209</v>
+        <v>12212</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>11210</v>
+        <v>12213</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>11211</v>
+        <v>12214</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>11212</v>
+        <v>12215</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>11213</v>
+        <v>12216</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>11214</v>
+        <v>12217</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>11215</v>
+        <v>12218</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>11216</v>
+        <v>12219</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>11217</v>
+        <v>12220</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>11218</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>11219</v>
+        <v>12222</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>11220</v>
+        <v>12223</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>11221</v>
+        <v>12224</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>11222</v>
+        <v>12225</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>11223</v>
+        <v>12226</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>11224</v>
+        <v>12227</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>11225</v>
+        <v>12228</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>11226</v>
+        <v>12229</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>11227</v>
+        <v>12230</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>11228</v>
+        <v>12231</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>11229</v>
+        <v>12232</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>11230</v>
+        <v>12233</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>11231</v>
+        <v>12234</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>11232</v>
+        <v>12235</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>11233</v>
+        <v>12236</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>11234</v>
+        <v>12237</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>11235</v>
+        <v>12238</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>11236</v>
+        <v>12239</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>11237</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>11238</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>11239</v>
+        <v>12242</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>11240</v>
+        <v>12243</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>11241</v>
+        <v>12244</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>11242</v>
+        <v>12245</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>11243</v>
+        <v>12246</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>11244</v>
+        <v>12247</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>11245</v>
+        <v>12248</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>11246</v>
+        <v>12249</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>11247</v>
+        <v>12250</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>11248</v>
+        <v>12251</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>11249</v>
+        <v>12252</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>11250</v>
+        <v>12253</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>11251</v>
+        <v>12254</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>11252</v>
+        <v>12255</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>11253</v>
+        <v>12256</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>11254</v>
+        <v>12257</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>11255</v>
+        <v>12258</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>11256</v>
+        <v>12259</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>11257</v>
+        <v>12260</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>11258</v>
+        <v>12261</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>11259</v>
+        <v>12262</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>11260</v>
+        <v>12263</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>11261</v>
+        <v>12264</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>11262</v>
+        <v>12265</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>11263</v>
+        <v>12266</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>11264</v>
+        <v>12267</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>11265</v>
+        <v>12268</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>11266</v>
+        <v>12269</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>11267</v>
+        <v>12270</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>11268</v>
+        <v>12271</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>11269</v>
+        <v>12272</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>11270</v>
+        <v>12273</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>11271</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>11272</v>
+        <v>12275</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>11273</v>
+        <v>12276</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>11274</v>
+        <v>12277</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>11275</v>
+        <v>12278</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>11276</v>
+        <v>12279</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>11277</v>
+        <v>12280</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>11278</v>
+        <v>12281</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>11279</v>
+        <v>12282</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>11280</v>
+        <v>12283</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>11281</v>
+        <v>12284</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>11282</v>
+        <v>12285</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>11283</v>
+        <v>12286</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>11284</v>
+        <v>12287</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>11285</v>
+        <v>12288</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>11286</v>
+        <v>12289</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>11287</v>
+        <v>12290</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>11288</v>
+        <v>12291</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>11289</v>
+        <v>12292</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>11290</v>
+        <v>12293</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>11291</v>
+        <v>12294</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>11292</v>
+        <v>12295</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>11293</v>
+        <v>12296</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>11294</v>
+        <v>12297</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>11295</v>
+        <v>12298</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>11296</v>
+        <v>12299</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>11297</v>
+        <v>12300</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>11298</v>
+        <v>12301</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>11299</v>
+        <v>12302</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>11300</v>
+        <v>12303</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>11301</v>
+        <v>12304</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>11302</v>
+        <v>12305</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>11303</v>
+        <v>12306</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>11304</v>
+        <v>12307</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>11305</v>
+        <v>12308</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>11306</v>
+        <v>12309</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>11307</v>
+        <v>12310</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>11308</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>11309</v>
+        <v>12312</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>11310</v>
+        <v>12313</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>11311</v>
+        <v>12314</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>11312</v>
+        <v>12315</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>11313</v>
+        <v>12316</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>11314</v>
+        <v>12317</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>11315</v>
+        <v>12318</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>11316</v>
+        <v>12319</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>11317</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>11318</v>
+        <v>12321</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>11319</v>
+        <v>12322</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>11320</v>
+        <v>12323</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>11321</v>
+        <v>12324</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>11322</v>
+        <v>12325</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>11323</v>
+        <v>12326</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>11324</v>
+        <v>12327</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>11325</v>
+        <v>12328</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>11326</v>
+        <v>12329</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>11327</v>
+        <v>12330</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>11328</v>
+        <v>12331</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>11329</v>
+        <v>12332</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>11330</v>
+        <v>12333</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>11331</v>
+        <v>12334</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>11332</v>
+        <v>12335</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>11333</v>
+        <v>12336</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>11334</v>
+        <v>12337</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>11335</v>
+        <v>12338</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>11336</v>
+        <v>12339</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>11337</v>
+        <v>12340</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>11338</v>
+        <v>12341</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>11339</v>
+        <v>12342</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>11340</v>
+        <v>12343</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>11341</v>
+        <v>12344</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>11342</v>
+        <v>12345</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>11343</v>
+        <v>12346</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>11344</v>
+        <v>12347</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>11345</v>
+        <v>12348</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>11346</v>
+        <v>12349</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>11347</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>11348</v>
+        <v>12351</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>11349</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>11350</v>
+        <v>12353</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>11351</v>
+        <v>12354</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>11352</v>
+        <v>12355</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>11353</v>
+        <v>12356</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>11354</v>
+        <v>12357</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>11355</v>
+        <v>12358</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>11356</v>
+        <v>12359</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>11357</v>
+        <v>12360</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>11358</v>
+        <v>12361</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>11359</v>
+        <v>12362</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>11360</v>
+        <v>12363</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>11361</v>
+        <v>12364</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>11362</v>
+        <v>12365</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>11363</v>
+        <v>12366</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>11364</v>
+        <v>12367</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>11365</v>
+        <v>12368</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>11366</v>
+        <v>12369</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>11367</v>
+        <v>12370</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>11368</v>
+        <v>12371</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>11369</v>
+        <v>12372</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>11370</v>
+        <v>12373</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>11371</v>
+        <v>12374</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>11372</v>
+        <v>12375</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>11373</v>
+        <v>12376</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>11374</v>
+        <v>12377</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>11375</v>
+        <v>12378</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>11376</v>
+        <v>12379</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>11377</v>
+        <v>12380</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>11378</v>
+        <v>12381</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>11379</v>
+        <v>12382</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>11380</v>
+        <v>12383</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>11381</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>11382</v>
+        <v>12385</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>11383</v>
+        <v>12386</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>11384</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>11385</v>
+        <v>12388</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>11386</v>
+        <v>12389</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>11387</v>
+        <v>12390</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>11388</v>
+        <v>12391</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>11389</v>
+        <v>12392</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>11390</v>
+        <v>12393</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>11391</v>
+        <v>12394</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>11392</v>
+        <v>12395</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>11393</v>
+        <v>12396</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>11394</v>
+        <v>12397</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>11395</v>
+        <v>12398</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>11396</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>11397</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>11398</v>
+        <v>12401</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>11399</v>
+        <v>12402</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>11400</v>
+        <v>12403</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>11401</v>
+        <v>12404</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>11402</v>
+        <v>12405</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>11403</v>
+        <v>12406</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>11404</v>
+        <v>12407</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>11405</v>
+        <v>12408</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>11406</v>
+        <v>12409</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>11407</v>
+        <v>12410</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>11408</v>
+        <v>12411</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>11409</v>
+        <v>12412</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>11410</v>
+        <v>12413</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>11411</v>
+        <v>12414</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>11412</v>
+        <v>12415</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>11413</v>
+        <v>12416</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>11414</v>
+        <v>12417</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>11415</v>
+        <v>12418</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>11416</v>
+        <v>12419</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>11417</v>
+        <v>12420</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>11418</v>
+        <v>12421</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>11419</v>
+        <v>12422</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>11420</v>
+        <v>12423</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>11421</v>
+        <v>12424</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>11422</v>
+        <v>12425</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>11423</v>
+        <v>12426</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>11424</v>
+        <v>12427</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>11425</v>
+        <v>12428</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>11426</v>
+        <v>12429</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>11427</v>
+        <v>12430</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>11428</v>
+        <v>12431</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>11429</v>
+        <v>12432</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>11430</v>
+        <v>12433</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>11431</v>
+        <v>12434</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>11432</v>
+        <v>12435</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>11433</v>
+        <v>12436</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>11434</v>
+        <v>12437</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>11435</v>
+        <v>12438</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>11436</v>
+        <v>12439</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>11437</v>
+        <v>12440</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>11438</v>
+        <v>12441</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>11439</v>
+        <v>12442</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>11440</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>11441</v>
+        <v>12444</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>11442</v>
+        <v>12445</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>11443</v>
+        <v>12446</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>11444</v>
+        <v>12447</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>11445</v>
+        <v>12448</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>11446</v>
+        <v>12449</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>11447</v>
+        <v>12450</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>11448</v>
+        <v>12451</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>11449</v>
+        <v>12452</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>11450</v>
+        <v>12453</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>11451</v>
+        <v>12454</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>11452</v>
+        <v>12455</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>11453</v>
+        <v>12456</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>11454</v>
+        <v>12457</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>11455</v>
+        <v>12458</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>11456</v>
+        <v>12459</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>11457</v>
+        <v>12460</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>11458</v>
+        <v>12461</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>11459</v>
+        <v>12462</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>11460</v>
+        <v>12463</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>11461</v>
+        <v>12464</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>11462</v>
+        <v>12465</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>11463</v>
+        <v>12466</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>11464</v>
+        <v>12467</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>11465</v>
+        <v>12468</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>11466</v>
+        <v>12469</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>11467</v>
+        <v>12470</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>11468</v>
+        <v>12471</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>11469</v>
+        <v>12472</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>11470</v>
+        <v>12473</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>11471</v>
+        <v>12474</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>11472</v>
+        <v>12475</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>11473</v>
+        <v>12476</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>11474</v>
+        <v>12477</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>11475</v>
+        <v>12478</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>11476</v>
+        <v>12479</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>11477</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>11478</v>
+        <v>12481</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>11479</v>
+        <v>12482</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>11480</v>
+        <v>12483</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>11481</v>
+        <v>12484</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>11482</v>
+        <v>12485</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>11483</v>
+        <v>12486</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>11484</v>
+        <v>12487</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>11485</v>
+        <v>12488</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>11486</v>
+        <v>12489</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>11487</v>
+        <v>12490</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>11488</v>
+        <v>12491</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>11489</v>
+        <v>12492</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>11490</v>
+        <v>12493</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>11491</v>
+        <v>12494</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>11492</v>
+        <v>12495</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>11493</v>
+        <v>12496</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>11494</v>
+        <v>12497</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>11495</v>
+        <v>12498</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>11496</v>
+        <v>12499</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>11497</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>11498</v>
+        <v>12501</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>11499</v>
+        <v>12502</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>11500</v>
+        <v>12503</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>11501</v>
+        <v>12504</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>11502</v>
+        <v>12505</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>11503</v>
+        <v>12506</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>11504</v>
+        <v>12507</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>11505</v>
+        <v>12508</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>11506</v>
+        <v>12509</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>11507</v>
+        <v>12510</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>11508</v>
+        <v>12511</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>11509</v>
+        <v>12512</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>11510</v>
+        <v>12513</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>11511</v>
+        <v>12514</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>11512</v>
+        <v>12515</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>11513</v>
+        <v>12516</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>11514</v>
+        <v>12517</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>11515</v>
+        <v>12518</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>11516</v>
+        <v>12519</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>11517</v>
+        <v>12520</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>11518</v>
+        <v>12521</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>11519</v>
+        <v>12522</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>11520</v>
+        <v>12523</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>11521</v>
+        <v>12524</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>11522</v>
+        <v>12525</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>11523</v>
+        <v>12526</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>11524</v>
+        <v>12527</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>11525</v>
+        <v>12528</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>11526</v>
+        <v>12529</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>11527</v>
+        <v>12530</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>11528</v>
+        <v>12531</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>11529</v>
+        <v>12532</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>11530</v>
+        <v>12533</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>11531</v>
+        <v>12534</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>11532</v>
+        <v>12535</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>11533</v>
+        <v>12536</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>11534</v>
+        <v>12537</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>11535</v>
+        <v>12538</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>11536</v>
+        <v>12539</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>11537</v>
+        <v>12540</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>11538</v>
+        <v>12541</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>11539</v>
+        <v>12542</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>11540</v>
+        <v>12543</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>11541</v>
+        <v>12544</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>11542</v>
+        <v>12545</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>11543</v>
+        <v>12546</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>11544</v>
+        <v>12547</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>11545</v>
+        <v>12548</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>11546</v>
+        <v>12549</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>11547</v>
+        <v>12550</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>11548</v>
+        <v>12551</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>11549</v>
+        <v>12552</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>11550</v>
+        <v>12553</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>11551</v>
+        <v>12554</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>11552</v>
+        <v>12555</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>11553</v>
+        <v>12556</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>11554</v>
+        <v>12557</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>11555</v>
+        <v>12558</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>11556</v>
+        <v>12559</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>11557</v>
+        <v>12560</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>11558</v>
+        <v>12561</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>11559</v>
+        <v>12562</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>11560</v>
+        <v>12563</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>11561</v>
+        <v>12564</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>11562</v>
+        <v>12565</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>11563</v>
+        <v>12566</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>11564</v>
+        <v>12567</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>11565</v>
+        <v>12568</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>11566</v>
+        <v>12569</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>11567</v>
+        <v>12570</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>11568</v>
+        <v>12571</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>11569</v>
+        <v>12572</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>11570</v>
+        <v>12573</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>11571</v>
+        <v>12574</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>11572</v>
+        <v>12575</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>11573</v>
+        <v>12576</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>11574</v>
+        <v>12577</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>11575</v>
+        <v>12578</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>11576</v>
+        <v>12579</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>11577</v>
+        <v>12580</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>11578</v>
+        <v>12581</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>11579</v>
+        <v>12582</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>11580</v>
+        <v>12583</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>11581</v>
+        <v>12584</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>11582</v>
+        <v>12585</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>11583</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>11584</v>
+        <v>12587</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>11585</v>
+        <v>12588</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>11586</v>
+        <v>12589</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>11587</v>
+        <v>12590</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>11588</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>11589</v>
+        <v>12592</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>11590</v>
+        <v>12593</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>11591</v>
+        <v>12594</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>11592</v>
+        <v>12595</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>11593</v>
+        <v>12596</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>11594</v>
+        <v>12597</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>11595</v>
+        <v>12598</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>11596</v>
+        <v>12599</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>11597</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>11598</v>
+        <v>12601</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>11599</v>
+        <v>12602</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>11600</v>
+        <v>12603</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>11601</v>
+        <v>12604</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>11602</v>
+        <v>12605</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>11603</v>
+        <v>12606</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>11604</v>
+        <v>12607</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>11605</v>
+        <v>12608</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>11606</v>
+        <v>12609</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>11607</v>
+        <v>12610</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>11608</v>
+        <v>12611</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>11609</v>
+        <v>12612</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>11610</v>
+        <v>12613</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>11611</v>
+        <v>12614</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>11612</v>
+        <v>12615</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>11613</v>
+        <v>12616</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>11614</v>
+        <v>12617</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>11615</v>
+        <v>12618</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>11616</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>11617</v>
+        <v>12620</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>11618</v>
+        <v>12621</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>11619</v>
+        <v>12622</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>11620</v>
+        <v>12623</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>11621</v>
+        <v>12624</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>11622</v>
+        <v>12625</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>11623</v>
+        <v>12626</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>11624</v>
+        <v>12627</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>11625</v>
+        <v>12628</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>11626</v>
+        <v>12629</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>11627</v>
+        <v>12630</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>11628</v>
+        <v>12631</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>11629</v>
+        <v>12632</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>11630</v>
+        <v>12633</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>11631</v>
+        <v>12634</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>11632</v>
+        <v>12635</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>11633</v>
+        <v>12636</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>11634</v>
+        <v>12637</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>11635</v>
+        <v>12638</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>11636</v>
+        <v>12639</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>11637</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>11638</v>
+        <v>12641</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>11639</v>
+        <v>12642</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>11640</v>
+        <v>12643</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>11641</v>
+        <v>12644</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>11642</v>
+        <v>12645</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>11643</v>
+        <v>12646</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>11644</v>
+        <v>12647</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>11645</v>
+        <v>12648</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>11646</v>
+        <v>12649</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>11647</v>
+        <v>12650</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>11648</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>11649</v>
+        <v>12652</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>11650</v>
+        <v>12653</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>11651</v>
+        <v>12654</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>11652</v>
+        <v>12655</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>11653</v>
+        <v>12656</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>11654</v>
+        <v>12657</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>11655</v>
+        <v>12658</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>11656</v>
+        <v>12659</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>11657</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>11658</v>
+        <v>12661</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>11659</v>
+        <v>12662</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>11660</v>
+        <v>12663</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>11661</v>
+        <v>12664</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>11662</v>
+        <v>12665</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>11663</v>
+        <v>12666</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>11664</v>
+        <v>12667</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>11665</v>
+        <v>12668</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>11666</v>
+        <v>12669</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>11667</v>
+        <v>12670</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>11668</v>
+        <v>12671</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>11669</v>
+        <v>12672</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>11670</v>
+        <v>12673</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>11671</v>
+        <v>12674</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>11672</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>11673</v>
+        <v>12676</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>11674</v>
+        <v>12677</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>11675</v>
+        <v>12678</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>11676</v>
+        <v>12679</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>11677</v>
+        <v>12680</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>11678</v>
+        <v>12681</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>11679</v>
+        <v>12682</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>11680</v>
+        <v>12683</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>11681</v>
+        <v>12684</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>11682</v>
+        <v>12685</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>11683</v>
+        <v>12686</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>11684</v>
+        <v>12687</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>11685</v>
+        <v>12688</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>11686</v>
+        <v>12689</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>11687</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>11688</v>
+        <v>12691</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>11689</v>
+        <v>12692</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>11690</v>
+        <v>12693</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>11691</v>
+        <v>12694</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>11692</v>
+        <v>12695</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>11693</v>
+        <v>12696</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>11694</v>
+        <v>12697</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>11695</v>
+        <v>12698</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>11696</v>
+        <v>12699</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>11697</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>11698</v>
+        <v>12701</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>11699</v>
+        <v>12702</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>11700</v>
+        <v>12703</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>11701</v>
+        <v>12704</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>11702</v>
+        <v>12705</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>11703</v>
+        <v>12706</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>11704</v>
+        <v>12707</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>11705</v>
+        <v>12708</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>11706</v>
+        <v>12709</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>11707</v>
+        <v>12710</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>11708</v>
+        <v>12711</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>11709</v>
+        <v>12712</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>11710</v>
+        <v>12713</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>11711</v>
+        <v>12714</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>11712</v>
+        <v>12715</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>11713</v>
+        <v>12716</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>11714</v>
+        <v>12717</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>11715</v>
+        <v>12718</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>11716</v>
+        <v>12719</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>11717</v>
+        <v>12720</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>11718</v>
+        <v>12721</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>11719</v>
+        <v>12722</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>11720</v>
+        <v>12723</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="0" t="s">
-        <v>11721</v>
+        <v>12724</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="0" t="s">
-        <v>11722</v>
+        <v>12725</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="0" t="s">
-        <v>11723</v>
+        <v>12726</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="0" t="s">
-        <v>11724</v>
+        <v>12727</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="0" t="s">
-        <v>11725</v>
+        <v>12728</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="0" t="s">
-        <v>11726</v>
+        <v>12729</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="0" t="s">
-        <v>11727</v>
+        <v>12730</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="0" t="s">
-        <v>11728</v>
+        <v>12731</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="0" t="s">
-        <v>11729</v>
+        <v>12732</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="0" t="s">
-        <v>11730</v>
+        <v>12733</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="0" t="s">
-        <v>11731</v>
+        <v>12734</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="0" t="s">
-        <v>11732</v>
+        <v>12735</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="0" t="s">
-        <v>11733</v>
+        <v>12736</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="0" t="s">
-        <v>11734</v>
+        <v>12737</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="0" t="s">
-        <v>11735</v>
+        <v>12738</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="0" t="s">
-        <v>11736</v>
+        <v>12739</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="0" t="s">
-        <v>11737</v>
+        <v>12740</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="0" t="s">
-        <v>11738</v>
+        <v>12741</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="0" t="s">
-        <v>11739</v>
+        <v>12742</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="0" t="s">
-        <v>11740</v>
+        <v>12743</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="0" t="s">
-        <v>11741</v>
+        <v>12744</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="0" t="s">
-        <v>11742</v>
+        <v>12745</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="0" t="s">
-        <v>11743</v>
+        <v>12746</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="0" t="s">
-        <v>11744</v>
+        <v>12747</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="0" t="s">
-        <v>11745</v>
+        <v>12748</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="0" t="s">
-        <v>11746</v>
+        <v>12749</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="0" t="s">
-        <v>11747</v>
+        <v>12750</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="0" t="s">
-        <v>11748</v>
+        <v>12751</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="0" t="s">
-        <v>11749</v>
+        <v>12752</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="0" t="s">
-        <v>11750</v>
+        <v>12753</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="0" t="s">
-        <v>11751</v>
+        <v>12754</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="0" t="s">
-        <v>11752</v>
+        <v>12755</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="0" t="s">
-        <v>11753</v>
+        <v>12756</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="0" t="s">
-        <v>11754</v>
+        <v>12757</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="0" t="s">
-        <v>11755</v>
+        <v>12758</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="0" t="s">
-        <v>11756</v>
+        <v>12759</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="0" t="s">
-        <v>11757</v>
+        <v>12760</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="0" t="s">
-        <v>11758</v>
+        <v>12761</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="0" t="s">
-        <v>11759</v>
+        <v>12762</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="0" t="s">
-        <v>11760</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="0" t="s">
-        <v>11761</v>
+        <v>12764</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="0" t="s">
-        <v>11762</v>
+        <v>12765</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="0" t="s">
-        <v>11763</v>
+        <v>12766</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="0" t="s">
-        <v>11764</v>
+        <v>12767</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="0" t="s">
-        <v>11765</v>
+        <v>12768</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="0" t="s">
-        <v>11766</v>
+        <v>12769</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="0" t="s">
-        <v>11767</v>
+        <v>12770</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="0" t="s">
-        <v>11768</v>
+        <v>12771</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="0" t="s">
-        <v>11769</v>
+        <v>12772</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="0" t="s">
-        <v>11770</v>
+        <v>12773</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="0" t="s">
-        <v>11771</v>
+        <v>12774</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="0" t="s">
-        <v>11772</v>
+        <v>12775</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="0" t="s">
-        <v>11773</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="0" t="s">
-        <v>11774</v>
+        <v>12777</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="0" t="s">
-        <v>11775</v>
+        <v>12778</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="0" t="s">
-        <v>11776</v>
+        <v>12779</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="0" t="s">
-        <v>11777</v>
+        <v>12780</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="0" t="s">
-        <v>11778</v>
+        <v>12781</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="0" t="s">
-        <v>11779</v>
+        <v>12782</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="0" t="s">
-        <v>11780</v>
+        <v>12783</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="0" t="s">
-        <v>11781</v>
+        <v>12784</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="0" t="s">
-        <v>11782</v>
+        <v>12785</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="0" t="s">
-        <v>11783</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="0" t="s">
-        <v>11784</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="0" t="s">
-        <v>11785</v>
+        <v>12788</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="0" t="s">
-        <v>11786</v>
+        <v>12789</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="0" t="s">
-        <v>11787</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="0" t="s">
-        <v>11788</v>
+        <v>12791</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="0" t="s">
-        <v>11789</v>
+        <v>12792</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="0" t="s">
-        <v>11790</v>
+        <v>12793</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="0" t="s">
-        <v>11791</v>
+        <v>12794</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="0" t="s">
-        <v>11792</v>
+        <v>12795</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="0" t="s">
-        <v>11793</v>
+        <v>12796</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="0" t="s">
-        <v>11794</v>
+        <v>12797</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="0" t="s">
-        <v>11795</v>
+        <v>12798</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="0" t="s">
-        <v>11796</v>
+        <v>12799</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="0" t="s">
-        <v>11797</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="0" t="s">
-        <v>11798</v>
+        <v>12801</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="0" t="s">
-        <v>11799</v>
+        <v>12802</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="0" t="s">
-        <v>11800</v>
+        <v>12803</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="0" t="s">
-        <v>11801</v>
+        <v>12804</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="0" t="s">
-        <v>11802</v>
+        <v>12805</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="0" t="s">
-        <v>11803</v>
+        <v>12806</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="0" t="s">
-        <v>11804</v>
+        <v>12807</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="0" t="s">
-        <v>11805</v>
+        <v>12808</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="0" t="s">
-        <v>11806</v>
+        <v>12809</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="0" t="s">
-        <v>11807</v>
+        <v>12810</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="0" t="s">
-        <v>11808</v>
+        <v>12811</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="0" t="s">
-        <v>11809</v>
+        <v>12812</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="0" t="s">
-        <v>11810</v>
+        <v>12813</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="0" t="s">
-        <v>11811</v>
+        <v>12814</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="0" t="s">
-        <v>11812</v>
+        <v>12815</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="0" t="s">
-        <v>11813</v>
+        <v>12816</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="0" t="s">
-        <v>11814</v>
+        <v>12817</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="0" t="s">
-        <v>11815</v>
+        <v>12818</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="0" t="s">
-        <v>11816</v>
+        <v>12819</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="0" t="s">
-        <v>11817</v>
+        <v>12820</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="0" t="s">
-        <v>11818</v>
+        <v>12821</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="0" t="s">
-        <v>11819</v>
+        <v>12822</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="0" t="s">
-        <v>11820</v>
+        <v>12823</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="0" t="s">
-        <v>11821</v>
+        <v>12824</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="0" t="s">
-        <v>11822</v>
+        <v>12825</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="0" t="s">
-        <v>11823</v>
+        <v>12826</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="0" t="s">
-        <v>11824</v>
+        <v>12827</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="0" t="s">
-        <v>11825</v>
+        <v>12828</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="0" t="s">
-        <v>11826</v>
+        <v>12829</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="0" t="s">
-        <v>11827</v>
+        <v>12830</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="0" t="s">
-        <v>11828</v>
+        <v>12831</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="0" t="s">
-        <v>11829</v>
+        <v>12832</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="0" t="s">
-        <v>11830</v>
+        <v>12833</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="0" t="s">
-        <v>11831</v>
+        <v>12834</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="0" t="s">
-        <v>11832</v>
+        <v>12835</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="0" t="s">
-        <v>11833</v>
+        <v>12836</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="0" t="s">
-        <v>11834</v>
+        <v>12837</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="0" t="s">
-        <v>11835</v>
+        <v>12838</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="0" t="s">
-        <v>11836</v>
+        <v>12839</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="0" t="s">
-        <v>11837</v>
+        <v>12840</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="0" t="s">
-        <v>11838</v>
+        <v>12841</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="0" t="s">
-        <v>11839</v>
+        <v>12842</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="0" t="s">
-        <v>11840</v>
+        <v>12843</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="0" t="s">
-        <v>11841</v>
+        <v>12844</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="0" t="s">
-        <v>11842</v>
+        <v>12845</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="0" t="s">
-        <v>11843</v>
+        <v>12846</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="0" t="s">
-        <v>11844</v>
+        <v>12847</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="0" t="s">
-        <v>11845</v>
+        <v>12848</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="0" t="s">
-        <v>11846</v>
+        <v>12849</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="0" t="s">
-        <v>11847</v>
+        <v>12850</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="0" t="s">
-        <v>11848</v>
+        <v>12851</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="0" t="s">
-        <v>11849</v>
+        <v>12852</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="0" t="s">
-        <v>11850</v>
+        <v>12853</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="0" t="s">
-        <v>11851</v>
+        <v>12854</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="0" t="s">
-        <v>11852</v>
+        <v>12855</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="0" t="s">
-        <v>11853</v>
+        <v>12856</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="0" t="s">
-        <v>11854</v>
+        <v>12857</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="0" t="s">
-        <v>11855</v>
+        <v>12858</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="0" t="s">
-        <v>11856</v>
+        <v>12859</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="0" t="s">
-        <v>11857</v>
+        <v>12860</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="0" t="s">
-        <v>11858</v>
+        <v>12861</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="0" t="s">
-        <v>11859</v>
+        <v>12862</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="0" t="s">
-        <v>11860</v>
+        <v>12863</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="0" t="s">
-        <v>11861</v>
+        <v>12864</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="0" t="s">
-        <v>11862</v>
+        <v>12865</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="0" t="s">
-        <v>11863</v>
+        <v>12866</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="0" t="s">
-        <v>11864</v>
+        <v>12867</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="0" t="s">
-        <v>11865</v>
+        <v>12868</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="0" t="s">
-        <v>11866</v>
+        <v>12869</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="0" t="s">
-        <v>11867</v>
+        <v>12870</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="0" t="s">
-        <v>11868</v>
+        <v>12871</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="0" t="s">
-        <v>11869</v>
+        <v>12872</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="0" t="s">
-        <v>11870</v>
+        <v>12873</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="0" t="s">
-        <v>11871</v>
+        <v>12874</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="0" t="s">
-        <v>11872</v>
+        <v>12875</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="0" t="s">
-        <v>11873</v>
+        <v>12876</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="0" t="s">
-        <v>11874</v>
+        <v>12877</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="0" t="s">
-        <v>11875</v>
+        <v>12878</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="0" t="s">
-        <v>11876</v>
+        <v>12879</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="0" t="s">
-        <v>11877</v>
+        <v>12880</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="0" t="s">
-        <v>11878</v>
+        <v>12881</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="0" t="s">
-        <v>11879</v>
+        <v>12882</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="0" t="s">
-        <v>11880</v>
+        <v>12883</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="0" t="s">
-        <v>11881</v>
+        <v>12884</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="0" t="s">
-        <v>11882</v>
+        <v>12885</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="0" t="s">
-        <v>11883</v>
+        <v>12886</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="0" t="s">
-        <v>11884</v>
+        <v>12887</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="0" t="s">
-        <v>11885</v>
+        <v>12888</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="0" t="s">
-        <v>11886</v>
+        <v>12889</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="0" t="s">
-        <v>11887</v>
+        <v>12890</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="0" t="s">
-        <v>11888</v>
+        <v>12891</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="0" t="s">
-        <v>11889</v>
+        <v>12892</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="0" t="s">
-        <v>11890</v>
+        <v>12893</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="0" t="s">
-        <v>11891</v>
+        <v>12894</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="0" t="s">
-        <v>11892</v>
+        <v>12895</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="0" t="s">
-        <v>11893</v>
+        <v>12896</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="0" t="s">
-        <v>11894</v>
+        <v>12897</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="0" t="s">
-        <v>11895</v>
+        <v>12898</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="0" t="s">
-        <v>11896</v>
+        <v>12899</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="0" t="s">
-        <v>11897</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="0" t="s">
-        <v>11898</v>
+        <v>12901</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="0" t="s">
-        <v>11899</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="0" t="s">
-        <v>11900</v>
+        <v>12903</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="0" t="s">
-        <v>11901</v>
+        <v>12904</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="0" t="s">
-        <v>11902</v>
+        <v>12905</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="0" t="s">
-        <v>11903</v>
+        <v>12906</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="0" t="s">
-        <v>11904</v>
+        <v>12907</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="0" t="s">
-        <v>11905</v>
+        <v>12908</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="0" t="s">
-        <v>11906</v>
+        <v>12909</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="0" t="s">
-        <v>11907</v>
+        <v>12910</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="0" t="s">
-        <v>11908</v>
+        <v>12911</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="0" t="s">
-        <v>11909</v>
+        <v>12912</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="0" t="s">
-        <v>11910</v>
+        <v>12913</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="0" t="s">
-        <v>11911</v>
+        <v>12914</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="0" t="s">
-        <v>11912</v>
+        <v>12915</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="0" t="s">
-        <v>11913</v>
+        <v>12916</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="0" t="s">
-        <v>11914</v>
+        <v>12917</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="0" t="s">
-        <v>11915</v>
+        <v>12918</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="0" t="s">
-        <v>11916</v>
+        <v>12919</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="0" t="s">
-        <v>11917</v>
+        <v>12920</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="0" t="s">
-        <v>11918</v>
+        <v>12921</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="0" t="s">
-        <v>11919</v>
+        <v>12922</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="0" t="s">
-        <v>11920</v>
+        <v>12923</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="0" t="s">
-        <v>11921</v>
+        <v>12924</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="0" t="s">
-        <v>11922</v>
+        <v>12925</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="0" t="s">
-        <v>11923</v>
+        <v>12926</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="0" t="s">
-        <v>11924</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="0" t="s">
-        <v>11925</v>
+        <v>12928</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="0" t="s">
-        <v>11926</v>
+        <v>12929</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="0" t="s">
-        <v>11927</v>
+        <v>12930</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="0" t="s">
-        <v>11928</v>
+        <v>12931</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="0" t="s">
-        <v>11929</v>
+        <v>12932</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="0" t="s">
-        <v>11930</v>
+        <v>12933</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="0" t="s">
-        <v>11931</v>
+        <v>12934</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="0" t="s">
-        <v>11932</v>
+        <v>12935</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="0" t="s">
-        <v>11933</v>
+        <v>12936</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="0" t="s">
-        <v>11934</v>
+        <v>12937</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="0" t="s">
-        <v>11935</v>
+        <v>12938</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="0" t="s">
-        <v>11936</v>
+        <v>12939</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="0" t="s">
-        <v>11937</v>
+        <v>12940</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="0" t="s">
-        <v>11938</v>
+        <v>12941</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="0" t="s">
-        <v>11939</v>
+        <v>12942</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="0" t="s">
-        <v>11940</v>
+        <v>12943</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="0" t="s">
-        <v>11941</v>
+        <v>12944</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="0" t="s">
-        <v>11942</v>
+        <v>12945</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="0" t="s">
-        <v>11943</v>
+        <v>12946</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="0" t="s">
-        <v>11944</v>
+        <v>12947</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="0" t="s">
-        <v>11945</v>
+        <v>12948</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="0" t="s">
-        <v>11946</v>
+        <v>12949</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="0" t="s">
-        <v>11947</v>
+        <v>12950</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="0" t="s">
-        <v>11948</v>
+        <v>12951</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="0" t="s">
-        <v>11949</v>
+        <v>12952</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="0" t="s">
-        <v>11950</v>
+        <v>12953</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="0" t="s">
-        <v>11951</v>
+        <v>12954</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="0" t="s">
-        <v>11952</v>
+        <v>12955</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="0" t="s">
-        <v>11953</v>
+        <v>12956</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="0" t="s">
-        <v>11954</v>
+        <v>12957</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="0" t="s">
-        <v>11955</v>
+        <v>12958</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="0" t="s">
-        <v>11956</v>
+        <v>12959</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="0" t="s">
-        <v>11957</v>
+        <v>12960</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="0" t="s">
-        <v>11958</v>
+        <v>12961</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="0" t="s">
-        <v>11959</v>
+        <v>12962</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="0" t="s">
-        <v>11960</v>
+        <v>12963</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="0" t="s">
-        <v>11961</v>
+        <v>12964</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="0" t="s">
-        <v>11962</v>
+        <v>12965</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="0" t="s">
-        <v>11963</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="0" t="s">
-        <v>11964</v>
+        <v>12967</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="0" t="s">
-        <v>11965</v>
+        <v>12968</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="0" t="s">
-        <v>11966</v>
+        <v>12969</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="0" t="s">
-        <v>11967</v>
+        <v>12970</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="0" t="s">
-        <v>11968</v>
+        <v>12971</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="0" t="s">
-        <v>11969</v>
+        <v>12972</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="0" t="s">
-        <v>11970</v>
+        <v>12973</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="0" t="s">
-        <v>11971</v>
+        <v>12974</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="0" t="s">
-        <v>11972</v>
+        <v>12975</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="0" t="s">
-        <v>11973</v>
+        <v>12976</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="0" t="s">
-        <v>11974</v>
+        <v>12977</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="0" t="s">
-        <v>11975</v>
+        <v>12978</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="0" t="s">
-        <v>11976</v>
+        <v>12979</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="0" t="s">
-        <v>11977</v>
+        <v>12980</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="0" t="s">
-        <v>11978</v>
+        <v>12981</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="0" t="s">
-        <v>11979</v>
+        <v>12982</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="0" t="s">
-        <v>11980</v>
+        <v>12983</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="0" t="s">
-        <v>11981</v>
+        <v>12984</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="0" t="s">
-        <v>11982</v>
+        <v>12985</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="0" t="s">
-        <v>11983</v>
+        <v>12986</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="0" t="s">
-        <v>11984</v>
+        <v>12987</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="0" t="s">
-        <v>11985</v>
+        <v>12988</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="0" t="s">
-        <v>11986</v>
+        <v>12989</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="0" t="s">
-        <v>11987</v>
+        <v>12990</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="0" t="s">
-        <v>11988</v>
+        <v>12991</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="0" t="s">
-        <v>11989</v>
+        <v>12992</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="0" t="s">
-        <v>11990</v>
+        <v>12993</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="0" t="s">
-        <v>11991</v>
+        <v>12994</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="0" t="s">
-        <v>11992</v>
+        <v>12995</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="0" t="s">
-        <v>11993</v>
+        <v>12996</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="0" t="s">
-        <v>11994</v>
+        <v>12997</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="0" t="s">
-        <v>11995</v>
+        <v>12998</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="0" t="s">
-        <v>11996</v>
+        <v>12999</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="0" t="s">
-        <v>11997</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="0" t="s">
-        <v>11998</v>
+        <v>13001</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="0" t="s">
-        <v>11999</v>
+        <v>13002</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="0" t="s">
-        <v>12000</v>
+        <v>13003</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="0" t="s">
-        <v>12001</v>
+        <v>13004</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="0" t="s">
-        <v>12002</v>
+        <v>13005</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="0" t="s">
-        <v>12003</v>
+        <v>13006</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="0" t="s">
-        <v>12004</v>
+        <v>13007</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="0" t="s">
-        <v>12005</v>
+        <v>13008</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="0" t="s">
-        <v>12006</v>
+        <v>13009</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="0" t="s">
-        <v>12007</v>
+        <v>13010</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="0" t="s">
-        <v>12008</v>
+        <v>13011</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="0" t="s">
-        <v>12009</v>
+        <v>13012</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="0" t="s">
-        <v>12010</v>
+        <v>13013</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="0" t="s">
-        <v>12011</v>
+        <v>13014</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="0" t="s">
-        <v>12012</v>
+        <v>13015</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="0" t="s">
-        <v>12013</v>
+        <v>13016</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="0" t="s">
-        <v>12014</v>
+        <v>13017</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="0" t="s">
-        <v>12015</v>
+        <v>13018</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="0" t="s">
-        <v>12016</v>
+        <v>13019</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="0" t="s">
-        <v>12017</v>
+        <v>13020</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="0" t="s">
-        <v>12018</v>
+        <v>13021</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="0" t="s">
-        <v>12019</v>
+        <v>13022</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="0" t="s">
-        <v>12020</v>
+        <v>13023</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="0" t="s">
-        <v>12021</v>
+        <v>13024</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="0" t="s">
-        <v>12022</v>
+        <v>13025</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="0" t="s">
-        <v>12023</v>
+        <v>13026</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="0" t="s">
-        <v>12024</v>
+        <v>13027</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="0" t="s">
-        <v>12025</v>
+        <v>13028</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="0" t="s">
-        <v>12026</v>
+        <v>13029</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="0" t="s">
-        <v>12027</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="0" t="s">
-        <v>12028</v>
+        <v>13031</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="0" t="s">
-        <v>12029</v>
+        <v>13032</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="0" t="s">
-        <v>12030</v>
+        <v>13033</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="0" t="s">
-        <v>12031</v>
+        <v>13034</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="0" t="s">
-        <v>12032</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="0" t="s">
-        <v>12033</v>
+        <v>13036</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="0" t="s">
-        <v>12034</v>
+        <v>13037</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" s="0" t="s">
-        <v>12035</v>
+        <v>13038</v>
       </c>
     </row>
   </sheetData>

--- a/urls.xlsx
+++ b/urls.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13039" uniqueCount="13039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14042" uniqueCount="14042">
   <si>
     <t>https://empregopublico.github.io/</t>
   </si>
@@ -39137,6 +39137,3015 @@
   </si>
   <si>
     <t>https://empregopublico.github.io/empregos/j102815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104160.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104157.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104156.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104154.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104152.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104151.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104149.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104147.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104146.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104137.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104133.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104108.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104105.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104103.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104102.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104101.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104099.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104090.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104088.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104084.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104083.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104079.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104078.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104077.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104052.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104051.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104046.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104040.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104037.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104032.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104027.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104026.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104024.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104018.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104015.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104014.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104013.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104012.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104009.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j104000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103990.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103977.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103960.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103955.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103953.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103951.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103948.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103937.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103935.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103933.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103932.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103931.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103917.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103913.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103910.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103901.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103900.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103897.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103896.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103895.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103894.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103893.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103892.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103890.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103889.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103888.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103887.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103884.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103882.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103881.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103880.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103879.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103878.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103877.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103876.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103875.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103874.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103873.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103871.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103870.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103869.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103868.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103867.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103866.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103865.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103863.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103862.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103859.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103855.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103851.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103847.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103846.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103845.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103844.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103843.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103842.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103840.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103839.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103838.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103837.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103836.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103835.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103833.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103831.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103830.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103829.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103827.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103826.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103825.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103824.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103823.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103822.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103821.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103820.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103819.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103818.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103817.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103816.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103815.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103814.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103813.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103812.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103811.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103810.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103809.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103808.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103807.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103806.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103805.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103804.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103803.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103802.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103801.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103800.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103798.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103797.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103796.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103795.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103794.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103792.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103791.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103790.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103789.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103788.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103787.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103786.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103785.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103784.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103783.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103782.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103781.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103780.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103779.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103777.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103776.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103775.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103774.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103773.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103772.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103771.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103769.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103768.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103767.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103766.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103764.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103763.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103762.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103761.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103760.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103758.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103756.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103755.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103754.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103753.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103751.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103750.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103749.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103748.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103747.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103746.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103745.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103744.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103743.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103742.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103741.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103740.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103739.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103738.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103737.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103736.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103735.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103734.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103733.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103732.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103727.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103726.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103725.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103724.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103723.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103719.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103718.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103717.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103716.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103715.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103714.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103713.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103711.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103710.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103709.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103708.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103707.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103706.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103705.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103703.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103701.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103700.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103699.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103698.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103697.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103696.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103695.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103692.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103691.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103689.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103688.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103687.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103686.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103685.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103684.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103683.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103682.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103681.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103680.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103679.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103678.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103677.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103676.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103675.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103674.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103673.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103672.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103671.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103670.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103669.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103668.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103667.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103666.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103665.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103664.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103662.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103661.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103660.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103659.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103658.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103657.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103655.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103654.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103653.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103651.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103650.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103649.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103648.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103646.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103645.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103644.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103643.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103642.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103641.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103640.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103639.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103638.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103637.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103635.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103634.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103633.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103632.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103631.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103630.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103629.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103628.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103627.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103626.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103625.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103624.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103623.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103622.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103621.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103619.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103618.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103617.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103616.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103613.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103612.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103611.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103610.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103609.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103608.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103607.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103606.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103604.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103603.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103602.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103601.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103600.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103599.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103597.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103596.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103591.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103587.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103585.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103583.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103581.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103580.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103579.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103578.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103577.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103576.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103575.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103574.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103573.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103571.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103570.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103569.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103568.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103567.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103566.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103565.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103564.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103563.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103562.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103561.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103560.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103559.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103556.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103555.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103554.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103553.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103552.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103551.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103550.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103549.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103548.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103547.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103546.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103543.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103541.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103540.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103539.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103538.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103537.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103536.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103535.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103534.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103532.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103531.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103530.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103529.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103528.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103527.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103526.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103525.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103524.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103523.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103522.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103521.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103520.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103519.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103518.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103517.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103516.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103515.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103514.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103512.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103511.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103510.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103509.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103508.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103506.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103504.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103502.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103501.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103495.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103494.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103493.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103491.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103490.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103489.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103488.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103487.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103486.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103485.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103484.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103483.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103482.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103480.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103476.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103475.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103474.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103473.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103472.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103470.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103469.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103468.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103465.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103460.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103459.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103458.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103457.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103456.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103455.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103454.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103453.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103452.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103451.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103450.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103448.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103447.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103446.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103445.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103444.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103443.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103441.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103439.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103438.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103437.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103435.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103433.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103432.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103431.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103430.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103428.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103426.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103425.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103424.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103423.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103422.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103419.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103418.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103416.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103415.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103414.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103413.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103412.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103411.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103410.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103409.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103408.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103407.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103405.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103403.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103402.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103401.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103400.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103399.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103398.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103397.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103396.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103395.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103394.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103393.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103391.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103390.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103389.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103388.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103387.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103386.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103385.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103384.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103382.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103381.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103380.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103379.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103378.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103377.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103376.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103375.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103374.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103373.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103372.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103371.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103370.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103369.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103368.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103367.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103366.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103365.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103364.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103361.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103360.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103359.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103358.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103357.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103356.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103355.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103353.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103352.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103351.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103350.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103349.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103348.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103347.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103346.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103345.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103344.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103343.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103342.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103341.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103340.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103339.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103338.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103336.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103335.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103334.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103333.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103332.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103331.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103330.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103329.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103328.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103327.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103326.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103325.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103324.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103323.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103322.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103321.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103319.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103318.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103317.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103314.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103313.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103312.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103311.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103310.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103308.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103307.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103306.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103295.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103294.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103293.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103290.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103287.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103286.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103284.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103280.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103278.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103277.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103275.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103274.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103271.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103266.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103257.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103254.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103251.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103250.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103249.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103247.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103246.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103245.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103243.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103242.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103241.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103240.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103239.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103238.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103236.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103230.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103228.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103227.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103226.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103225.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103223.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103222.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103221.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103220.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103219.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103218.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103217.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103216.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103215.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103214.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103213.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103212.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103211.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103210.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103209.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103208.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103207.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103206.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103205.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103204.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103203.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103202.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103200.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103199.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103198.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103197.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103196.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103195.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103194.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103193.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103192.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103189.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103187.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103186.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103185.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103184.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103183.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103182.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103181.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103179.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103178.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103177.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103176.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103175.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103174.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103173.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103172.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103171.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103170.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103169.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103164.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103158.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103155.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103153.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103150.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103145.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103144.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103143.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103142.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103141.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103140.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103139.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103138.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103136.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103135.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103134.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103132.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103131.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103130.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103129.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103128.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103127.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103126.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103125.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103124.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103123.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103122.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103121.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103120.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103119.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103118.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103117.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103116.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103115.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103114.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103113.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103112.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103111.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103110.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103109.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103107.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103106.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103104.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103100.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103098.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103097.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103096.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103095.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103094.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103092.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103089.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103087.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103086.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103085.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103082.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103081.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103080.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103076.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103075.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103074.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103073.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103072.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103071.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103070.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103069.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103068.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103067.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103066.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103065.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103064.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103063.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103062.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103061.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103060.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103059.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103058.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103057.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103056.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103055.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103054.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103053.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103050.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103049.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103048.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103047.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103045.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103044.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103043.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103042.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103041.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103039.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103038.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103036.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103035.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103034.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103033.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103031.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103030.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103029.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103028.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103025.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103023.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103021.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103020.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103019.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103017.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103016.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103011.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103010.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103008.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103007.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103006.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103005.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103004.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103003.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103002.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103001.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j103000.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102999.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102998.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102997.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102995.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102994.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102993.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102992.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102991.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102989.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102988.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102987.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102986.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102985.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102984.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102983.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102982.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102981.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102980.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102979.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102978.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102976.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102975.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102974.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102973.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102972.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102971.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102970.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102969.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102968.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102967.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102966.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102965.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102964.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102963.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102962.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102961.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102959.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102958.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102957.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102956.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102954.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102952.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102950.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102949.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102947.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102946.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102945.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102944.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102943.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102942.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102941.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102940.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102939.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102938.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102936.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102930.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102929.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102928.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102927.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102926.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102925.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102924.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102923.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102922.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102921.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102920.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102919.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102918.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102916.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102915.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102914.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102912.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102911.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102909.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102908.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102907.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102906.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102905.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102904.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102903.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102902.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102899.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102891.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102886.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102883.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102872.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102864.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102860.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102858.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102857.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102856.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102854.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102853.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102852.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102850.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102849.html</t>
+  </si>
+  <si>
+    <t>https://empregopublico.github.io/empregos/j102848.html</t>
   </si>
 </sst>
 </file>
@@ -39157,7 +42166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -39177,11 +42186,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -39195,6 +42205,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39520,5017 +42531,5017 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12036</v>
+        <v>13039</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>12037</v>
+        <v>13040</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>12038</v>
+        <v>13041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>12039</v>
+        <v>13042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>12040</v>
+        <v>13043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12041</v>
+        <v>13044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>12042</v>
+        <v>13045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>12043</v>
+        <v>13046</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>12044</v>
+        <v>13047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>12045</v>
+        <v>13048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>12046</v>
+        <v>13049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>12047</v>
+        <v>13050</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12048</v>
+        <v>13051</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>12049</v>
+        <v>13052</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>12050</v>
+        <v>13053</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12051</v>
+        <v>13054</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>12052</v>
+        <v>13055</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>12053</v>
+        <v>13056</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>12054</v>
+        <v>13057</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>12055</v>
+        <v>13058</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>12056</v>
+        <v>13059</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>12057</v>
+        <v>13060</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>12058</v>
+        <v>13061</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>12059</v>
+        <v>13062</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>12060</v>
+        <v>13063</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>12061</v>
+        <v>13064</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>12062</v>
+        <v>13065</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>12063</v>
+        <v>13066</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>12064</v>
+        <v>13067</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>12065</v>
+        <v>13068</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>12066</v>
+        <v>13069</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>12067</v>
+        <v>13070</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>12068</v>
+        <v>13071</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>12069</v>
+        <v>13072</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>12070</v>
+        <v>13073</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>12071</v>
+        <v>13074</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>12072</v>
+        <v>13075</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>12073</v>
+        <v>13076</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>12074</v>
+        <v>13077</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>12075</v>
+        <v>13078</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>12076</v>
+        <v>13079</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>12077</v>
+        <v>13080</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>12078</v>
+        <v>13081</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>12079</v>
+        <v>13082</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>12080</v>
+        <v>13083</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>12081</v>
+        <v>13084</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>12082</v>
+        <v>13085</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>12083</v>
+        <v>13086</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>12084</v>
+        <v>13087</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>12085</v>
+        <v>13088</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>12086</v>
+        <v>13089</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>12087</v>
+        <v>13090</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>12088</v>
+        <v>13091</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>12089</v>
+        <v>13092</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>12090</v>
+        <v>13093</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>12091</v>
+        <v>13094</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>12092</v>
+        <v>13095</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>12093</v>
+        <v>13096</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>12094</v>
+        <v>13097</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>12095</v>
+        <v>13098</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>12096</v>
+        <v>13099</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>12097</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>12098</v>
+        <v>13101</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>12099</v>
+        <v>13102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>12100</v>
+        <v>13103</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>12101</v>
+        <v>13104</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>12102</v>
+        <v>13105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>12103</v>
+        <v>13106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>12104</v>
+        <v>13107</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>12105</v>
+        <v>13108</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>12106</v>
+        <v>13109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>12107</v>
+        <v>13110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>12108</v>
+        <v>13111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>12109</v>
+        <v>13112</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>12110</v>
+        <v>13113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>12111</v>
+        <v>13114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>12112</v>
+        <v>13115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>12113</v>
+        <v>13116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>12114</v>
+        <v>13117</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>12115</v>
+        <v>13118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>12116</v>
+        <v>13119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>12117</v>
+        <v>13120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>12118</v>
+        <v>13121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>12119</v>
+        <v>13122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>12120</v>
+        <v>13123</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>12121</v>
+        <v>13124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>12122</v>
+        <v>13125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>12123</v>
+        <v>13126</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>12124</v>
+        <v>13127</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>12125</v>
+        <v>13128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>12126</v>
+        <v>13129</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>12127</v>
+        <v>13130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>12128</v>
+        <v>13131</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>12129</v>
+        <v>13132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>12130</v>
+        <v>13133</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>12131</v>
+        <v>13134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>12132</v>
+        <v>13135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>12133</v>
+        <v>13136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>12134</v>
+        <v>13137</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>12135</v>
+        <v>13138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>12136</v>
+        <v>13139</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>12137</v>
+        <v>13140</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>12138</v>
+        <v>13141</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>12139</v>
+        <v>13142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>12140</v>
+        <v>13143</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>12141</v>
+        <v>13144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>12142</v>
+        <v>13145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>12143</v>
+        <v>13146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>12144</v>
+        <v>13147</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>12145</v>
+        <v>13148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>12146</v>
+        <v>13149</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>12147</v>
+        <v>13150</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>12148</v>
+        <v>13151</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>12149</v>
+        <v>13152</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>12150</v>
+        <v>13153</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>12151</v>
+        <v>13154</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>12152</v>
+        <v>13155</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>12153</v>
+        <v>13156</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>12154</v>
+        <v>13157</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>12155</v>
+        <v>13158</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>12156</v>
+        <v>13159</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>12157</v>
+        <v>13160</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>12158</v>
+        <v>13161</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>12159</v>
+        <v>13162</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>12160</v>
+        <v>13163</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>12161</v>
+        <v>13164</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>12162</v>
+        <v>13165</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>12163</v>
+        <v>13166</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>12164</v>
+        <v>13167</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>12165</v>
+        <v>13168</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>12166</v>
+        <v>13169</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>12167</v>
+        <v>13170</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>12168</v>
+        <v>13171</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>12169</v>
+        <v>13172</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>12170</v>
+        <v>13173</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>12171</v>
+        <v>13174</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>12172</v>
+        <v>13175</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>12173</v>
+        <v>13176</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>12174</v>
+        <v>13177</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>12175</v>
+        <v>13178</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>12176</v>
+        <v>13179</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>12177</v>
+        <v>13180</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>12178</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>12179</v>
+        <v>13182</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>12180</v>
+        <v>13183</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>12181</v>
+        <v>13184</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>12182</v>
+        <v>13185</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>12183</v>
+        <v>13186</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>12184</v>
+        <v>13187</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>12185</v>
+        <v>13188</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>12186</v>
+        <v>13189</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>12187</v>
+        <v>13190</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>12188</v>
+        <v>13191</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>12189</v>
+        <v>13192</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>12190</v>
+        <v>13193</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>12191</v>
+        <v>13194</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>12192</v>
+        <v>13195</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>12193</v>
+        <v>13196</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>12194</v>
+        <v>13197</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>12195</v>
+        <v>13198</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>12196</v>
+        <v>13199</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>12197</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>12198</v>
+        <v>13201</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>12199</v>
+        <v>13202</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>12200</v>
+        <v>13203</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>12201</v>
+        <v>13204</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>12202</v>
+        <v>13205</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>12203</v>
+        <v>13206</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>12204</v>
+        <v>13207</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>12205</v>
+        <v>13208</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>12206</v>
+        <v>13209</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>12207</v>
+        <v>13210</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>12208</v>
+        <v>13211</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>12209</v>
+        <v>13212</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>12210</v>
+        <v>13213</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>12211</v>
+        <v>13214</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>12212</v>
+        <v>13215</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>12213</v>
+        <v>13216</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>12214</v>
+        <v>13217</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>12215</v>
+        <v>13218</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>12216</v>
+        <v>13219</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>12217</v>
+        <v>13220</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>12218</v>
+        <v>13221</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>12219</v>
+        <v>13222</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>12220</v>
+        <v>13223</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>12221</v>
+        <v>13224</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>12222</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>12223</v>
+        <v>13226</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>12224</v>
+        <v>13227</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>12225</v>
+        <v>13228</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>12226</v>
+        <v>13229</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>12227</v>
+        <v>13230</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>12228</v>
+        <v>13231</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>12229</v>
+        <v>13232</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>12230</v>
+        <v>13233</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>12231</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>12232</v>
+        <v>13235</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>12233</v>
+        <v>13236</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>12234</v>
+        <v>13237</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>12235</v>
+        <v>13238</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>12236</v>
+        <v>13239</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>12237</v>
+        <v>13240</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>12238</v>
+        <v>13241</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>12239</v>
+        <v>13242</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>12240</v>
+        <v>13243</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>12241</v>
+        <v>13244</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>12242</v>
+        <v>13245</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>12243</v>
+        <v>13246</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>12244</v>
+        <v>13247</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>12245</v>
+        <v>13248</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>12246</v>
+        <v>13249</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>12247</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>12248</v>
+        <v>13251</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>12249</v>
+        <v>13252</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>12250</v>
+        <v>13253</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>12251</v>
+        <v>13254</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>12252</v>
+        <v>13255</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>12253</v>
+        <v>13256</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>12254</v>
+        <v>13257</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>12255</v>
+        <v>13258</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>12256</v>
+        <v>13259</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>12257</v>
+        <v>13260</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>12258</v>
+        <v>13261</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>12259</v>
+        <v>13262</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>12260</v>
+        <v>13263</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>12261</v>
+        <v>13264</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>12262</v>
+        <v>13265</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>12263</v>
+        <v>13266</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>12264</v>
+        <v>13267</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>12265</v>
+        <v>13268</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>12266</v>
+        <v>13269</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>12267</v>
+        <v>13270</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>12268</v>
+        <v>13271</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>12269</v>
+        <v>13272</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>12270</v>
+        <v>13273</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>12271</v>
+        <v>13274</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>12272</v>
+        <v>13275</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>12273</v>
+        <v>13276</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>12274</v>
+        <v>13277</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>12275</v>
+        <v>13278</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>12276</v>
+        <v>13279</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>12277</v>
+        <v>13280</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>12278</v>
+        <v>13281</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>12279</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>12280</v>
+        <v>13283</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>12281</v>
+        <v>13284</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>12282</v>
+        <v>13285</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>12283</v>
+        <v>13286</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>12284</v>
+        <v>13287</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>12285</v>
+        <v>13288</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>12286</v>
+        <v>13289</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>12287</v>
+        <v>13290</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>12288</v>
+        <v>13291</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>12289</v>
+        <v>13292</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>12290</v>
+        <v>13293</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>12291</v>
+        <v>13294</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>12292</v>
+        <v>13295</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>12293</v>
+        <v>13296</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>12294</v>
+        <v>13297</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>12295</v>
+        <v>13298</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>12296</v>
+        <v>13299</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>12297</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>12298</v>
+        <v>13301</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>12299</v>
+        <v>13302</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>12300</v>
+        <v>13303</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>12301</v>
+        <v>13304</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>12302</v>
+        <v>13305</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>12303</v>
+        <v>13306</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>12304</v>
+        <v>13307</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>12305</v>
+        <v>13308</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>12306</v>
+        <v>13309</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>12307</v>
+        <v>13310</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>12308</v>
+        <v>13311</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>12309</v>
+        <v>13312</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>12310</v>
+        <v>13313</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>12311</v>
+        <v>13314</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>12312</v>
+        <v>13315</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>12313</v>
+        <v>13316</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>12314</v>
+        <v>13317</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>12315</v>
+        <v>13318</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>12316</v>
+        <v>13319</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>12317</v>
+        <v>13320</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>12318</v>
+        <v>13321</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>12319</v>
+        <v>13322</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>12320</v>
+        <v>13323</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>12321</v>
+        <v>13324</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>12322</v>
+        <v>13325</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>12323</v>
+        <v>13326</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>12324</v>
+        <v>13327</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>12325</v>
+        <v>13328</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>12326</v>
+        <v>13329</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>12327</v>
+        <v>13330</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>12328</v>
+        <v>13331</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>12329</v>
+        <v>13332</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>12330</v>
+        <v>13333</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>12331</v>
+        <v>13334</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>12332</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>12333</v>
+        <v>13336</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>12334</v>
+        <v>13337</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>12335</v>
+        <v>13338</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>12336</v>
+        <v>13339</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>12337</v>
+        <v>13340</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>12338</v>
+        <v>13341</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>12339</v>
+        <v>13342</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>12340</v>
+        <v>13343</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>12341</v>
+        <v>13344</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>12342</v>
+        <v>13345</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>12343</v>
+        <v>13346</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>12344</v>
+        <v>13347</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>12345</v>
+        <v>13348</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>12346</v>
+        <v>13349</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>12347</v>
+        <v>13350</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>12348</v>
+        <v>13351</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>12349</v>
+        <v>13352</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>12350</v>
+        <v>13353</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>12351</v>
+        <v>13354</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>12352</v>
+        <v>13355</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>12353</v>
+        <v>13356</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>12354</v>
+        <v>13357</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>12355</v>
+        <v>13358</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>12356</v>
+        <v>13359</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>12357</v>
+        <v>13360</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>12358</v>
+        <v>13361</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>12359</v>
+        <v>13362</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>12360</v>
+        <v>13363</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>12361</v>
+        <v>13364</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>12362</v>
+        <v>13365</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>12363</v>
+        <v>13366</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>12364</v>
+        <v>13367</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>12365</v>
+        <v>13368</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>12366</v>
+        <v>13369</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>12367</v>
+        <v>13370</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>12368</v>
+        <v>13371</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>12369</v>
+        <v>13372</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>12370</v>
+        <v>13373</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>12371</v>
+        <v>13374</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>12372</v>
+        <v>13375</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>12373</v>
+        <v>13376</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>12374</v>
+        <v>13377</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>12375</v>
+        <v>13378</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>12376</v>
+        <v>13379</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>12377</v>
+        <v>13380</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>12378</v>
+        <v>13381</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>12379</v>
+        <v>13382</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>12380</v>
+        <v>13383</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>12381</v>
+        <v>13384</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>12382</v>
+        <v>13385</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>12383</v>
+        <v>13386</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>12384</v>
+        <v>13387</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>12385</v>
+        <v>13388</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>12386</v>
+        <v>13389</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>12387</v>
+        <v>13390</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>12388</v>
+        <v>13391</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>12389</v>
+        <v>13392</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>12390</v>
+        <v>13393</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>12391</v>
+        <v>13394</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>12392</v>
+        <v>13395</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>12393</v>
+        <v>13396</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>12394</v>
+        <v>13397</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>12395</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>12396</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>12397</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>12398</v>
+        <v>13401</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>12399</v>
+        <v>13402</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>12400</v>
+        <v>13403</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>12401</v>
+        <v>13404</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>12402</v>
+        <v>13405</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>12403</v>
+        <v>13406</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>12404</v>
+        <v>13407</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>12405</v>
+        <v>13408</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>12406</v>
+        <v>13409</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>12407</v>
+        <v>13410</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>12408</v>
+        <v>13411</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>12409</v>
+        <v>13412</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>12410</v>
+        <v>13413</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>12411</v>
+        <v>13414</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>12412</v>
+        <v>13415</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>12413</v>
+        <v>13416</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>12414</v>
+        <v>13417</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>12415</v>
+        <v>13418</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>12416</v>
+        <v>13419</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>12417</v>
+        <v>13420</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>12418</v>
+        <v>13421</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>12419</v>
+        <v>13422</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>12420</v>
+        <v>13423</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>12421</v>
+        <v>13424</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>12422</v>
+        <v>13425</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>12423</v>
+        <v>13426</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>12424</v>
+        <v>13427</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>12425</v>
+        <v>13428</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>12426</v>
+        <v>13429</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>12427</v>
+        <v>13430</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>12428</v>
+        <v>13431</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>12429</v>
+        <v>13432</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>12430</v>
+        <v>13433</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>12431</v>
+        <v>13434</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>12432</v>
+        <v>13435</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>12433</v>
+        <v>13436</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>12434</v>
+        <v>13437</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>12435</v>
+        <v>13438</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>12436</v>
+        <v>13439</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>12437</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>12438</v>
+        <v>13441</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>12439</v>
+        <v>13442</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>12440</v>
+        <v>13443</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>12441</v>
+        <v>13444</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>12442</v>
+        <v>13445</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>12443</v>
+        <v>13446</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>12444</v>
+        <v>13447</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>12445</v>
+        <v>13448</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>12446</v>
+        <v>13449</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>12447</v>
+        <v>13450</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>12448</v>
+        <v>13451</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>12449</v>
+        <v>13452</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>12450</v>
+        <v>13453</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>12451</v>
+        <v>13454</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>12452</v>
+        <v>13455</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>12453</v>
+        <v>13456</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>12454</v>
+        <v>13457</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>12455</v>
+        <v>13458</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>12456</v>
+        <v>13459</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>12457</v>
+        <v>13460</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>12458</v>
+        <v>13461</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>12459</v>
+        <v>13462</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>12460</v>
+        <v>13463</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>12461</v>
+        <v>13464</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>12462</v>
+        <v>13465</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>12463</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>12464</v>
+        <v>13467</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>12465</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>12466</v>
+        <v>13469</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>12467</v>
+        <v>13470</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>12468</v>
+        <v>13471</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>12469</v>
+        <v>13472</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>12470</v>
+        <v>13473</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>12471</v>
+        <v>13474</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>12472</v>
+        <v>13475</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>12473</v>
+        <v>13476</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>12474</v>
+        <v>13477</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>12475</v>
+        <v>13478</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>12476</v>
+        <v>13479</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>12477</v>
+        <v>13480</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>12478</v>
+        <v>13481</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>12479</v>
+        <v>13482</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>12480</v>
+        <v>13483</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>12481</v>
+        <v>13484</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>12482</v>
+        <v>13485</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>12483</v>
+        <v>13486</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>12484</v>
+        <v>13487</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>12485</v>
+        <v>13488</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>12486</v>
+        <v>13489</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>12487</v>
+        <v>13490</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>12488</v>
+        <v>13491</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>12489</v>
+        <v>13492</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>12490</v>
+        <v>13493</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>12491</v>
+        <v>13494</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>12492</v>
+        <v>13495</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>12493</v>
+        <v>13496</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>12494</v>
+        <v>13497</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>12495</v>
+        <v>13498</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>12496</v>
+        <v>13499</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>12497</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>12498</v>
+        <v>13501</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>12499</v>
+        <v>13502</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>12500</v>
+        <v>13503</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>12501</v>
+        <v>13504</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>12502</v>
+        <v>13505</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>12503</v>
+        <v>13506</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>12504</v>
+        <v>13507</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>12505</v>
+        <v>13508</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>12506</v>
+        <v>13509</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>12507</v>
+        <v>13510</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>12508</v>
+        <v>13511</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>12509</v>
+        <v>13512</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>12510</v>
+        <v>13513</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>12511</v>
+        <v>13514</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>12512</v>
+        <v>13515</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>12513</v>
+        <v>13516</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>12514</v>
+        <v>13517</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>12515</v>
+        <v>13518</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>12516</v>
+        <v>13519</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>12517</v>
+        <v>13520</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>12518</v>
+        <v>13521</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>12519</v>
+        <v>13522</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>12520</v>
+        <v>13523</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>12521</v>
+        <v>13524</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>12522</v>
+        <v>13525</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>12523</v>
+        <v>13526</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>12524</v>
+        <v>13527</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>12525</v>
+        <v>13528</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>12526</v>
+        <v>13529</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>12527</v>
+        <v>13530</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>12528</v>
+        <v>13531</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>12529</v>
+        <v>13532</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>12530</v>
+        <v>13533</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>12531</v>
+        <v>13534</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>12532</v>
+        <v>13535</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>12533</v>
+        <v>13536</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>12534</v>
+        <v>13537</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>12535</v>
+        <v>13538</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>12536</v>
+        <v>13539</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>12537</v>
+        <v>13540</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>12538</v>
+        <v>13541</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>12539</v>
+        <v>13542</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>12540</v>
+        <v>13543</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>12541</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>12542</v>
+        <v>13545</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>12543</v>
+        <v>13546</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>12544</v>
+        <v>13547</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>12545</v>
+        <v>13548</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>12546</v>
+        <v>13549</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>12547</v>
+        <v>13550</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>12548</v>
+        <v>13551</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>12549</v>
+        <v>13552</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>12550</v>
+        <v>13553</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>12551</v>
+        <v>13554</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>12552</v>
+        <v>13555</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>12553</v>
+        <v>13556</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>12554</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>12555</v>
+        <v>13558</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>12556</v>
+        <v>13559</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>12557</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>12558</v>
+        <v>13561</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>12559</v>
+        <v>13562</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>12560</v>
+        <v>13563</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>12561</v>
+        <v>13564</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>12562</v>
+        <v>13565</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>12563</v>
+        <v>13566</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>12564</v>
+        <v>13567</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>12565</v>
+        <v>13568</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>12566</v>
+        <v>13569</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>12567</v>
+        <v>13570</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>12568</v>
+        <v>13571</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>12569</v>
+        <v>13572</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>12570</v>
+        <v>13573</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>12571</v>
+        <v>13574</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>12572</v>
+        <v>13575</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>12573</v>
+        <v>13576</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>12574</v>
+        <v>13577</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>12575</v>
+        <v>13578</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>12576</v>
+        <v>13579</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>12577</v>
+        <v>13580</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>12578</v>
+        <v>13581</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>12579</v>
+        <v>13582</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>12580</v>
+        <v>13583</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>12581</v>
+        <v>13584</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>12582</v>
+        <v>13585</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>12583</v>
+        <v>13586</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>12584</v>
+        <v>13587</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>12585</v>
+        <v>13588</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>12586</v>
+        <v>13589</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>12587</v>
+        <v>13590</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="0" t="s">
-        <v>12588</v>
+        <v>13591</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="0" t="s">
-        <v>12589</v>
+        <v>13592</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="0" t="s">
-        <v>12590</v>
+        <v>13593</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="0" t="s">
-        <v>12591</v>
+        <v>13594</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="0" t="s">
-        <v>12592</v>
+        <v>13595</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="0" t="s">
-        <v>12593</v>
+        <v>13596</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="0" t="s">
-        <v>12594</v>
+        <v>13597</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="0" t="s">
-        <v>12595</v>
+        <v>13598</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="0" t="s">
-        <v>12596</v>
+        <v>13599</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="0" t="s">
-        <v>12597</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="0" t="s">
-        <v>12598</v>
+        <v>13601</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="0" t="s">
-        <v>12599</v>
+        <v>13602</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="0" t="s">
-        <v>12600</v>
+        <v>13603</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="0" t="s">
-        <v>12601</v>
+        <v>13604</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="0" t="s">
-        <v>12602</v>
+        <v>13605</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="0" t="s">
-        <v>12603</v>
+        <v>13606</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="0" t="s">
-        <v>12604</v>
+        <v>13607</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="0" t="s">
-        <v>12605</v>
+        <v>13608</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="0" t="s">
-        <v>12606</v>
+        <v>13609</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="0" t="s">
-        <v>12607</v>
+        <v>13610</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="0" t="s">
-        <v>12608</v>
+        <v>13611</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="0" t="s">
-        <v>12609</v>
+        <v>13612</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="0" t="s">
-        <v>12610</v>
+        <v>13613</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="0" t="s">
-        <v>12611</v>
+        <v>13614</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="0" t="s">
-        <v>12612</v>
+        <v>13615</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="0" t="s">
-        <v>12613</v>
+        <v>13616</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="0" t="s">
-        <v>12614</v>
+        <v>13617</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="0" t="s">
-        <v>12615</v>
+        <v>13618</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="0" t="s">
-        <v>12616</v>
+        <v>13619</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="0" t="s">
-        <v>12617</v>
+        <v>13620</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="0" t="s">
-        <v>12618</v>
+        <v>13621</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="0" t="s">
-        <v>12619</v>
+        <v>13622</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="0" t="s">
-        <v>12620</v>
+        <v>13623</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="0" t="s">
-        <v>12621</v>
+        <v>13624</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="0" t="s">
-        <v>12622</v>
+        <v>13625</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="0" t="s">
-        <v>12623</v>
+        <v>13626</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="0" t="s">
-        <v>12624</v>
+        <v>13627</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="0" t="s">
-        <v>12625</v>
+        <v>13628</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="0" t="s">
-        <v>12626</v>
+        <v>13629</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="0" t="s">
-        <v>12627</v>
+        <v>13630</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="0" t="s">
-        <v>12628</v>
+        <v>13631</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="0" t="s">
-        <v>12629</v>
+        <v>13632</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="0" t="s">
-        <v>12630</v>
+        <v>13633</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="0" t="s">
-        <v>12631</v>
+        <v>13634</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="0" t="s">
-        <v>12632</v>
+        <v>13635</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="0" t="s">
-        <v>12633</v>
+        <v>13636</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="0" t="s">
-        <v>12634</v>
+        <v>13637</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="0" t="s">
-        <v>12635</v>
+        <v>13638</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="0" t="s">
-        <v>12636</v>
+        <v>13639</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="0" t="s">
-        <v>12637</v>
+        <v>13640</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="0" t="s">
-        <v>12638</v>
+        <v>13641</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="0" t="s">
-        <v>12639</v>
+        <v>13642</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="0" t="s">
-        <v>12640</v>
+        <v>13643</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="0" t="s">
-        <v>12641</v>
+        <v>13644</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="0" t="s">
-        <v>12642</v>
+        <v>13645</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="0" t="s">
-        <v>12643</v>
+        <v>13646</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="0" t="s">
-        <v>12644</v>
+        <v>13647</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="0" t="s">
-        <v>12645</v>
+        <v>13648</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="0" t="s">
-        <v>12646</v>
+        <v>13649</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="0" t="s">
-        <v>12647</v>
+        <v>13650</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="0" t="s">
-        <v>12648</v>
+        <v>13651</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="0" t="s">
-        <v>12649</v>
+        <v>13652</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="0" t="s">
-        <v>12650</v>
+        <v>13653</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="0" t="s">
-        <v>12651</v>
+        <v>13654</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="0" t="s">
-        <v>12652</v>
+        <v>13655</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="0" t="s">
-        <v>12653</v>
+        <v>13656</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="0" t="s">
-        <v>12654</v>
+        <v>13657</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="0" t="s">
-        <v>12655</v>
+        <v>13658</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="0" t="s">
-        <v>12656</v>
+        <v>13659</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="0" t="s">
-        <v>12657</v>
+        <v>13660</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="0" t="s">
-        <v>12658</v>
+        <v>13661</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="0" t="s">
-        <v>12659</v>
+        <v>13662</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="0" t="s">
-        <v>12660</v>
+        <v>13663</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="0" t="s">
-        <v>12661</v>
+        <v>13664</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="0" t="s">
-        <v>12662</v>
+        <v>13665</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="0" t="s">
-        <v>12663</v>
+        <v>13666</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="0" t="s">
-        <v>12664</v>
+        <v>13667</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="0" t="s">
-        <v>12665</v>
+        <v>13668</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="0" t="s">
-        <v>12666</v>
+        <v>13669</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="0" t="s">
-        <v>12667</v>
+        <v>13670</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="0" t="s">
-        <v>12668</v>
+        <v>13671</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="0" t="s">
-        <v>12669</v>
+        <v>13672</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="0" t="s">
-        <v>12670</v>
+        <v>13673</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="0" t="s">
-        <v>12671</v>
+        <v>13674</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="0" t="s">
-        <v>12672</v>
+        <v>13675</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="0" t="s">
-        <v>12673</v>
+        <v>13676</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="0" t="s">
-        <v>12674</v>
+        <v>13677</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="0" t="s">
-        <v>12675</v>
+        <v>13678</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="0" t="s">
-        <v>12676</v>
+        <v>13679</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="0" t="s">
-        <v>12677</v>
+        <v>13680</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="0" t="s">
-        <v>12678</v>
+        <v>13681</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="0" t="s">
-        <v>12679</v>
+        <v>13682</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="0" t="s">
-        <v>12680</v>
+        <v>13683</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="0" t="s">
-        <v>12681</v>
+        <v>13684</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="0" t="s">
-        <v>12682</v>
+        <v>13685</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="0" t="s">
-        <v>12683</v>
+        <v>13686</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="0" t="s">
-        <v>12684</v>
+        <v>13687</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="0" t="s">
-        <v>12685</v>
+        <v>13688</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="0" t="s">
-        <v>12686</v>
+        <v>13689</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="0" t="s">
-        <v>12687</v>
+        <v>13690</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="0" t="s">
-        <v>12688</v>
+        <v>13691</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="0" t="s">
-        <v>12689</v>
+        <v>13692</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="0" t="s">
-        <v>12690</v>
+        <v>13693</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="0" t="s">
-        <v>12691</v>
+        <v>13694</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="0" t="s">
-        <v>12692</v>
+        <v>13695</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="0" t="s">
-        <v>12693</v>
+        <v>13696</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="0" t="s">
-        <v>12694</v>
+        <v>13697</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="0" t="s">
-        <v>12695</v>
+        <v>13698</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="0" t="s">
-        <v>12696</v>
+        <v>13699</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="0" t="s">
-        <v>12697</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="0" t="s">
-        <v>12698</v>
+        <v>13701</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="0" t="s">
-        <v>12699</v>
+        <v>13702</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="0" t="s">
-        <v>12700</v>
+        <v>13703</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="0" t="s">
-        <v>12701</v>
+        <v>13704</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="0" t="s">
-        <v>12702</v>
+        <v>13705</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="0" t="s">
-        <v>12703</v>
+        <v>13706</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="0" t="s">
-        <v>12704</v>
+        <v>13707</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="0" t="s">
-        <v>12705</v>
+        <v>13708</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="0" t="s">
-        <v>12706</v>
+        <v>13709</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="0" t="s">
-        <v>12707</v>
+        <v>13710</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="0" t="s">
-        <v>12708</v>
+        <v>13711</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="0" t="s">
-        <v>12709</v>
+        <v>13712</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="0" t="s">
-        <v>12710</v>
+        <v>13713</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="0" t="s">
-        <v>12711</v>
+        <v>13714</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="0" t="s">
-        <v>12712</v>
+        <v>13715</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="0" t="s">
-        <v>12713</v>
+        <v>13716</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="0" t="s">
-        <v>12714</v>
+        <v>13717</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="0" t="s">
-        <v>12715</v>
+        <v>13718</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="0" t="s">
-        <v>12716</v>
+        <v>13719</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="0" t="s">
-        <v>12717</v>
+        <v>13720</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="0" t="s">
-        <v>12718</v>
+        <v>13721</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="0" t="s">
-        <v>12719</v>
+        <v>13722</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="0" t="s">
-        <v>12720</v>
+        <v>13723</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="0" t="s">
-        <v>12721</v>
+        <v>13724</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="0" t="s">
-        <v>12722</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="0" t="s">
-        <v>12